--- a/ExcelInputs/GEPEP_calibration.xlsx
+++ b/ExcelInputs/GEPEP_calibration.xlsx
@@ -8,22 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EA25F5-815A-412F-993E-47589F02F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267A42CB-FB76-4098-989B-210472A0D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29415" yWindow="570" windowWidth="25140" windowHeight="15075" activeTab="1" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
+    <workbookView xWindow="30585" yWindow="1125" windowWidth="25140" windowHeight="15075" activeTab="3" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Controls" sheetId="5" r:id="rId1"/>
+    <sheet name="Weights" sheetId="10" r:id="rId1"/>
     <sheet name="Targets" sheetId="1" r:id="rId2"/>
-    <sheet name="Weights" sheetId="2" r:id="rId3"/>
-    <sheet name="BestBet" sheetId="4" r:id="rId4"/>
-    <sheet name="Low" sheetId="3" r:id="rId5"/>
-    <sheet name="High" sheetId="6" r:id="rId6"/>
+    <sheet name="BestBet" sheetId="4" r:id="rId3"/>
+    <sheet name="Low" sheetId="3" r:id="rId4"/>
+    <sheet name="High" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="HighAdj">Controls!$B$4:$M$4</definedName>
-    <definedName name="LowAdj">Controls!$B$3:$M$3</definedName>
-    <definedName name="Traits">Controls!$B$2:$M$2</definedName>
+    <definedName name="AverageProduction">#REF!</definedName>
+    <definedName name="Coeff_target">#REF!</definedName>
+    <definedName name="coefficients">#REF!</definedName>
+    <definedName name="HighAdj">#REF!</definedName>
+    <definedName name="LowAdj">#REF!</definedName>
+    <definedName name="ProdnTargets">Targets!$B$3:$L$31</definedName>
+    <definedName name="Scenario">#REF!</definedName>
+    <definedName name="StdCoeffs">#REF!</definedName>
+    <definedName name="Teams">#REF!</definedName>
+    <definedName name="Traits">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -42,8 +48,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>John</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9D797997-DF0E-48C8-AEC5-61F8815B4FED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There are 2 sources of information for this worksheet.
+1. The initial value prior to any optimisation. Copy in from BestBet Initial
+2. Results from a previous optimisation, copied in from CalibrationOutput workbook</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="50">
   <si>
     <t>Team</t>
   </si>
@@ -81,20 +123,131 @@
     <t>wwt</t>
   </si>
   <si>
-    <t>Traits</t>
+    <t>Average</t>
   </si>
   <si>
-    <t>Low adj</t>
+    <t>sfw</t>
   </si>
   <si>
-    <t>High adj</t>
+    <t>sfd</t>
+  </si>
+  <si>
+    <t>iss</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>evg</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>basal mort</t>
+  </si>
+  <si>
+    <t>Wwt scalar</t>
+  </si>
+  <si>
+    <t>ANDER 140474</t>
+  </si>
+  <si>
+    <t>BARLOO 140027</t>
+  </si>
+  <si>
+    <t>BILL 130641</t>
+  </si>
+  <si>
+    <t>BILL 151280</t>
+  </si>
+  <si>
+    <t>BOOLAD 120708</t>
+  </si>
+  <si>
+    <t>CLAYPANS 130597</t>
+  </si>
+  <si>
+    <t>CORO 130660</t>
+  </si>
+  <si>
+    <t>CRANMORE 1310</t>
+  </si>
+  <si>
+    <t>ET MUND 090137</t>
+  </si>
+  <si>
+    <t>EJANDING 145096</t>
+  </si>
+  <si>
+    <t>HR 2.715</t>
+  </si>
+  <si>
+    <t>HAZELDEAN 11.43</t>
+  </si>
+  <si>
+    <t>INGLE 130387</t>
+  </si>
+  <si>
+    <t>INGLE 150087</t>
+  </si>
+  <si>
+    <t>LEAHCIM 090918</t>
+  </si>
+  <si>
+    <t>MTECH WA 100081</t>
+  </si>
+  <si>
+    <t>MIANELUP M00540</t>
+  </si>
+  <si>
+    <t>MOOJEPIN 120652</t>
+  </si>
+  <si>
+    <t>MOOJEPIN 140377</t>
+  </si>
+  <si>
+    <t>MOORUNDI NE73</t>
+  </si>
+  <si>
+    <t>NEEARRA G264</t>
+  </si>
+  <si>
+    <t>ONE OAK R56</t>
+  </si>
+  <si>
+    <t>RV 5680</t>
+  </si>
+  <si>
+    <t>RHAMILY 110330</t>
+  </si>
+  <si>
+    <t>TV 140477</t>
+  </si>
+  <si>
+    <t>WT PLAIN 110004</t>
+  </si>
+  <si>
+    <t>WOODY 150329</t>
+  </si>
+  <si>
+    <t>WYAMBEH 140141</t>
+  </si>
+  <si>
+    <t>EDALE 10Z266K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +260,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,7 +283,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -151,24 +330,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Admin" xfId="2" xr:uid="{FD927006-E5C6-40B5-B20F-6B7A4B85B6C8}"/>
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
+    <cellStyle name="Admin" xfId="4" xr:uid="{FD927006-E5C6-40B5-B20F-6B7A4B85B6C8}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,158 +666,1292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83A95F7-278A-4F8A-99B2-D769F9AA7525}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013AB1D7-4D41-45FE-9754-48C933C6B4BD}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="B1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="3.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-10</v>
-      </c>
-      <c r="E3" s="3">
-        <v>-1.4999999999999999E-7</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1">
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.4999999999999999E-7</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="D2">
+        <v>0.25</v>
+      </c>
+      <c r="E2">
+        <v>0.25</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8447AD08-1C27-47CF-A0D7-F66D535A0493}">
-  <dimension ref="A1:C3"/>
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <f t="shared" ref="B1:C1" si="0">Traits</f>
-        <v>cfw</v>
-      </c>
-      <c r="C1" t="str">
-        <f t="shared" si="0"/>
-        <v>fd</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I2" s="1">
+        <v>60</v>
+      </c>
+      <c r="J2" s="1">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="L2" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="C3" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2">
+        <v>85</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="I3" s="2">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2">
         <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.8500000000000005</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2">
+        <v>95</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="2">
+        <v>65</v>
+      </c>
+      <c r="J4" s="2">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2">
+        <v>90</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I5" s="2">
+        <v>70</v>
+      </c>
+      <c r="J5" s="2">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2">
+        <v>90</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I6" s="2">
+        <v>60</v>
+      </c>
+      <c r="J6" s="2">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I7" s="2">
+        <v>60</v>
+      </c>
+      <c r="J7" s="2">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2">
+        <v>90</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I8" s="2">
+        <v>60</v>
+      </c>
+      <c r="J8" s="2">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2">
+        <v>90</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I9" s="2">
+        <v>60</v>
+      </c>
+      <c r="J9" s="2">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2">
+        <v>90</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I10" s="2">
+        <v>60</v>
+      </c>
+      <c r="J10" s="2">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2">
+        <v>90</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I11" s="2">
+        <v>60</v>
+      </c>
+      <c r="J11" s="2">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I12" s="2">
+        <v>60</v>
+      </c>
+      <c r="J12" s="2">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2">
+        <v>90</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I13" s="2">
+        <v>60</v>
+      </c>
+      <c r="J13" s="2">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2">
+        <v>90</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I14" s="2">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L14" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2">
+        <v>90</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I15" s="2">
+        <v>60</v>
+      </c>
+      <c r="J15" s="2">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L15" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2">
+        <v>90</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I16" s="2">
+        <v>60</v>
+      </c>
+      <c r="J16" s="2">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2">
+        <v>90</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I17" s="2">
+        <v>60</v>
+      </c>
+      <c r="J17" s="2">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L17" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I18" s="2">
+        <v>60</v>
+      </c>
+      <c r="J18" s="2">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L18" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2">
+        <v>90</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I19" s="2">
+        <v>60</v>
+      </c>
+      <c r="J19" s="2">
+        <v>25</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L19" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2">
+        <v>90</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I20" s="2">
+        <v>60</v>
+      </c>
+      <c r="J20" s="2">
+        <v>25</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L20" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2">
+        <v>90</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I21" s="2">
+        <v>60</v>
+      </c>
+      <c r="J21" s="2">
+        <v>25</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L21" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2">
+        <v>90</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I22" s="2">
+        <v>60</v>
+      </c>
+      <c r="J22" s="2">
+        <v>25</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L22" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2">
+        <v>90</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I23" s="2">
+        <v>60</v>
+      </c>
+      <c r="J23" s="2">
+        <v>25</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L23" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2">
+        <v>90</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I24" s="2">
+        <v>60</v>
+      </c>
+      <c r="J24" s="2">
+        <v>25</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L24" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>35</v>
+      </c>
+      <c r="E25" s="2">
+        <v>90</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I25" s="2">
+        <v>60</v>
+      </c>
+      <c r="J25" s="2">
+        <v>25</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L25" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2">
+        <v>90</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I26" s="2">
+        <v>60</v>
+      </c>
+      <c r="J26" s="2">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L26" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>35</v>
+      </c>
+      <c r="E27" s="2">
+        <v>90</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I27" s="2">
+        <v>60</v>
+      </c>
+      <c r="J27" s="2">
+        <v>25</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L27" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2">
+        <v>90</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I28" s="2">
+        <v>60</v>
+      </c>
+      <c r="J28" s="2">
+        <v>25</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L28" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>35</v>
+      </c>
+      <c r="E29" s="2">
+        <v>90</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I29" s="2">
+        <v>60</v>
+      </c>
+      <c r="J29" s="2">
+        <v>25</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L29" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2">
+        <v>90</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I30" s="2">
+        <v>60</v>
+      </c>
+      <c r="J30" s="2">
+        <v>25</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L30" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2">
+        <v>90</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I31" s="2">
+        <v>60</v>
+      </c>
+      <c r="J31" s="2">
+        <v>25</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L31" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -645,81 +1960,2401 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C82E96A-E8E0-4E52-8BF0-3B2FCCC687F7}">
-  <dimension ref="B1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BF885D-C2FA-44C7-A657-0FD75848FDEE}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="str">
-        <f t="shared" ref="B1:C1" si="0">Traits</f>
-        <v>cfw</v>
-      </c>
-      <c r="C1" t="str">
-        <f t="shared" si="0"/>
-        <v>fd</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2">
+        <v>3.6</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <v>60000000</v>
+      </c>
+      <c r="F2">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G2">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H2">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.04</v>
+      </c>
+      <c r="J2">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>3.24</v>
+      </c>
+      <c r="C3">
+        <v>19.487179487179485</v>
+      </c>
+      <c r="D3">
+        <v>43.714285714285715</v>
+      </c>
+      <c r="E3">
+        <v>56666666.666666664</v>
+      </c>
+      <c r="F3">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G3">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H3">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.04</v>
+      </c>
+      <c r="J3">
+        <v>21.6</v>
+      </c>
+      <c r="K3">
+        <v>1.0958904109589043E-4</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>3.9600000000000004</v>
+      </c>
+      <c r="C4">
+        <v>20.512820512820511</v>
+      </c>
+      <c r="D4">
+        <v>58.285714285714285</v>
+      </c>
+      <c r="E4">
+        <v>63333333.333333336</v>
+      </c>
+      <c r="F4">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G4">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H4">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.04</v>
+      </c>
+      <c r="J4">
+        <v>32.4</v>
+      </c>
+      <c r="K4">
+        <v>5.4794520547945207E-5</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>3.6</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>60000000</v>
+      </c>
+      <c r="F5">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G5">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H5">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.04</v>
+      </c>
+      <c r="J5">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>3.6</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>60000000</v>
+      </c>
+      <c r="F6">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G6">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H6">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.04</v>
+      </c>
+      <c r="J6">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>3.6</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>51</v>
+      </c>
+      <c r="E7">
+        <v>60000000</v>
+      </c>
+      <c r="F7">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G7">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H7">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.04</v>
+      </c>
+      <c r="J7">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>3.6</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>60000000</v>
+      </c>
+      <c r="F8">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G8">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H8">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.04</v>
+      </c>
+      <c r="J8">
+        <v>27</v>
+      </c>
+      <c r="K8">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>3.6</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>60000000</v>
+      </c>
+      <c r="F9">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G9">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H9">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.04</v>
+      </c>
+      <c r="J9">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>3.6</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>60000000</v>
+      </c>
+      <c r="F10">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G10">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H10">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.04</v>
+      </c>
+      <c r="J10">
+        <v>27</v>
+      </c>
+      <c r="K10">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>3.6</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>60000000</v>
+      </c>
+      <c r="F11">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G11">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H11">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.04</v>
+      </c>
+      <c r="J11">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>3.6</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>60000000</v>
+      </c>
+      <c r="F12">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G12">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H12">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.04</v>
+      </c>
+      <c r="J12">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>3.6</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>60000000</v>
+      </c>
+      <c r="F13">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G13">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H13">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.04</v>
+      </c>
+      <c r="J13">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>3.6</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>60000000</v>
+      </c>
+      <c r="F14">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G14">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H14">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.04</v>
+      </c>
+      <c r="J14">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>3.6</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <v>60000000</v>
+      </c>
+      <c r="F15">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G15">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H15">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.04</v>
+      </c>
+      <c r="J15">
+        <v>27</v>
+      </c>
+      <c r="K15">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>3.6</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>60000000</v>
+      </c>
+      <c r="F16">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G16">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H16">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.04</v>
+      </c>
+      <c r="J16">
+        <v>27</v>
+      </c>
+      <c r="K16">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>3.6</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <v>60000000</v>
+      </c>
+      <c r="F17">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G17">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H17">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.04</v>
+      </c>
+      <c r="J17">
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>3.6</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <v>60000000</v>
+      </c>
+      <c r="F18">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G18">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H18">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.04</v>
+      </c>
+      <c r="J18">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>3.6</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>60000000</v>
+      </c>
+      <c r="F19">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G19">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H19">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.04</v>
+      </c>
+      <c r="J19">
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>3.6</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>60000000</v>
+      </c>
+      <c r="F20">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G20">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H20">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.04</v>
+      </c>
+      <c r="J20">
+        <v>27</v>
+      </c>
+      <c r="K20">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>3.6</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>60000000</v>
+      </c>
+      <c r="F21">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G21">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H21">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.04</v>
+      </c>
+      <c r="J21">
+        <v>27</v>
+      </c>
+      <c r="K21">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>3.6</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>51</v>
+      </c>
+      <c r="E22">
+        <v>60000000</v>
+      </c>
+      <c r="F22">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G22">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H22">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.04</v>
+      </c>
+      <c r="J22">
+        <v>27</v>
+      </c>
+      <c r="K22">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>3.6</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>51</v>
+      </c>
+      <c r="E23">
+        <v>60000000</v>
+      </c>
+      <c r="F23">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G23">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H23">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.04</v>
+      </c>
+      <c r="J23">
+        <v>27</v>
+      </c>
+      <c r="K23">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>3.6</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>60000000</v>
+      </c>
+      <c r="F24">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G24">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H24">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.04</v>
+      </c>
+      <c r="J24">
+        <v>27</v>
+      </c>
+      <c r="K24">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>3.6</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>60000000</v>
+      </c>
+      <c r="F25">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G25">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H25">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.04</v>
+      </c>
+      <c r="J25">
+        <v>27</v>
+      </c>
+      <c r="K25">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>3.6</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>51</v>
+      </c>
+      <c r="E26">
+        <v>60000000</v>
+      </c>
+      <c r="F26">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G26">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H26">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.04</v>
+      </c>
+      <c r="J26">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>3.6</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <v>60000000</v>
+      </c>
+      <c r="F27">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G27">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H27">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.04</v>
+      </c>
+      <c r="J27">
+        <v>27</v>
+      </c>
+      <c r="K27">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>3.6</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>60000000</v>
+      </c>
+      <c r="F28">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G28">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H28">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.04</v>
+      </c>
+      <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3.6</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>51</v>
+      </c>
+      <c r="E29">
+        <v>60000000</v>
+      </c>
+      <c r="F29">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G29">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H29">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.04</v>
+      </c>
+      <c r="J29">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>3.6</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>51</v>
+      </c>
+      <c r="E30">
+        <v>60000000</v>
+      </c>
+      <c r="F30">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G30">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H30">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.04</v>
+      </c>
+      <c r="J30">
+        <v>27</v>
+      </c>
+      <c r="K30">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>3.6</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>51</v>
+      </c>
+      <c r="E31">
+        <v>60000000</v>
+      </c>
+      <c r="F31">
+        <v>-1.8110552</v>
+      </c>
+      <c r="G31">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H31">
+        <v>1.7397800000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.04</v>
+      </c>
+      <c r="J31">
+        <v>27</v>
+      </c>
+      <c r="K31">
+        <v>8.219178082191781E-5</v>
+      </c>
+      <c r="L31">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BF885D-C2FA-44C7-A657-0FD75848FDEE}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E28346-1DDC-4B19-817E-C90939133AC7}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <f t="shared" ref="B1:C1" si="0">Traits</f>
-        <v>cfw</v>
-      </c>
-      <c r="C1" t="str">
-        <f t="shared" si="0"/>
-        <v>fd</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="C2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="D2">
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>45000000</v>
+      </c>
+      <c r="F2">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G2">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H2">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.02</v>
+      </c>
+      <c r="J2">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>18.487179487179485</v>
+      </c>
+      <c r="D3">
+        <v>33.714285714285715</v>
+      </c>
+      <c r="E3">
+        <v>41666666.666666664</v>
+      </c>
+      <c r="F3">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G3">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H3">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.02</v>
+      </c>
+      <c r="J3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K3">
+        <v>-1.6438356164383565E-4</v>
+      </c>
+      <c r="L3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>2.9600000000000004</v>
+      </c>
+      <c r="C4">
+        <v>19.512820512820511</v>
+      </c>
+      <c r="D4">
+        <v>48.285714285714285</v>
+      </c>
+      <c r="E4">
+        <v>48333333.333333336</v>
+      </c>
+      <c r="F4">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G4">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H4">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.02</v>
+      </c>
+      <c r="J4">
+        <v>27.4</v>
+      </c>
+      <c r="K4">
+        <v>-2.1917808219178086E-4</v>
+      </c>
+      <c r="L4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>2.6</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>45000000</v>
+      </c>
+      <c r="F5">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G5">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H5">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.02</v>
+      </c>
+      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>2.6</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>45000000</v>
+      </c>
+      <c r="F6">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G6">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H6">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.02</v>
+      </c>
+      <c r="J6">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>2.6</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>45000000</v>
+      </c>
+      <c r="F7">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G7">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H7">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.02</v>
+      </c>
+      <c r="J7">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>2.6</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>45000000</v>
+      </c>
+      <c r="F8">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G8">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.02</v>
+      </c>
+      <c r="J8">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>2.6</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>45000000</v>
+      </c>
+      <c r="F9">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G9">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H9">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.02</v>
+      </c>
+      <c r="J9">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>2.6</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>45000000</v>
+      </c>
+      <c r="F10">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G10">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.02</v>
+      </c>
+      <c r="J10">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>2.6</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>45000000</v>
+      </c>
+      <c r="F11">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G11">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H11">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.02</v>
+      </c>
+      <c r="J11">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>2.6</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>45000000</v>
+      </c>
+      <c r="F12">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G12">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H12">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.02</v>
+      </c>
+      <c r="J12">
+        <v>22</v>
+      </c>
+      <c r="K12">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>2.6</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>45000000</v>
+      </c>
+      <c r="F13">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G13">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H13">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.02</v>
+      </c>
+      <c r="J13">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>2.6</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>45000000</v>
+      </c>
+      <c r="F14">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G14">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H14">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.02</v>
+      </c>
+      <c r="J14">
+        <v>22</v>
+      </c>
+      <c r="K14">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>2.6</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>45000000</v>
+      </c>
+      <c r="F15">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G15">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H15">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.02</v>
+      </c>
+      <c r="J15">
+        <v>22</v>
+      </c>
+      <c r="K15">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L15">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>2.6</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>45000000</v>
+      </c>
+      <c r="F16">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G16">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H16">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.02</v>
+      </c>
+      <c r="J16">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>2.6</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>41</v>
+      </c>
+      <c r="E17">
+        <v>45000000</v>
+      </c>
+      <c r="F17">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G17">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H17">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.02</v>
+      </c>
+      <c r="J17">
+        <v>22</v>
+      </c>
+      <c r="K17">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>2.6</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>45000000</v>
+      </c>
+      <c r="F18">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G18">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H18">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.02</v>
+      </c>
+      <c r="J18">
+        <v>22</v>
+      </c>
+      <c r="K18">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>2.6</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <v>45000000</v>
+      </c>
+      <c r="F19">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G19">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H19">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.02</v>
+      </c>
+      <c r="J19">
+        <v>22</v>
+      </c>
+      <c r="K19">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>2.6</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <v>45000000</v>
+      </c>
+      <c r="F20">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G20">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H20">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.02</v>
+      </c>
+      <c r="J20">
+        <v>22</v>
+      </c>
+      <c r="K20">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>2.6</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>41</v>
+      </c>
+      <c r="E21">
+        <v>45000000</v>
+      </c>
+      <c r="F21">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G21">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H21">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.02</v>
+      </c>
+      <c r="J21">
+        <v>22</v>
+      </c>
+      <c r="K21">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L21">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>2.6</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>41</v>
+      </c>
+      <c r="E22">
+        <v>45000000</v>
+      </c>
+      <c r="F22">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G22">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H22">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.02</v>
+      </c>
+      <c r="J22">
+        <v>22</v>
+      </c>
+      <c r="K22">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L22">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>2.6</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>45000000</v>
+      </c>
+      <c r="F23">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G23">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H23">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.02</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L23">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>2.6</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>45000000</v>
+      </c>
+      <c r="F24">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G24">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H24">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.02</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+      <c r="K24">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L24">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>2.6</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>41</v>
+      </c>
+      <c r="E25">
+        <v>45000000</v>
+      </c>
+      <c r="F25">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G25">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H25">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.02</v>
+      </c>
+      <c r="J25">
+        <v>22</v>
+      </c>
+      <c r="K25">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>2.6</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <v>45000000</v>
+      </c>
+      <c r="F26">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G26">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H26">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.02</v>
+      </c>
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L26">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>2.6</v>
+      </c>
+      <c r="C27">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>45000000</v>
+      </c>
+      <c r="F27">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G27">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H27">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.02</v>
+      </c>
+      <c r="J27">
+        <v>22</v>
+      </c>
+      <c r="K27">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L27">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>2.6</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>45000000</v>
+      </c>
+      <c r="F28">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G28">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H28">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.02</v>
+      </c>
+      <c r="J28">
+        <v>22</v>
+      </c>
+      <c r="K28">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L28">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2.6</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>41</v>
+      </c>
+      <c r="E29">
+        <v>45000000</v>
+      </c>
+      <c r="F29">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G29">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H29">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.02</v>
+      </c>
+      <c r="J29">
+        <v>22</v>
+      </c>
+      <c r="K29">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L29">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>2.6</v>
+      </c>
+      <c r="C30">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>45000000</v>
+      </c>
+      <c r="F30">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G30">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H30">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.02</v>
+      </c>
+      <c r="J30">
+        <v>22</v>
+      </c>
+      <c r="K30">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L30">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>2.6</v>
+      </c>
+      <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>45000000</v>
+      </c>
+      <c r="F31">
+        <v>-5.8110552000000002</v>
+      </c>
+      <c r="G31">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="H31">
+        <v>0.7397800000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.02</v>
+      </c>
+      <c r="J31">
+        <v>22</v>
+      </c>
+      <c r="K31">
+        <v>-1.9178082191780824E-4</v>
+      </c>
+      <c r="L31">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -728,106 +4363,1197 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E28346-1DDC-4B19-817E-C90939133AC7}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEB9E88-01C7-4559-B59A-37B1348067FA}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <f t="shared" ref="B1:C1" si="0">Traits</f>
-        <v>cfw</v>
-      </c>
-      <c r="C1" t="str">
-        <f t="shared" si="0"/>
-        <v>fd</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
-        <f>BestBet!B2 + [0]!LowAdj</f>
-        <v>2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C2">
-        <f>BestBet!C2 + [0]!LowAdj</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>75000000</v>
+      </c>
+      <c r="F2">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G2">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H2">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I2">
+        <v>0.06</v>
+      </c>
+      <c r="J2">
+        <v>32</v>
+      </c>
+      <c r="K2">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
       </c>
       <c r="B3">
-        <f>BestBet!B3 + [0]!LowAdj</f>
-        <v>3</v>
+        <v>4.24</v>
       </c>
       <c r="C3">
-        <f>BestBet!C3 + [0]!LowAdj</f>
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEB9E88-01C7-4559-B59A-37B1348067FA}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="str">
-        <f t="shared" ref="B1:C1" si="0">Traits</f>
-        <v>cfw</v>
-      </c>
-      <c r="C1" t="str">
-        <f t="shared" si="0"/>
-        <v>fd</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f>BestBet!B2 + [0]!HighAdj</f>
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <f>BestBet!C2 + [0]!HighAdj</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>BestBet!B3 + [0]!HighAdj</f>
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <f>BestBet!C3 + [0]!HighAdj</f>
+        <v>20.487179487179485</v>
+      </c>
+      <c r="D3">
+        <v>53.714285714285715</v>
+      </c>
+      <c r="E3">
+        <v>71666666.666666657</v>
+      </c>
+      <c r="F3">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G3">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H3">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I3">
+        <v>0.06</v>
+      </c>
+      <c r="J3">
+        <v>26.6</v>
+      </c>
+      <c r="K3">
+        <v>2.4657534246575347E-4</v>
+      </c>
+      <c r="L3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>4.9600000000000009</v>
+      </c>
+      <c r="C4">
+        <v>21.512820512820511</v>
+      </c>
+      <c r="D4">
+        <v>68.285714285714278</v>
+      </c>
+      <c r="E4">
+        <v>78333333.333333343</v>
+      </c>
+      <c r="F4">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G4">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H4">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I4">
+        <v>0.06</v>
+      </c>
+      <c r="J4">
+        <v>37.4</v>
+      </c>
+      <c r="K4">
+        <v>1.9178082191780824E-4</v>
+      </c>
+      <c r="L4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C5">
         <v>21</v>
+      </c>
+      <c r="D5">
+        <v>61</v>
+      </c>
+      <c r="E5">
+        <v>75000000</v>
+      </c>
+      <c r="F5">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G5">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H5">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I5">
+        <v>0.06</v>
+      </c>
+      <c r="J5">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L5">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>75000000</v>
+      </c>
+      <c r="F6">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G6">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H6">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I6">
+        <v>0.06</v>
+      </c>
+      <c r="J6">
+        <v>32</v>
+      </c>
+      <c r="K6">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L6">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <v>75000000</v>
+      </c>
+      <c r="F7">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G7">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H7">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I7">
+        <v>0.06</v>
+      </c>
+      <c r="J7">
+        <v>32</v>
+      </c>
+      <c r="K7">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L7">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <v>75000000</v>
+      </c>
+      <c r="F8">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G8">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H8">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.06</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>75000000</v>
+      </c>
+      <c r="F9">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G9">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H9">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I9">
+        <v>0.06</v>
+      </c>
+      <c r="J9">
+        <v>32</v>
+      </c>
+      <c r="K9">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>75000000</v>
+      </c>
+      <c r="F10">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G10">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H10">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I10">
+        <v>0.06</v>
+      </c>
+      <c r="J10">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L10">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>61</v>
+      </c>
+      <c r="E11">
+        <v>75000000</v>
+      </c>
+      <c r="F11">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G11">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H11">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I11">
+        <v>0.06</v>
+      </c>
+      <c r="J11">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L11">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>61</v>
+      </c>
+      <c r="E12">
+        <v>75000000</v>
+      </c>
+      <c r="F12">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G12">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H12">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I12">
+        <v>0.06</v>
+      </c>
+      <c r="J12">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L12">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <v>75000000</v>
+      </c>
+      <c r="F13">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G13">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H13">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I13">
+        <v>0.06</v>
+      </c>
+      <c r="J13">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L13">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>75000000</v>
+      </c>
+      <c r="F14">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G14">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H14">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I14">
+        <v>0.06</v>
+      </c>
+      <c r="J14">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L14">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>61</v>
+      </c>
+      <c r="E15">
+        <v>75000000</v>
+      </c>
+      <c r="F15">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G15">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H15">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I15">
+        <v>0.06</v>
+      </c>
+      <c r="J15">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L15">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>75000000</v>
+      </c>
+      <c r="F16">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G16">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H16">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I16">
+        <v>0.06</v>
+      </c>
+      <c r="J16">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L16">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>61</v>
+      </c>
+      <c r="E17">
+        <v>75000000</v>
+      </c>
+      <c r="F17">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G17">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H17">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I17">
+        <v>0.06</v>
+      </c>
+      <c r="J17">
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L17">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <v>75000000</v>
+      </c>
+      <c r="F18">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G18">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H18">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I18">
+        <v>0.06</v>
+      </c>
+      <c r="J18">
+        <v>32</v>
+      </c>
+      <c r="K18">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L18">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>61</v>
+      </c>
+      <c r="E19">
+        <v>75000000</v>
+      </c>
+      <c r="F19">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G19">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H19">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I19">
+        <v>0.06</v>
+      </c>
+      <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L19">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>61</v>
+      </c>
+      <c r="E20">
+        <v>75000000</v>
+      </c>
+      <c r="F20">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G20">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H20">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I20">
+        <v>0.06</v>
+      </c>
+      <c r="J20">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L20">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>61</v>
+      </c>
+      <c r="E21">
+        <v>75000000</v>
+      </c>
+      <c r="F21">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G21">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H21">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I21">
+        <v>0.06</v>
+      </c>
+      <c r="J21">
+        <v>32</v>
+      </c>
+      <c r="K21">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L21">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>61</v>
+      </c>
+      <c r="E22">
+        <v>75000000</v>
+      </c>
+      <c r="F22">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G22">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H22">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I22">
+        <v>0.06</v>
+      </c>
+      <c r="J22">
+        <v>32</v>
+      </c>
+      <c r="K22">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L22">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>61</v>
+      </c>
+      <c r="E23">
+        <v>75000000</v>
+      </c>
+      <c r="F23">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G23">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H23">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I23">
+        <v>0.06</v>
+      </c>
+      <c r="J23">
+        <v>32</v>
+      </c>
+      <c r="K23">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L23">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>61</v>
+      </c>
+      <c r="E24">
+        <v>75000000</v>
+      </c>
+      <c r="F24">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G24">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H24">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I24">
+        <v>0.06</v>
+      </c>
+      <c r="J24">
+        <v>32</v>
+      </c>
+      <c r="K24">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L24">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>61</v>
+      </c>
+      <c r="E25">
+        <v>75000000</v>
+      </c>
+      <c r="F25">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G25">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H25">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I25">
+        <v>0.06</v>
+      </c>
+      <c r="J25">
+        <v>32</v>
+      </c>
+      <c r="K25">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L25">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>61</v>
+      </c>
+      <c r="E26">
+        <v>75000000</v>
+      </c>
+      <c r="F26">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G26">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H26">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I26">
+        <v>0.06</v>
+      </c>
+      <c r="J26">
+        <v>32</v>
+      </c>
+      <c r="K26">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L26">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>61</v>
+      </c>
+      <c r="E27">
+        <v>75000000</v>
+      </c>
+      <c r="F27">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G27">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H27">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I27">
+        <v>0.06</v>
+      </c>
+      <c r="J27">
+        <v>32</v>
+      </c>
+      <c r="K27">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L27">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>61</v>
+      </c>
+      <c r="E28">
+        <v>75000000</v>
+      </c>
+      <c r="F28">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G28">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H28">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I28">
+        <v>0.06</v>
+      </c>
+      <c r="J28">
+        <v>32</v>
+      </c>
+      <c r="K28">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L28">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>61</v>
+      </c>
+      <c r="E29">
+        <v>75000000</v>
+      </c>
+      <c r="F29">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G29">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H29">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I29">
+        <v>0.06</v>
+      </c>
+      <c r="J29">
+        <v>32</v>
+      </c>
+      <c r="K29">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L29">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C30">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>61</v>
+      </c>
+      <c r="E30">
+        <v>75000000</v>
+      </c>
+      <c r="F30">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G30">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H30">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I30">
+        <v>0.06</v>
+      </c>
+      <c r="J30">
+        <v>32</v>
+      </c>
+      <c r="K30">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L30">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>61</v>
+      </c>
+      <c r="E31">
+        <v>75000000</v>
+      </c>
+      <c r="F31">
+        <v>-0.81105519999999998</v>
+      </c>
+      <c r="G31">
+        <v>8.9349999999999987</v>
+      </c>
+      <c r="H31">
+        <v>5.7397799999999997</v>
+      </c>
+      <c r="I31">
+        <v>0.06</v>
+      </c>
+      <c r="J31">
+        <v>32</v>
+      </c>
+      <c r="K31">
+        <v>2.1917808219178083E-4</v>
+      </c>
+      <c r="L31">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelInputs/GEPEP_calibration.xlsx
+++ b/ExcelInputs/GEPEP_calibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267A42CB-FB76-4098-989B-210472A0D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325678E3-CCB5-4F84-BCAB-EA3F74B81661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30585" yWindow="1125" windowWidth="25140" windowHeight="15075" activeTab="3" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
+    <workbookView xWindow="29235" yWindow="165" windowWidth="25140" windowHeight="15075" activeTab="1" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Weights" sheetId="10" r:id="rId1"/>
@@ -85,21 +85,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="51">
   <si>
     <t>Team</t>
-  </si>
-  <si>
-    <t>cfw</t>
-  </si>
-  <si>
-    <t>fd</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>sl</t>
   </si>
   <si>
     <t>con</t>
@@ -111,13 +99,7 @@
     <t>era</t>
   </si>
   <si>
-    <t>lw</t>
-  </si>
-  <si>
     <t>fat</t>
-  </si>
-  <si>
-    <t>mort</t>
   </si>
   <si>
     <t>wwt</t>
@@ -236,12 +218,33 @@
   <si>
     <t>EDALE 10Z266K</t>
   </si>
+  <si>
+    <t>ALW</t>
+  </si>
+  <si>
+    <t>ACFW</t>
+  </si>
+  <si>
+    <t>AFD</t>
+  </si>
+  <si>
+    <t>ASS</t>
+  </si>
+  <si>
+    <t>ASL</t>
+  </si>
+  <si>
+    <t>era singles</t>
+  </si>
+  <si>
+    <t>surv Y-A5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +276,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +314,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -330,7 +350,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -338,17 +358,23 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
+    <cellStyle name="Accent6" xfId="6" builtinId="49"/>
     <cellStyle name="Admin" xfId="4" xr:uid="{FD927006-E5C6-40B5-B20F-6B7A4B85B6C8}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -683,37 +709,37 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -763,12 +789,12 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B3" sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="B3" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,1177 +807,1177 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C2" s="1">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1">
         <v>0.08</v>
       </c>
       <c r="G2" s="1">
-        <v>1.5</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H2" s="1">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="I2" s="1">
         <v>60</v>
       </c>
       <c r="J2" s="1">
-        <v>25</v>
+        <v>0.19109999999999999</v>
       </c>
       <c r="K2" s="1">
-        <v>0.15</v>
+        <v>0.85</v>
       </c>
       <c r="L2" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
-        <v>3.15</v>
+        <v>4.0193279999999998</v>
       </c>
       <c r="C3" s="2">
-        <v>19</v>
+        <v>24.279</v>
       </c>
       <c r="D3" s="2">
-        <v>30</v>
+        <v>43.459000000000003</v>
       </c>
       <c r="E3" s="2">
-        <v>85</v>
-      </c>
-      <c r="F3" s="2">
+        <v>94.230999999999995</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G3" s="2">
         <v>0.13</v>
       </c>
-      <c r="G3" s="2">
-        <v>1.45</v>
-      </c>
       <c r="H3" s="2">
-        <v>0.79999999999999993</v>
+        <v>0.95700000000000007</v>
       </c>
       <c r="I3" s="2">
-        <v>55</v>
-      </c>
-      <c r="J3" s="2">
-        <v>20</v>
+        <v>64.298000000000002</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.20717576099179622</v>
       </c>
       <c r="K3" s="2">
-        <v>0.2</v>
+        <v>0.84967326408999999</v>
       </c>
       <c r="L3" s="2">
-        <v>23</v>
+        <v>30.684000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3">
-        <v>3.8500000000000005</v>
+        <v>3.7908720000000002</v>
       </c>
       <c r="C4" s="2">
-        <v>20</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>40</v>
+        <v>36.134999999999998</v>
       </c>
       <c r="E4" s="2">
-        <v>95</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.03</v>
+        <v>73.489999999999995</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.13200000000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>1.55</v>
+        <v>-0.22699999999999998</v>
       </c>
       <c r="H4" s="2">
-        <v>0.9</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="I4" s="2">
-        <v>65</v>
-      </c>
-      <c r="J4" s="2">
-        <v>30</v>
+        <v>57.789000000000001</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.16651315243102088</v>
       </c>
       <c r="K4" s="2">
-        <v>9.9999999999999992E-2</v>
+        <v>0.85023742049999995</v>
       </c>
       <c r="L4" s="2">
-        <v>33</v>
+        <v>28.283999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
-        <v>3.5</v>
+        <v>3.5352000000000001</v>
       </c>
       <c r="C5" s="2">
-        <v>19.5</v>
+        <v>19.024999999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>35</v>
+        <v>34.171999999999997</v>
       </c>
       <c r="E5" s="2">
-        <v>90</v>
-      </c>
-      <c r="F5" s="2">
+        <v>81.456999999999994</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.08</v>
       </c>
       <c r="G5" s="2">
-        <v>1.5</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>0.85</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="I5" s="2">
-        <v>70</v>
-      </c>
-      <c r="J5" s="2">
-        <v>25</v>
+        <v>62.067</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.20134469038333472</v>
       </c>
       <c r="K5" s="2">
-        <v>0.15</v>
+        <v>0.85331519999999994</v>
       </c>
       <c r="L5" s="2">
-        <v>28</v>
+        <v>29.861000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3">
-        <v>3.5</v>
+        <v>3.7911599999999996</v>
       </c>
       <c r="C6" s="2">
-        <v>19.5</v>
+        <v>18.13</v>
       </c>
       <c r="D6" s="2">
-        <v>35</v>
+        <v>30.439999999999998</v>
       </c>
       <c r="E6" s="2">
-        <v>90</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.08</v>
+        <v>61.652000000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6.2E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>1.5</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>0.85</v>
+        <v>0.96900000000000008</v>
       </c>
       <c r="I6" s="2">
-        <v>60</v>
-      </c>
-      <c r="J6" s="2">
-        <v>25</v>
+        <v>59.280999999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.19126188586205517</v>
       </c>
       <c r="K6" s="2">
-        <v>0.15</v>
+        <v>0.85167660000000001</v>
       </c>
       <c r="L6" s="2">
-        <v>28</v>
+        <v>28.803000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3">
-        <v>3.5</v>
+        <v>2.9097360000000001</v>
       </c>
       <c r="C7" s="2">
-        <v>19.5</v>
+        <v>18.016999999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>35</v>
+        <v>38.097999999999999</v>
       </c>
       <c r="E7" s="2">
-        <v>90</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.08</v>
+        <v>74.807999999999993</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G7" s="2">
-        <v>1.5</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="H7" s="2">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="I7" s="2">
-        <v>60</v>
-      </c>
-      <c r="J7" s="2">
-        <v>25</v>
+        <v>59.622</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.19649782854097236</v>
       </c>
       <c r="K7" s="2">
-        <v>0.15</v>
+        <v>0.85036988655000001</v>
       </c>
       <c r="L7" s="2">
-        <v>28</v>
+        <v>28.608000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3">
-        <v>3.5</v>
+        <v>3.132396</v>
       </c>
       <c r="C8" s="2">
-        <v>19.5</v>
+        <v>20.69</v>
       </c>
       <c r="D8" s="2">
-        <v>35</v>
+        <v>35.253</v>
       </c>
       <c r="E8" s="2">
-        <v>90</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.08</v>
+        <v>103.923</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G8" s="2">
-        <v>1.5</v>
+        <v>-1.0000000000000009E-3</v>
       </c>
       <c r="H8" s="2">
-        <v>0.85</v>
+        <v>0.96200000000000008</v>
       </c>
       <c r="I8" s="2">
-        <v>60</v>
-      </c>
-      <c r="J8" s="2">
-        <v>25</v>
+        <v>59.823</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.20133441888356132</v>
       </c>
       <c r="K8" s="2">
-        <v>0.15</v>
+        <v>0.853738</v>
       </c>
       <c r="L8" s="2">
-        <v>28</v>
+        <v>28.318000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>3.5</v>
+        <v>3.8912039999999997</v>
       </c>
       <c r="C9" s="2">
-        <v>19.5</v>
+        <v>19.202999999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>35</v>
+        <v>38.414999999999999</v>
       </c>
       <c r="E9" s="2">
-        <v>90</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.08</v>
+        <v>78.784000000000006</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="G9" s="2">
-        <v>1.5</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>0.85</v>
+        <v>1.0130000000000001</v>
       </c>
       <c r="I9" s="2">
-        <v>60</v>
-      </c>
-      <c r="J9" s="2">
-        <v>25</v>
+        <v>60.71</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.18354673900752688</v>
       </c>
       <c r="K9" s="2">
-        <v>0.15</v>
+        <v>0.84923404388000001</v>
       </c>
       <c r="L9" s="2">
-        <v>28</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3">
-        <v>3.5</v>
+        <v>4.1419079999999999</v>
       </c>
       <c r="C10" s="2">
-        <v>19.5</v>
+        <v>20.23</v>
       </c>
       <c r="D10" s="2">
-        <v>35</v>
+        <v>32.655000000000001</v>
       </c>
       <c r="E10" s="2">
-        <v>90</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.08</v>
+        <v>68.653000000000006</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.13200000000000001</v>
       </c>
       <c r="G10" s="2">
-        <v>1.5</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>0.85</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="I10" s="2">
-        <v>60</v>
-      </c>
-      <c r="J10" s="2">
-        <v>25</v>
+        <v>62.493000000000002</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.18385070474464282</v>
       </c>
       <c r="K10" s="2">
-        <v>0.15</v>
+        <v>0.84354770000000001</v>
       </c>
       <c r="L10" s="2">
-        <v>28</v>
+        <v>29.547000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
-        <v>3.5</v>
+        <v>3.6430560000000001</v>
       </c>
       <c r="C11" s="2">
-        <v>19.5</v>
+        <v>21.059000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>35</v>
+        <v>46.889000000000003</v>
       </c>
       <c r="E11" s="2">
-        <v>90</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.08</v>
+        <v>92.102999999999994</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G11" s="2">
-        <v>1.5</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="H11" s="2">
-        <v>0.85</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="I11" s="2">
-        <v>60</v>
-      </c>
-      <c r="J11" s="2">
-        <v>25</v>
+        <v>62.356999999999999</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.1766375074065771</v>
       </c>
       <c r="K11" s="2">
-        <v>0.15</v>
+        <v>0.85525439999999997</v>
       </c>
       <c r="L11" s="2">
-        <v>28</v>
+        <v>28.675999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3">
-        <v>3.5</v>
+        <v>2.9982960000000003</v>
       </c>
       <c r="C12" s="2">
-        <v>19.5</v>
+        <v>18.893999999999998</v>
       </c>
       <c r="D12" s="2">
-        <v>35</v>
+        <v>40.383000000000003</v>
       </c>
       <c r="E12" s="2">
-        <v>90</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.08</v>
+        <v>83.591999999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="G12" s="2">
-        <v>1.5</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="H12" s="2">
-        <v>0.85</v>
+        <v>1.0090000000000001</v>
       </c>
       <c r="I12" s="2">
-        <v>60</v>
-      </c>
-      <c r="J12" s="2">
-        <v>25</v>
+        <v>57.981999999999999</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.22329874752548756</v>
       </c>
       <c r="K12" s="2">
-        <v>0.15</v>
+        <v>0.84995556574800002</v>
       </c>
       <c r="L12" s="2">
-        <v>28</v>
+        <v>29.206</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
-        <v>3.5</v>
+        <v>3.973392</v>
       </c>
       <c r="C13" s="2">
-        <v>19.5</v>
+        <v>20.302</v>
       </c>
       <c r="D13" s="2">
-        <v>35</v>
+        <v>41.627000000000002</v>
       </c>
       <c r="E13" s="2">
-        <v>90</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.08</v>
+        <v>70.122</v>
+      </c>
+      <c r="F13" s="5">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G13" s="2">
-        <v>1.5</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H13" s="2">
-        <v>0.85</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="I13" s="2">
-        <v>60</v>
-      </c>
-      <c r="J13" s="2">
-        <v>25</v>
+        <v>61.829000000000001</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.17777352681930988</v>
       </c>
       <c r="K13" s="2">
-        <v>0.15</v>
+        <v>0.84912012161999995</v>
       </c>
       <c r="L13" s="2">
-        <v>28</v>
+        <v>27.753</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3">
-        <v>3.5</v>
+        <v>3.2484960000000003</v>
       </c>
       <c r="C14" s="2">
-        <v>19.5</v>
+        <v>21.545000000000002</v>
       </c>
       <c r="D14" s="2">
-        <v>35</v>
+        <v>40.98</v>
       </c>
       <c r="E14" s="2">
-        <v>90</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.08</v>
+        <v>97.617999999999995</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.126</v>
       </c>
       <c r="G14" s="2">
-        <v>1.5</v>
+        <v>9.9999999999999915E-4</v>
       </c>
       <c r="H14" s="2">
-        <v>0.85</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="I14" s="2">
-        <v>60</v>
-      </c>
-      <c r="J14" s="2">
-        <v>25</v>
+        <v>57.055</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.21032973981461439</v>
       </c>
       <c r="K14" s="2">
-        <v>0.15</v>
+        <v>0.85302349999999993</v>
       </c>
       <c r="L14" s="2">
-        <v>28</v>
+        <v>29.495000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3">
-        <v>3.5</v>
+        <v>3.5591759999999999</v>
       </c>
       <c r="C15" s="2">
-        <v>19.5</v>
+        <v>20.126000000000001</v>
       </c>
       <c r="D15" s="2">
-        <v>35</v>
+        <v>44.374000000000002</v>
       </c>
       <c r="E15" s="2">
-        <v>90</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.08</v>
+        <v>68.762</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.113</v>
       </c>
       <c r="G15" s="2">
-        <v>1.5</v>
+        <v>0.06</v>
       </c>
       <c r="H15" s="2">
-        <v>0.85</v>
+        <v>0.873</v>
       </c>
       <c r="I15" s="2">
-        <v>60</v>
-      </c>
-      <c r="J15" s="2">
-        <v>25</v>
+        <v>63.451000000000001</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.17537216508733486</v>
       </c>
       <c r="K15" s="2">
-        <v>0.15</v>
+        <v>0.85070075310999993</v>
       </c>
       <c r="L15" s="2">
-        <v>28</v>
+        <v>30.582999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3">
-        <v>3.5</v>
+        <v>3.5365680000000004</v>
       </c>
       <c r="C16" s="2">
-        <v>19.5</v>
+        <v>19.257999999999999</v>
       </c>
       <c r="D16" s="2">
-        <v>35</v>
+        <v>44.073</v>
       </c>
       <c r="E16" s="2">
-        <v>90</v>
-      </c>
-      <c r="F16" s="2">
+        <v>83.24</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="G16" s="2">
         <v>0.08</v>
       </c>
-      <c r="G16" s="2">
-        <v>1.5</v>
-      </c>
       <c r="H16" s="2">
-        <v>0.85</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="I16" s="2">
-        <v>60</v>
-      </c>
-      <c r="J16" s="2">
-        <v>25</v>
+        <v>56.987000000000002</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.20818691527891905</v>
       </c>
       <c r="K16" s="2">
-        <v>0.15</v>
+        <v>0.83854200000000001</v>
       </c>
       <c r="L16" s="2">
-        <v>28</v>
+        <v>26.962</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3">
-        <v>3.5</v>
+        <v>3.8481840000000003</v>
       </c>
       <c r="C17" s="2">
-        <v>19.5</v>
+        <v>20.122</v>
       </c>
       <c r="D17" s="2">
-        <v>35</v>
+        <v>40.972000000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>90</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.08</v>
+        <v>73.644999999999996</v>
+      </c>
+      <c r="F17" s="5">
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="G17" s="2">
-        <v>1.5</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H17" s="2">
-        <v>0.85</v>
+        <v>0.95500000000000007</v>
       </c>
       <c r="I17" s="2">
-        <v>60</v>
-      </c>
-      <c r="J17" s="2">
-        <v>25</v>
+        <v>57.543999999999997</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.20916427779429331</v>
       </c>
       <c r="K17" s="2">
-        <v>0.15</v>
+        <v>0.85251440000000001</v>
       </c>
       <c r="L17" s="2">
-        <v>28</v>
+        <v>29.082999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3">
-        <v>3.5</v>
+        <v>3.9138480000000002</v>
       </c>
       <c r="C18" s="2">
-        <v>19.5</v>
+        <v>19.593</v>
       </c>
       <c r="D18" s="2">
-        <v>35</v>
+        <v>35.403999999999996</v>
       </c>
       <c r="E18" s="2">
-        <v>90</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.08</v>
+        <v>76.25</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.10400000000000001</v>
       </c>
       <c r="G18" s="2">
-        <v>1.5</v>
+        <v>-0.14400000000000002</v>
       </c>
       <c r="H18" s="2">
-        <v>0.85</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I18" s="2">
-        <v>60</v>
-      </c>
-      <c r="J18" s="2">
-        <v>25</v>
+        <v>57.887</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.17984099994381852</v>
       </c>
       <c r="K18" s="2">
-        <v>0.15</v>
+        <v>0.85050191573</v>
       </c>
       <c r="L18" s="2">
-        <v>28</v>
+        <v>30.245000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3">
-        <v>3.5</v>
+        <v>2.9793959999999999</v>
       </c>
       <c r="C19" s="2">
-        <v>19.5</v>
+        <v>19.129000000000001</v>
       </c>
       <c r="D19" s="2">
-        <v>35</v>
+        <v>37.856999999999999</v>
       </c>
       <c r="E19" s="2">
-        <v>90</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.08</v>
+        <v>76.451999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G19" s="2">
-        <v>1.5</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="H19" s="2">
-        <v>0.85</v>
+        <v>0.872</v>
       </c>
       <c r="I19" s="2">
-        <v>60</v>
-      </c>
-      <c r="J19" s="2">
-        <v>25</v>
+        <v>61.741</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.18078031591255619</v>
       </c>
       <c r="K19" s="2">
-        <v>0.15</v>
+        <v>0.85172989999999993</v>
       </c>
       <c r="L19" s="2">
-        <v>28</v>
+        <v>28.137</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
-        <v>3.5</v>
+        <v>3.61368</v>
       </c>
       <c r="C20" s="2">
-        <v>19.5</v>
+        <v>20.771000000000001</v>
       </c>
       <c r="D20" s="2">
-        <v>35</v>
+        <v>40.026000000000003</v>
       </c>
       <c r="E20" s="2">
-        <v>90</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.08</v>
+        <v>77.322999999999993</v>
+      </c>
+      <c r="F20" s="5">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G20" s="2">
-        <v>1.5</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H20" s="2">
-        <v>0.85</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="I20" s="2">
-        <v>60</v>
-      </c>
-      <c r="J20" s="2">
-        <v>25</v>
+        <v>63.718000000000004</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.19870822339220931</v>
       </c>
       <c r="K20" s="2">
-        <v>0.15</v>
+        <v>0.8482016</v>
       </c>
       <c r="L20" s="2">
-        <v>28</v>
+        <v>29.940999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
-        <v>3.5</v>
+        <v>3.7564560000000005</v>
       </c>
       <c r="C21" s="2">
-        <v>19.5</v>
+        <v>19.385000000000002</v>
       </c>
       <c r="D21" s="2">
-        <v>35</v>
+        <v>39.137</v>
       </c>
       <c r="E21" s="2">
-        <v>90</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.08</v>
+        <v>71.89</v>
+      </c>
+      <c r="F21" s="5">
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="G21" s="2">
-        <v>1.5</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H21" s="2">
-        <v>0.85</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="I21" s="2">
-        <v>60</v>
-      </c>
-      <c r="J21" s="2">
-        <v>25</v>
+        <v>62.722000000000001</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.20434987783865849</v>
       </c>
       <c r="K21" s="2">
-        <v>0.15</v>
+        <v>0.84917387307000003</v>
       </c>
       <c r="L21" s="2">
-        <v>28</v>
+        <v>30.795000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3">
-        <v>3.5</v>
+        <v>3.8691720000000003</v>
       </c>
       <c r="C22" s="2">
-        <v>19.5</v>
+        <v>19.074000000000002</v>
       </c>
       <c r="D22" s="2">
-        <v>35</v>
+        <v>39.167000000000002</v>
       </c>
       <c r="E22" s="2">
-        <v>90</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.08</v>
+        <v>84.075999999999993</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5.3000000000000005E-2</v>
       </c>
       <c r="G22" s="2">
-        <v>1.5</v>
+        <v>-0.189</v>
       </c>
       <c r="H22" s="2">
-        <v>0.85</v>
+        <v>1.0030000000000001</v>
       </c>
       <c r="I22" s="2">
-        <v>60</v>
-      </c>
-      <c r="J22" s="2">
-        <v>25</v>
+        <v>58.435000000000002</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.1811126962170955</v>
       </c>
       <c r="K22" s="2">
-        <v>0.15</v>
+        <v>0.84423809999999999</v>
       </c>
       <c r="L22" s="2">
-        <v>28</v>
+        <v>27.884</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3">
-        <v>3.5</v>
+        <v>3.995568</v>
       </c>
       <c r="C23" s="2">
-        <v>19.5</v>
+        <v>20.222000000000001</v>
       </c>
       <c r="D23" s="2">
-        <v>35</v>
+        <v>43.619</v>
       </c>
       <c r="E23" s="2">
-        <v>90</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.08</v>
+        <v>77.975999999999999</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G23" s="2">
-        <v>1.5</v>
+        <v>-0.113</v>
       </c>
       <c r="H23" s="2">
-        <v>0.85</v>
+        <v>0.81700000000000006</v>
       </c>
       <c r="I23" s="2">
-        <v>60</v>
-      </c>
-      <c r="J23" s="2">
-        <v>25</v>
+        <v>57.113</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.20897759486519993</v>
       </c>
       <c r="K23" s="2">
-        <v>0.15</v>
+        <v>0.84289530000000001</v>
       </c>
       <c r="L23" s="2">
-        <v>28</v>
+        <v>28.097000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>3.5</v>
+        <v>3.3453360000000001</v>
       </c>
       <c r="C24" s="2">
-        <v>19.5</v>
+        <v>19.401</v>
       </c>
       <c r="D24" s="2">
-        <v>35</v>
+        <v>50.085000000000001</v>
       </c>
       <c r="E24" s="2">
-        <v>90</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.08</v>
+        <v>82.436999999999998</v>
+      </c>
+      <c r="F24" s="5">
+        <v>6.2E-2</v>
       </c>
       <c r="G24" s="2">
-        <v>1.5</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H24" s="2">
-        <v>0.85</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="I24" s="2">
-        <v>60</v>
-      </c>
-      <c r="J24" s="2">
-        <v>25</v>
+        <v>61.564999999999998</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.2021740806318168</v>
       </c>
       <c r="K24" s="2">
-        <v>0.15</v>
+        <v>0.85541139999999993</v>
       </c>
       <c r="L24" s="2">
-        <v>28</v>
+        <v>29.506</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3">
-        <v>3.5</v>
+        <v>3.4019280000000003</v>
       </c>
       <c r="C25" s="2">
-        <v>19.5</v>
+        <v>21.024999999999999</v>
       </c>
       <c r="D25" s="2">
-        <v>35</v>
+        <v>44.143000000000001</v>
       </c>
       <c r="E25" s="2">
-        <v>90</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.08</v>
+        <v>82.522000000000006</v>
+      </c>
+      <c r="F25" s="5">
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="G25" s="2">
-        <v>1.5</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="H25" s="2">
-        <v>0.85</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="I25" s="2">
-        <v>60</v>
-      </c>
-      <c r="J25" s="2">
-        <v>25</v>
+        <v>63.613999999999997</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.17329727833583053</v>
       </c>
       <c r="K25" s="2">
-        <v>0.15</v>
+        <v>0.85075600447999999</v>
       </c>
       <c r="L25" s="2">
-        <v>28</v>
+        <v>30.623999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3">
-        <v>3.5</v>
+        <v>3.2241240000000002</v>
       </c>
       <c r="C26" s="2">
-        <v>19.5</v>
+        <v>19.846</v>
       </c>
       <c r="D26" s="2">
-        <v>35</v>
+        <v>35.462000000000003</v>
       </c>
       <c r="E26" s="2">
-        <v>90</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.08</v>
+        <v>95.843000000000004</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.13800000000000001</v>
       </c>
       <c r="G26" s="2">
-        <v>1.5</v>
+        <v>0.115</v>
       </c>
       <c r="H26" s="2">
-        <v>0.85</v>
+        <v>0.96100000000000008</v>
       </c>
       <c r="I26" s="2">
-        <v>60</v>
-      </c>
-      <c r="J26" s="2">
-        <v>25</v>
+        <v>58.942</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.19523232984616015</v>
       </c>
       <c r="K26" s="2">
-        <v>0.15</v>
+        <v>0.85626340000000001</v>
       </c>
       <c r="L26" s="2">
-        <v>28</v>
+        <v>28.492000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3">
-        <v>3.5</v>
+        <v>3.8721600000000005</v>
       </c>
       <c r="C27" s="2">
-        <v>19.5</v>
+        <v>20.364000000000001</v>
       </c>
       <c r="D27" s="2">
-        <v>35</v>
+        <v>43.965000000000003</v>
       </c>
       <c r="E27" s="2">
-        <v>90</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.08</v>
+        <v>82.069000000000003</v>
+      </c>
+      <c r="F27" s="5">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="G27" s="2">
-        <v>1.5</v>
+        <v>0.15100000000000002</v>
       </c>
       <c r="H27" s="2">
-        <v>0.85</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="I27" s="2">
-        <v>60</v>
-      </c>
-      <c r="J27" s="2">
-        <v>25</v>
+        <v>58.524999999999999</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.17490840809428312</v>
       </c>
       <c r="K27" s="2">
-        <v>0.15</v>
+        <v>0.84987838213</v>
       </c>
       <c r="L27" s="2">
-        <v>28</v>
+        <v>27.768000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3">
-        <v>3.5</v>
+        <v>3.6412920000000004</v>
       </c>
       <c r="C28" s="2">
-        <v>19.5</v>
+        <v>19.509</v>
       </c>
       <c r="D28" s="2">
-        <v>35</v>
+        <v>41.040999999999997</v>
       </c>
       <c r="E28" s="2">
-        <v>90</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.08</v>
+        <v>71.432999999999993</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.16</v>
       </c>
       <c r="G28" s="2">
-        <v>1.5</v>
+        <v>-0.112</v>
       </c>
       <c r="H28" s="2">
-        <v>0.85</v>
+        <v>0.96900000000000008</v>
       </c>
       <c r="I28" s="2">
-        <v>60</v>
-      </c>
-      <c r="J28" s="2">
-        <v>25</v>
+        <v>58.149000000000001</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.19834505547699571</v>
       </c>
       <c r="K28" s="2">
-        <v>0.15</v>
+        <v>0.85286770000000001</v>
       </c>
       <c r="L28" s="2">
-        <v>28</v>
+        <v>28.393999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29" s="3">
-        <v>3.5</v>
+        <v>3.4312320000000001</v>
       </c>
       <c r="C29" s="2">
-        <v>19.5</v>
+        <v>20.227</v>
       </c>
       <c r="D29" s="2">
-        <v>35</v>
+        <v>43.025999999999996</v>
       </c>
       <c r="E29" s="2">
-        <v>90</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.08</v>
+        <v>83.418999999999997</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G29" s="2">
-        <v>1.5</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="H29" s="2">
-        <v>0.85</v>
+        <v>0.996</v>
       </c>
       <c r="I29" s="2">
-        <v>60</v>
-      </c>
-      <c r="J29" s="2">
-        <v>25</v>
+        <v>59.567</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.17410906380552105</v>
       </c>
       <c r="K29" s="2">
-        <v>0.15</v>
+        <v>0.84872369999999997</v>
       </c>
       <c r="L29" s="2">
-        <v>28</v>
+        <v>28.824000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3">
-        <v>3.5</v>
+        <v>3.741984</v>
       </c>
       <c r="C30" s="2">
-        <v>19.5</v>
+        <v>20.329000000000001</v>
       </c>
       <c r="D30" s="2">
-        <v>35</v>
+        <v>40.106999999999999</v>
       </c>
       <c r="E30" s="2">
-        <v>90</v>
-      </c>
-      <c r="F30" s="2">
+        <v>68.926000000000002</v>
+      </c>
+      <c r="F30" s="5">
         <v>0.08</v>
       </c>
       <c r="G30" s="2">
-        <v>1.5</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="H30" s="2">
-        <v>0.85</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="I30" s="2">
-        <v>60</v>
-      </c>
-      <c r="J30" s="2">
-        <v>25</v>
+        <v>56.889000000000003</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.16972152454056619</v>
       </c>
       <c r="K30" s="2">
-        <v>0.15</v>
+        <v>0.85166719999999996</v>
       </c>
       <c r="L30" s="2">
-        <v>28</v>
+        <v>28.51</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B31" s="3">
-        <v>3.5</v>
+        <v>3.5948160000000002</v>
       </c>
       <c r="C31" s="2">
-        <v>19.5</v>
+        <v>20.393000000000001</v>
       </c>
       <c r="D31" s="2">
-        <v>35</v>
+        <v>39.036000000000001</v>
       </c>
       <c r="E31" s="2">
-        <v>90</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.08</v>
+        <v>83.305000000000007</v>
+      </c>
+      <c r="F31" s="5">
+        <v>6.3E-2</v>
       </c>
       <c r="G31" s="2">
-        <v>1.5</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="H31" s="2">
-        <v>0.85</v>
+        <v>0.83400000000000007</v>
       </c>
       <c r="I31" s="2">
-        <v>60</v>
-      </c>
-      <c r="J31" s="2">
-        <v>25</v>
+        <v>57.846000000000004</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.18760710440865561</v>
       </c>
       <c r="K31" s="2">
-        <v>0.15</v>
+        <v>0.84495100000000001</v>
       </c>
       <c r="L31" s="2">
-        <v>28</v>
+        <v>28.521000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1968,10 +1994,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="I1" sqref="I1:I1048576"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>3.6</v>
@@ -2057,19 +2083,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>3.24</v>
+        <v>4.0193279999999998</v>
       </c>
       <c r="C3">
-        <v>19.487179487179485</v>
+        <v>24.279000000000003</v>
       </c>
       <c r="D3">
-        <v>43.714285714285715</v>
+        <v>55.410225000000004</v>
       </c>
       <c r="E3">
-        <v>56666666.666666664</v>
+        <v>50938650.762487926</v>
       </c>
       <c r="F3">
         <v>-1.8110552</v>
@@ -2084,10 +2110,10 @@
         <v>0.04</v>
       </c>
       <c r="J3">
-        <v>21.6</v>
+        <v>28.607576099179621</v>
       </c>
       <c r="K3">
-        <v>1.0958904109589043E-4</v>
+        <v>8.2223387096278034E-5</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -2095,19 +2121,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>3.9600000000000004</v>
+        <v>3.7908720000000002</v>
       </c>
       <c r="C4">
-        <v>20.512820512820511</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="D4">
-        <v>58.285714285714285</v>
+        <v>46.072125</v>
       </c>
       <c r="E4">
-        <v>63333333.333333336</v>
+        <v>65315008.844740786</v>
       </c>
       <c r="F4">
         <v>-1.8110552</v>
@@ -2122,10 +2148,10 @@
         <v>0.04</v>
       </c>
       <c r="J4">
-        <v>32.4</v>
+        <v>24.54131524310209</v>
       </c>
       <c r="K4">
-        <v>5.4794520547945207E-5</v>
+        <v>8.2168829569446303E-5</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2133,19 +2159,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>3.6</v>
+        <v>3.5352000000000001</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19.024999999999999</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>43.569299999999998</v>
       </c>
       <c r="E5">
-        <v>60000000</v>
+        <v>58926795.732717879</v>
       </c>
       <c r="F5">
         <v>-1.8110552</v>
@@ -2160,10 +2186,10 @@
         <v>0.04</v>
       </c>
       <c r="J5">
-        <v>27</v>
+        <v>28.024469038333471</v>
       </c>
       <c r="K5">
-        <v>8.219178082191781E-5</v>
+        <v>8.1872458967835259E-5</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -2171,19 +2197,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>3.6</v>
+        <v>3.7911599999999996</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>18.13</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>38.810999999999993</v>
       </c>
       <c r="E6">
-        <v>60000000</v>
+        <v>77856355.024978921</v>
       </c>
       <c r="F6">
         <v>-1.8110552</v>
@@ -2198,10 +2224,10 @@
         <v>0.04</v>
       </c>
       <c r="J6">
-        <v>27</v>
+        <v>27.016188586205519</v>
       </c>
       <c r="K6">
-        <v>8.219178082191781E-5</v>
+        <v>8.2029979100787951E-5</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -2209,19 +2235,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>3.6</v>
+        <v>2.9097360000000001</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>18.016999999999999</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>48.574950000000001</v>
       </c>
       <c r="E7">
-        <v>60000000</v>
+        <v>64164260.506897658</v>
       </c>
       <c r="F7">
         <v>-1.8110552</v>
@@ -2236,10 +2262,10 @@
         <v>0.04</v>
       </c>
       <c r="J7">
-        <v>27</v>
+        <v>27.539782854097236</v>
       </c>
       <c r="K7">
-        <v>8.219178082191781E-5</v>
+        <v>8.2156029750851648E-5</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -2247,19 +2273,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>3.6</v>
+        <v>3.132396</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>20.689999999999998</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>44.947575000000001</v>
       </c>
       <c r="E8">
-        <v>60000000</v>
+        <v>46188043.070350163</v>
       </c>
       <c r="F8">
         <v>-1.8110552</v>
@@ -2274,10 +2300,10 @@
         <v>0.04</v>
       </c>
       <c r="J8">
-        <v>27</v>
+        <v>28.023441888356132</v>
       </c>
       <c r="K8">
-        <v>8.219178082191781E-5</v>
+        <v>8.1831912950612647E-5</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -2285,19 +2311,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>3.6</v>
+        <v>3.8912039999999997</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>19.202999999999999</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>48.979124999999996</v>
       </c>
       <c r="E9">
-        <v>60000000</v>
+        <v>60926076.360682368</v>
       </c>
       <c r="F9">
         <v>-1.8110552</v>
@@ -2312,10 +2338,10 @@
         <v>0.04</v>
       </c>
       <c r="J9">
-        <v>27</v>
+        <v>26.244673900752687</v>
       </c>
       <c r="K9">
-        <v>8.219178082191781E-5</v>
+        <v>8.2265912679899632E-5</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -2323,19 +2349,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>3.6</v>
+        <v>4.1419079999999999</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>20.23</v>
       </c>
       <c r="D10">
-        <v>51</v>
+        <v>41.635125000000002</v>
       </c>
       <c r="E10">
-        <v>60000000</v>
+        <v>69916828.106564894</v>
       </c>
       <c r="F10">
         <v>-1.8110552</v>
@@ -2350,10 +2376,10 @@
         <v>0.04</v>
       </c>
       <c r="J10">
-        <v>27</v>
+        <v>26.275070474464282</v>
       </c>
       <c r="K10">
-        <v>8.219178082191781E-5</v>
+        <v>8.2820466108354208E-5</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -2361,19 +2387,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>3.6</v>
+        <v>3.6430560000000001</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>21.059000000000001</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>59.783475000000003</v>
       </c>
       <c r="E11">
-        <v>60000000</v>
+        <v>52115566.268199734</v>
       </c>
       <c r="F11">
         <v>-1.8110552</v>
@@ -2388,10 +2414,10 @@
         <v>0.04</v>
       </c>
       <c r="J11">
-        <v>27</v>
+        <v>25.553750740657712</v>
       </c>
       <c r="K11">
-        <v>8.219178082191781E-5</v>
+        <v>8.1686821720683498E-5</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2399,19 +2425,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>3.6</v>
+        <v>2.9982960000000003</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>18.893999999999998</v>
       </c>
       <c r="D12">
-        <v>51</v>
+        <v>51.488325000000003</v>
       </c>
       <c r="E12">
-        <v>60000000</v>
+        <v>57421762.848119438</v>
       </c>
       <c r="F12">
         <v>-1.8110552</v>
@@ -2426,10 +2452,10 @@
         <v>0.04</v>
       </c>
       <c r="J12">
-        <v>27</v>
+        <v>30.219874752548758</v>
       </c>
       <c r="K12">
-        <v>8.219178082191781E-5</v>
+        <v>8.2196077670422066E-5</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2437,19 +2463,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>3.6</v>
+        <v>3.973392</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>20.302</v>
       </c>
       <c r="D13">
-        <v>51</v>
+        <v>53.074424999999998</v>
       </c>
       <c r="E13">
-        <v>60000000</v>
+        <v>68452126.294173017</v>
       </c>
       <c r="F13">
         <v>-1.8110552</v>
@@ -2464,10 +2490,10 @@
         <v>0.04</v>
       </c>
       <c r="J13">
-        <v>27</v>
+        <v>25.667352681930989</v>
       </c>
       <c r="K13">
-        <v>8.219178082191781E-5</v>
+        <v>8.2276949891779135E-5</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2475,19 +2501,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>3.6</v>
+        <v>3.2484960000000003</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>21.545000000000002</v>
       </c>
       <c r="D14">
-        <v>51</v>
+        <v>52.249499999999998</v>
       </c>
       <c r="E14">
-        <v>60000000</v>
+        <v>49171259.398881353</v>
       </c>
       <c r="F14">
         <v>-1.8110552</v>
@@ -2502,10 +2528,10 @@
         <v>0.04</v>
       </c>
       <c r="J14">
-        <v>27</v>
+        <v>28.922973981461439</v>
       </c>
       <c r="K14">
-        <v>8.219178082191781E-5</v>
+        <v>8.1900456081960391E-5</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2513,19 +2539,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>3.6</v>
+        <v>3.5591759999999999</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>20.125999999999998</v>
       </c>
       <c r="D15">
-        <v>51</v>
+        <v>56.57685</v>
       </c>
       <c r="E15">
-        <v>60000000</v>
+        <v>69805997.498618424</v>
       </c>
       <c r="F15">
         <v>-1.8110552</v>
@@ -2540,10 +2566,10 @@
         <v>0.04</v>
       </c>
       <c r="J15">
-        <v>27</v>
+        <v>25.427216508733487</v>
       </c>
       <c r="K15">
-        <v>8.219178082191781E-5</v>
+        <v>8.212407646663561E-5</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2551,19 +2577,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>3.6</v>
+        <v>3.5365680000000004</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>19.257999999999999</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>56.193075</v>
       </c>
       <c r="E16">
-        <v>60000000</v>
+        <v>57664584.334454596</v>
       </c>
       <c r="F16">
         <v>-1.8110552</v>
@@ -2578,10 +2604,10 @@
         <v>0.04</v>
       </c>
       <c r="J16">
-        <v>27</v>
+        <v>28.708691527891908</v>
       </c>
       <c r="K16">
-        <v>8.219178082191781E-5</v>
+        <v>8.3314865204879579E-5</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2589,19 +2615,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>3.6</v>
+        <v>3.8481840000000003</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>20.122</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>52.2393</v>
       </c>
       <c r="E17">
-        <v>60000000</v>
+        <v>65177540.905696243</v>
       </c>
       <c r="F17">
         <v>-1.8110552</v>
@@ -2616,10 +2642,10 @@
         <v>0.04</v>
       </c>
       <c r="J17">
-        <v>27</v>
+        <v>28.806427779429331</v>
       </c>
       <c r="K17">
-        <v>8.219178082191781E-5</v>
+        <v>8.1949364959266541E-5</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -2627,19 +2653,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>3.6</v>
+        <v>3.9138480000000002</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>19.593</v>
       </c>
       <c r="D18">
-        <v>51</v>
+        <v>45.140099999999997</v>
       </c>
       <c r="E18">
-        <v>60000000</v>
+        <v>62950819.672131151</v>
       </c>
       <c r="F18">
         <v>-1.8110552</v>
@@ -2654,10 +2680,10 @@
         <v>0.04</v>
       </c>
       <c r="J18">
-        <v>27</v>
+        <v>25.874099994381854</v>
       </c>
       <c r="K18">
-        <v>8.219178082191781E-5</v>
+        <v>8.2143276113217864E-5</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -2665,19 +2691,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>3.6</v>
+        <v>2.9793959999999999</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>19.129000000000001</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>48.267674999999997</v>
       </c>
       <c r="E19">
-        <v>60000000</v>
+        <v>62784492.230419092</v>
       </c>
       <c r="F19">
         <v>-1.8110552</v>
@@ -2692,10 +2718,10 @@
         <v>0.04</v>
       </c>
       <c r="J19">
-        <v>27</v>
+        <v>25.96803159125562</v>
       </c>
       <c r="K19">
-        <v>8.219178082191781E-5</v>
+        <v>8.2024845785770982E-5</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -2703,19 +2729,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>3.6</v>
+        <v>3.61368</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>20.771000000000001</v>
       </c>
       <c r="D20">
-        <v>51</v>
+        <v>51.033149999999999</v>
       </c>
       <c r="E20">
-        <v>60000000</v>
+        <v>62077260.323577724</v>
       </c>
       <c r="F20">
         <v>-1.8110552</v>
@@ -2730,10 +2756,10 @@
         <v>0.04</v>
       </c>
       <c r="J20">
-        <v>27</v>
+        <v>27.760822339220933</v>
       </c>
       <c r="K20">
-        <v>8.219178082191781E-5</v>
+        <v>8.2366047999237618E-5</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -2741,19 +2767,19 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>3.6</v>
+        <v>3.7564560000000005</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>19.385000000000002</v>
       </c>
       <c r="D21">
-        <v>51</v>
+        <v>49.899675000000002</v>
       </c>
       <c r="E21">
-        <v>60000000</v>
+        <v>66768674.363611072</v>
       </c>
       <c r="F21">
         <v>-1.8110552</v>
@@ -2768,10 +2794,10 @@
         <v>0.04</v>
       </c>
       <c r="J21">
-        <v>27</v>
+        <v>28.324987783865851</v>
       </c>
       <c r="K21">
-        <v>8.219178082191781E-5</v>
+        <v>8.2271741882561554E-5</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2779,19 +2805,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>3.6</v>
+        <v>3.8691720000000003</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>19.074000000000002</v>
       </c>
       <c r="D22">
-        <v>51</v>
+        <v>49.937925</v>
       </c>
       <c r="E22">
-        <v>60000000</v>
+        <v>57091203.197107382</v>
       </c>
       <c r="F22">
         <v>-1.8110552</v>
@@ -2806,10 +2832,10 @@
         <v>0.04</v>
       </c>
       <c r="J22">
-        <v>27</v>
+        <v>26.00126962170955</v>
       </c>
       <c r="K22">
-        <v>8.219178082191781E-5</v>
+        <v>8.2752737288959292E-5</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -2817,19 +2843,19 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B23">
-        <v>3.6</v>
+        <v>3.995568</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>20.222000000000001</v>
       </c>
       <c r="D23">
-        <v>51</v>
+        <v>55.614225000000005</v>
       </c>
       <c r="E23">
-        <v>60000000</v>
+        <v>61557402.277623884</v>
       </c>
       <c r="F23">
         <v>-1.8110552</v>
@@ -2844,10 +2870,10 @@
         <v>0.04</v>
       </c>
       <c r="J23">
-        <v>27</v>
+        <v>28.787759486519995</v>
       </c>
       <c r="K23">
-        <v>8.219178082191781E-5</v>
+        <v>8.2884569054579067E-5</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -2855,19 +2881,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>3.6</v>
+        <v>3.3453360000000001</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>19.401</v>
       </c>
       <c r="D24">
-        <v>51</v>
+        <v>63.858374999999995</v>
       </c>
       <c r="E24">
-        <v>60000000</v>
+        <v>58226281.887987196</v>
       </c>
       <c r="F24">
         <v>-1.8110552</v>
@@ -2882,10 +2908,10 @@
         <v>0.04</v>
       </c>
       <c r="J24">
-        <v>27</v>
+        <v>28.10740806318168</v>
       </c>
       <c r="K24">
-        <v>8.219178082191781E-5</v>
+        <v>8.1671829132310076E-5</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2893,19 +2919,19 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25">
-        <v>3.6</v>
+        <v>3.4019280000000003</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>21.024999999999999</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>56.282325</v>
       </c>
       <c r="E25">
-        <v>60000000</v>
+        <v>58166307.166573755</v>
       </c>
       <c r="F25">
         <v>-1.8110552</v>
@@ -2920,10 +2946,10 @@
         <v>0.04</v>
       </c>
       <c r="J25">
-        <v>27</v>
+        <v>25.219727833583054</v>
       </c>
       <c r="K25">
-        <v>8.219178082191781E-5</v>
+        <v>8.2118743012965135E-5</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2931,19 +2957,19 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>3.6</v>
+        <v>3.2241240000000002</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>19.846</v>
       </c>
       <c r="D26">
-        <v>51</v>
+        <v>45.21405</v>
       </c>
       <c r="E26">
-        <v>60000000</v>
+        <v>50081904.781778529</v>
       </c>
       <c r="F26">
         <v>-1.8110552</v>
@@ -2958,10 +2984,10 @@
         <v>0.04</v>
       </c>
       <c r="J26">
-        <v>27</v>
+        <v>27.413232984616016</v>
       </c>
       <c r="K26">
-        <v>8.219178082191781E-5</v>
+        <v>8.159056395337011E-5</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2969,19 +2995,19 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B27">
-        <v>3.6</v>
+        <v>3.8721600000000005</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>20.364000000000001</v>
       </c>
       <c r="D27">
-        <v>51</v>
+        <v>56.055375000000005</v>
       </c>
       <c r="E27">
-        <v>60000000</v>
+        <v>58487370.383457817</v>
       </c>
       <c r="F27">
         <v>-1.8110552</v>
@@ -2996,10 +3022,10 @@
         <v>0.04</v>
       </c>
       <c r="J27">
-        <v>27</v>
+        <v>25.380840809428314</v>
       </c>
       <c r="K27">
-        <v>8.219178082191781E-5</v>
+        <v>8.2203542492205291E-5</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -3007,19 +3033,19 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>3.6</v>
+        <v>3.6412920000000004</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>19.509</v>
       </c>
       <c r="D28">
-        <v>51</v>
+        <v>52.327275</v>
       </c>
       <c r="E28">
-        <v>60000000</v>
+        <v>67195833.85830079</v>
       </c>
       <c r="F28">
         <v>-1.8110552</v>
@@ -3034,10 +3060,10 @@
         <v>0.04</v>
       </c>
       <c r="J28">
-        <v>27</v>
+        <v>27.724505547699572</v>
       </c>
       <c r="K28">
-        <v>8.219178082191781E-5</v>
+        <v>8.1915417477564391E-5</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -3045,19 +3071,19 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>3.6</v>
+        <v>3.4312320000000001</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>20.227</v>
       </c>
       <c r="D29">
-        <v>51</v>
+        <v>54.858150000000002</v>
       </c>
       <c r="E29">
-        <v>60000000</v>
+        <v>57540848.008247517</v>
       </c>
       <c r="F29">
         <v>-1.8110552</v>
@@ -3072,10 +3098,10 @@
         <v>0.04</v>
       </c>
       <c r="J29">
-        <v>27</v>
+        <v>25.300906380552107</v>
       </c>
       <c r="K29">
-        <v>8.219178082191781E-5</v>
+        <v>8.2315379785706627E-5</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -3083,19 +3109,19 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>3.6</v>
+        <v>3.741984</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>20.329000000000001</v>
       </c>
       <c r="D30">
-        <v>51</v>
+        <v>51.136425000000003</v>
       </c>
       <c r="E30">
-        <v>60000000</v>
+        <v>69639903.664799929</v>
       </c>
       <c r="F30">
         <v>-1.8110552</v>
@@ -3110,10 +3136,10 @@
         <v>0.04</v>
       </c>
       <c r="J30">
-        <v>27</v>
+        <v>24.86215245405662</v>
       </c>
       <c r="K30">
-        <v>8.219178082191781E-5</v>
+        <v>8.2030884480029459E-5</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -3121,19 +3147,19 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>3.6</v>
+        <v>3.5948160000000002</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>20.393000000000001</v>
       </c>
       <c r="D31">
-        <v>51</v>
+        <v>49.770899999999997</v>
       </c>
       <c r="E31">
-        <v>60000000</v>
+        <v>57619590.660824671</v>
       </c>
       <c r="F31">
         <v>-1.8110552</v>
@@ -3148,10 +3174,10 @@
         <v>0.04</v>
       </c>
       <c r="J31">
-        <v>27</v>
+        <v>26.650710440865563</v>
       </c>
       <c r="K31">
-        <v>8.219178082191781E-5</v>
+        <v>8.2682917350982644E-5</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -3170,8 +3196,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,42 +3210,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2.6</v>
@@ -3257,19 +3283,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>2.2400000000000002</v>
+        <v>3.0193279999999998</v>
       </c>
       <c r="C3">
-        <v>18.487179487179485</v>
+        <v>23.279000000000003</v>
       </c>
       <c r="D3">
-        <v>33.714285714285715</v>
+        <v>45.410225000000004</v>
       </c>
       <c r="E3">
-        <v>41666666.666666664</v>
+        <v>35938650.762487926</v>
       </c>
       <c r="F3">
         <v>-5.8110552000000002</v>
@@ -3284,10 +3310,10 @@
         <v>0.02</v>
       </c>
       <c r="J3">
-        <v>16.600000000000001</v>
+        <v>23.607576099179621</v>
       </c>
       <c r="K3">
-        <v>-1.6438356164383565E-4</v>
+        <v>-1.9174921564344804E-4</v>
       </c>
       <c r="L3">
         <v>0.75</v>
@@ -3295,19 +3321,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>2.9600000000000004</v>
+        <v>2.7908720000000002</v>
       </c>
       <c r="C4">
-        <v>19.512820512820511</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="D4">
-        <v>48.285714285714285</v>
+        <v>36.072125</v>
       </c>
       <c r="E4">
-        <v>48333333.333333336</v>
+        <v>50315008.844740786</v>
       </c>
       <c r="F4">
         <v>-5.8110552000000002</v>
@@ -3322,10 +3348,10 @@
         <v>0.02</v>
       </c>
       <c r="J4">
-        <v>27.4</v>
+        <v>19.54131524310209</v>
       </c>
       <c r="K4">
-        <v>-2.1917808219178086E-4</v>
+        <v>-1.9180377317027975E-4</v>
       </c>
       <c r="L4">
         <v>0.75</v>
@@ -3333,19 +3359,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>2.6</v>
+        <v>2.5352000000000001</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>18.024999999999999</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>33.569299999999998</v>
       </c>
       <c r="E5">
-        <v>45000000</v>
+        <v>43926795.732717879</v>
       </c>
       <c r="F5">
         <v>-5.8110552000000002</v>
@@ -3360,10 +3386,10 @@
         <v>0.02</v>
       </c>
       <c r="J5">
-        <v>22</v>
+        <v>23.024469038333471</v>
       </c>
       <c r="K5">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.921001437718908E-4</v>
       </c>
       <c r="L5">
         <v>0.75</v>
@@ -3371,19 +3397,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>2.6</v>
+        <v>2.7911599999999996</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>17.13</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>28.810999999999993</v>
       </c>
       <c r="E6">
-        <v>45000000</v>
+        <v>62856355.024978921</v>
       </c>
       <c r="F6">
         <v>-5.8110552000000002</v>
@@ -3398,10 +3424,10 @@
         <v>0.02</v>
       </c>
       <c r="J6">
-        <v>22</v>
+        <v>22.016188586205519</v>
       </c>
       <c r="K6">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9194262363893811E-4</v>
       </c>
       <c r="L6">
         <v>0.75</v>
@@ -3409,19 +3435,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>2.6</v>
+        <v>1.9097360000000001</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>17.016999999999999</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>38.574950000000001</v>
       </c>
       <c r="E7">
-        <v>45000000</v>
+        <v>49164260.506897658</v>
       </c>
       <c r="F7">
         <v>-5.8110552000000002</v>
@@ -3436,10 +3462,10 @@
         <v>0.02</v>
       </c>
       <c r="J7">
-        <v>22</v>
+        <v>22.539782854097236</v>
       </c>
       <c r="K7">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9181657298887443E-4</v>
       </c>
       <c r="L7">
         <v>0.75</v>
@@ -3447,19 +3473,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>2.6</v>
+        <v>2.132396</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>19.689999999999998</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>34.947575000000001</v>
       </c>
       <c r="E8">
-        <v>45000000</v>
+        <v>31188043.070350163</v>
       </c>
       <c r="F8">
         <v>-5.8110552000000002</v>
@@ -3474,10 +3500,10 @@
         <v>0.02</v>
       </c>
       <c r="J8">
-        <v>22</v>
+        <v>23.023441888356132</v>
       </c>
       <c r="K8">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.921406897891134E-4</v>
       </c>
       <c r="L8">
         <v>0.75</v>
@@ -3485,19 +3511,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>2.6</v>
+        <v>2.8912039999999997</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>18.202999999999999</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>38.979124999999996</v>
       </c>
       <c r="E9">
-        <v>45000000</v>
+        <v>45926076.360682368</v>
       </c>
       <c r="F9">
         <v>-5.8110552000000002</v>
@@ -3512,10 +3538,10 @@
         <v>0.02</v>
       </c>
       <c r="J9">
-        <v>22</v>
+        <v>21.244673900752687</v>
       </c>
       <c r="K9">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9170669005982643E-4</v>
       </c>
       <c r="L9">
         <v>0.75</v>
@@ -3523,19 +3549,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>2.6</v>
+        <v>3.1419079999999999</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>19.23</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>31.635125000000002</v>
       </c>
       <c r="E10">
-        <v>45000000</v>
+        <v>54916828.106564894</v>
       </c>
       <c r="F10">
         <v>-5.8110552000000002</v>
@@ -3550,10 +3576,10 @@
         <v>0.02</v>
       </c>
       <c r="J10">
-        <v>22</v>
+        <v>21.275070474464282</v>
       </c>
       <c r="K10">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9115213663137184E-4</v>
       </c>
       <c r="L10">
         <v>0.75</v>
@@ -3561,19 +3587,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>2.6</v>
+        <v>2.6430560000000001</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>20.059000000000001</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>49.783475000000003</v>
       </c>
       <c r="E11">
-        <v>45000000</v>
+        <v>37115566.268199734</v>
       </c>
       <c r="F11">
         <v>-5.8110552000000002</v>
@@ -3588,10 +3614,10 @@
         <v>0.02</v>
       </c>
       <c r="J11">
-        <v>22</v>
+        <v>20.553750740657712</v>
       </c>
       <c r="K11">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9228578101904256E-4</v>
       </c>
       <c r="L11">
         <v>0.75</v>
@@ -3599,19 +3625,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>2.6</v>
+        <v>1.9982960000000003</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>17.893999999999998</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>41.488325000000003</v>
       </c>
       <c r="E12">
-        <v>45000000</v>
+        <v>42421762.848119438</v>
       </c>
       <c r="F12">
         <v>-5.8110552000000002</v>
@@ -3626,10 +3652,10 @@
         <v>0.02</v>
       </c>
       <c r="J12">
-        <v>22</v>
+        <v>25.219874752548758</v>
       </c>
       <c r="K12">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9177652506930401E-4</v>
       </c>
       <c r="L12">
         <v>0.75</v>
@@ -3637,19 +3663,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>2.6</v>
+        <v>2.973392</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>19.302</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>43.074424999999998</v>
       </c>
       <c r="E13">
-        <v>45000000</v>
+        <v>53452126.294173017</v>
       </c>
       <c r="F13">
         <v>-5.8110552000000002</v>
@@ -3664,10 +3690,10 @@
         <v>0.02</v>
       </c>
       <c r="J13">
-        <v>22</v>
+        <v>20.667352681930989</v>
       </c>
       <c r="K13">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9169565284794693E-4</v>
       </c>
       <c r="L13">
         <v>0.75</v>
@@ -3675,19 +3701,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>2.6</v>
+        <v>2.2484960000000003</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>20.545000000000002</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>42.249499999999998</v>
       </c>
       <c r="E14">
-        <v>45000000</v>
+        <v>34171259.398881353</v>
       </c>
       <c r="F14">
         <v>-5.8110552000000002</v>
@@ -3702,10 +3728,10 @@
         <v>0.02</v>
       </c>
       <c r="J14">
-        <v>22</v>
+        <v>23.922973981461439</v>
       </c>
       <c r="K14">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9207214665776568E-4</v>
       </c>
       <c r="L14">
         <v>0.75</v>
@@ -3713,19 +3739,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>2.6</v>
+        <v>2.5591759999999999</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>19.125999999999998</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>46.57685</v>
       </c>
       <c r="E15">
-        <v>45000000</v>
+        <v>54805997.498618424</v>
       </c>
       <c r="F15">
         <v>-5.8110552000000002</v>
@@ -3740,10 +3766,10 @@
         <v>0.02</v>
       </c>
       <c r="J15">
-        <v>22</v>
+        <v>20.427216508733487</v>
       </c>
       <c r="K15">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9184852627309045E-4</v>
       </c>
       <c r="L15">
         <v>0.75</v>
@@ -3751,19 +3777,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>2.6</v>
+        <v>2.5365680000000004</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>18.257999999999999</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>46.193075</v>
       </c>
       <c r="E16">
-        <v>45000000</v>
+        <v>42664584.334454596</v>
       </c>
       <c r="F16">
         <v>-5.8110552000000002</v>
@@ -3778,10 +3804,10 @@
         <v>0.02</v>
       </c>
       <c r="J16">
-        <v>22</v>
+        <v>23.708691527891908</v>
       </c>
       <c r="K16">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9065773753484648E-4</v>
       </c>
       <c r="L16">
         <v>0.75</v>
@@ -3789,19 +3815,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>2.6</v>
+        <v>2.8481840000000003</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>19.122</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>42.2393</v>
       </c>
       <c r="E17">
-        <v>45000000</v>
+        <v>50177540.905696243</v>
       </c>
       <c r="F17">
         <v>-5.8110552000000002</v>
@@ -3816,10 +3842,10 @@
         <v>0.02</v>
       </c>
       <c r="J17">
-        <v>22</v>
+        <v>23.806427779429331</v>
       </c>
       <c r="K17">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9202323778045953E-4</v>
       </c>
       <c r="L17">
         <v>0.75</v>
@@ -3827,19 +3853,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>2.6</v>
+        <v>2.9138480000000002</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>18.593</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>35.140099999999997</v>
       </c>
       <c r="E18">
-        <v>45000000</v>
+        <v>47950819.672131151</v>
       </c>
       <c r="F18">
         <v>-5.8110552000000002</v>
@@ -3854,10 +3880,10 @@
         <v>0.02</v>
       </c>
       <c r="J18">
-        <v>22</v>
+        <v>20.874099994381854</v>
       </c>
       <c r="K18">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.918293266265082E-4</v>
       </c>
       <c r="L18">
         <v>0.75</v>
@@ -3865,19 +3891,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>2.6</v>
+        <v>1.9793959999999999</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>18.129000000000001</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>38.267674999999997</v>
       </c>
       <c r="E19">
-        <v>45000000</v>
+        <v>47784492.230419092</v>
       </c>
       <c r="F19">
         <v>-5.8110552000000002</v>
@@ -3892,10 +3918,10 @@
         <v>0.02</v>
       </c>
       <c r="J19">
-        <v>22</v>
+        <v>20.96803159125562</v>
       </c>
       <c r="K19">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9194775695395507E-4</v>
       </c>
       <c r="L19">
         <v>0.75</v>
@@ -3903,19 +3929,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>2.6</v>
+        <v>2.61368</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>19.771000000000001</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>41.033149999999999</v>
       </c>
       <c r="E20">
-        <v>45000000</v>
+        <v>47077260.323577724</v>
       </c>
       <c r="F20">
         <v>-5.8110552000000002</v>
@@ -3930,10 +3956,10 @@
         <v>0.02</v>
       </c>
       <c r="J20">
-        <v>22</v>
+        <v>22.760822339220933</v>
       </c>
       <c r="K20">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9160655474048844E-4</v>
       </c>
       <c r="L20">
         <v>0.75</v>
@@ -3941,19 +3967,19 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>2.6</v>
+        <v>2.7564560000000005</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>18.385000000000002</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>39.899675000000002</v>
       </c>
       <c r="E21">
-        <v>45000000</v>
+        <v>51768674.363611072</v>
       </c>
       <c r="F21">
         <v>-5.8110552000000002</v>
@@ -3968,10 +3994,10 @@
         <v>0.02</v>
       </c>
       <c r="J21">
-        <v>22</v>
+        <v>23.324987783865851</v>
       </c>
       <c r="K21">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9170086085716452E-4</v>
       </c>
       <c r="L21">
         <v>0.75</v>
@@ -3979,19 +4005,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>2.6</v>
+        <v>2.8691720000000003</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>18.074000000000002</v>
       </c>
       <c r="D22">
-        <v>41</v>
+        <v>39.937925</v>
       </c>
       <c r="E22">
-        <v>45000000</v>
+        <v>42091203.197107382</v>
       </c>
       <c r="F22">
         <v>-5.8110552000000002</v>
@@ -4006,10 +4032,10 @@
         <v>0.02</v>
       </c>
       <c r="J22">
-        <v>22</v>
+        <v>21.00126962170955</v>
       </c>
       <c r="K22">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9121986545076678E-4</v>
       </c>
       <c r="L22">
         <v>0.75</v>
@@ -4017,19 +4043,19 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B23">
-        <v>2.6</v>
+        <v>2.995568</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>19.222000000000001</v>
       </c>
       <c r="D23">
-        <v>41</v>
+        <v>45.614225000000005</v>
       </c>
       <c r="E23">
-        <v>45000000</v>
+        <v>46557402.277623884</v>
       </c>
       <c r="F23">
         <v>-5.8110552000000002</v>
@@ -4044,10 +4070,10 @@
         <v>0.02</v>
       </c>
       <c r="J23">
-        <v>22</v>
+        <v>23.787759486519995</v>
       </c>
       <c r="K23">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9108803368514699E-4</v>
       </c>
       <c r="L23">
         <v>0.75</v>
@@ -4055,19 +4081,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>2.6</v>
+        <v>2.3453360000000001</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>18.401</v>
       </c>
       <c r="D24">
-        <v>41</v>
+        <v>53.858374999999995</v>
       </c>
       <c r="E24">
-        <v>45000000</v>
+        <v>43226281.887987196</v>
       </c>
       <c r="F24">
         <v>-5.8110552000000002</v>
@@ -4082,10 +4108,10 @@
         <v>0.02</v>
       </c>
       <c r="J24">
-        <v>22</v>
+        <v>23.10740806318168</v>
       </c>
       <c r="K24">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9230077360741599E-4</v>
       </c>
       <c r="L24">
         <v>0.75</v>
@@ -4093,19 +4119,19 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25">
-        <v>2.6</v>
+        <v>2.4019280000000003</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>20.024999999999999</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>46.282325</v>
       </c>
       <c r="E25">
-        <v>45000000</v>
+        <v>43166307.166573755</v>
       </c>
       <c r="F25">
         <v>-5.8110552000000002</v>
@@ -4120,10 +4146,10 @@
         <v>0.02</v>
       </c>
       <c r="J25">
-        <v>22</v>
+        <v>20.219727833583054</v>
       </c>
       <c r="K25">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9185385972676094E-4</v>
       </c>
       <c r="L25">
         <v>0.75</v>
@@ -4131,19 +4157,19 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>2.6</v>
+        <v>2.2241240000000002</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>18.846</v>
       </c>
       <c r="D26">
-        <v>41</v>
+        <v>35.21405</v>
       </c>
       <c r="E26">
-        <v>45000000</v>
+        <v>35081904.781778529</v>
       </c>
       <c r="F26">
         <v>-5.8110552000000002</v>
@@ -4158,10 +4184,10 @@
         <v>0.02</v>
       </c>
       <c r="J26">
-        <v>22</v>
+        <v>22.413232984616016</v>
       </c>
       <c r="K26">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9238203878635597E-4</v>
       </c>
       <c r="L26">
         <v>0.75</v>
@@ -4169,19 +4195,19 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B27">
-        <v>2.6</v>
+        <v>2.8721600000000005</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>19.364000000000001</v>
       </c>
       <c r="D27">
-        <v>41</v>
+        <v>46.055375000000005</v>
       </c>
       <c r="E27">
-        <v>45000000</v>
+        <v>43487370.383457817</v>
       </c>
       <c r="F27">
         <v>-5.8110552000000002</v>
@@ -4196,10 +4222,10 @@
         <v>0.02</v>
       </c>
       <c r="J27">
-        <v>22</v>
+        <v>20.380840809428314</v>
       </c>
       <c r="K27">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9176906024752078E-4</v>
       </c>
       <c r="L27">
         <v>0.75</v>
@@ -4207,19 +4233,19 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>2.6</v>
+        <v>2.6412920000000004</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>18.509</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>42.327275</v>
       </c>
       <c r="E28">
-        <v>45000000</v>
+        <v>52195833.85830079</v>
       </c>
       <c r="F28">
         <v>-5.8110552000000002</v>
@@ -4234,10 +4260,10 @@
         <v>0.02</v>
       </c>
       <c r="J28">
-        <v>22</v>
+        <v>22.724505547699572</v>
       </c>
       <c r="K28">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9205718526216166E-4</v>
       </c>
       <c r="L28">
         <v>0.75</v>
@@ -4245,19 +4271,19 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>2.6</v>
+        <v>2.4312320000000001</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>19.227</v>
       </c>
       <c r="D29">
-        <v>41</v>
+        <v>44.858150000000002</v>
       </c>
       <c r="E29">
-        <v>45000000</v>
+        <v>42540848.008247517</v>
       </c>
       <c r="F29">
         <v>-5.8110552000000002</v>
@@ -4272,10 +4298,10 @@
         <v>0.02</v>
       </c>
       <c r="J29">
-        <v>22</v>
+        <v>20.300906380552107</v>
       </c>
       <c r="K29">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9165722295401942E-4</v>
       </c>
       <c r="L29">
         <v>0.75</v>
@@ -4283,19 +4309,19 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>2.6</v>
+        <v>2.741984</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>19.329000000000001</v>
       </c>
       <c r="D30">
-        <v>41</v>
+        <v>41.136425000000003</v>
       </c>
       <c r="E30">
-        <v>45000000</v>
+        <v>54639903.664799929</v>
       </c>
       <c r="F30">
         <v>-5.8110552000000002</v>
@@ -4310,10 +4336,10 @@
         <v>0.02</v>
       </c>
       <c r="J30">
-        <v>22</v>
+        <v>19.86215245405662</v>
       </c>
       <c r="K30">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.9194171825969662E-4</v>
       </c>
       <c r="L30">
         <v>0.75</v>
@@ -4321,19 +4347,19 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>2.6</v>
+        <v>2.5948160000000002</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>19.393000000000001</v>
       </c>
       <c r="D31">
-        <v>41</v>
+        <v>39.770899999999997</v>
       </c>
       <c r="E31">
-        <v>45000000</v>
+        <v>42619590.660824671</v>
       </c>
       <c r="F31">
         <v>-5.8110552000000002</v>
@@ -4348,10 +4374,10 @@
         <v>0.02</v>
       </c>
       <c r="J31">
-        <v>22</v>
+        <v>21.650710440865563</v>
       </c>
       <c r="K31">
-        <v>-1.9178082191780824E-4</v>
+        <v>-1.912896853887434E-4</v>
       </c>
       <c r="L31">
         <v>0.75</v>
@@ -4370,7 +4396,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,42 +4409,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>4.5999999999999996</v>
@@ -4456,19 +4482,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>4.24</v>
+        <v>5.0193279999999998</v>
       </c>
       <c r="C3">
-        <v>20.487179487179485</v>
+        <v>25.279000000000003</v>
       </c>
       <c r="D3">
-        <v>53.714285714285715</v>
+        <v>65.410224999999997</v>
       </c>
       <c r="E3">
-        <v>71666666.666666657</v>
+        <v>65938650.762487926</v>
       </c>
       <c r="F3">
         <v>-0.81105519999999998</v>
@@ -4483,10 +4509,10 @@
         <v>0.06</v>
       </c>
       <c r="J3">
-        <v>26.6</v>
+        <v>33.607576099179624</v>
       </c>
       <c r="K3">
-        <v>2.4657534246575347E-4</v>
+        <v>2.1920968846614108E-4</v>
       </c>
       <c r="L3">
         <v>1.25</v>
@@ -4494,19 +4520,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>4.9600000000000009</v>
+        <v>4.7908720000000002</v>
       </c>
       <c r="C4">
-        <v>21.512820512820511</v>
+        <v>20.85</v>
       </c>
       <c r="D4">
-        <v>68.285714285714278</v>
+        <v>56.072125</v>
       </c>
       <c r="E4">
-        <v>78333333.333333343</v>
+        <v>80315008.844740778</v>
       </c>
       <c r="F4">
         <v>-0.81105519999999998</v>
@@ -4521,10 +4547,10 @@
         <v>0.06</v>
       </c>
       <c r="J4">
-        <v>37.4</v>
+        <v>29.54131524310209</v>
       </c>
       <c r="K4">
-        <v>1.9178082191780824E-4</v>
+        <v>2.1915513093930932E-4</v>
       </c>
       <c r="L4">
         <v>1.25</v>
@@ -4532,19 +4558,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>4.5999999999999996</v>
+        <v>4.5351999999999997</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>20.024999999999999</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>53.569299999999998</v>
       </c>
       <c r="E5">
-        <v>75000000</v>
+        <v>73926795.732717872</v>
       </c>
       <c r="F5">
         <v>-0.81105519999999998</v>
@@ -4559,10 +4585,10 @@
         <v>0.06</v>
       </c>
       <c r="J5">
-        <v>32</v>
+        <v>33.024469038333471</v>
       </c>
       <c r="K5">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1885876033769829E-4</v>
       </c>
       <c r="L5">
         <v>1.25</v>
@@ -4570,19 +4596,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>4.5999999999999996</v>
+        <v>4.7911599999999996</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>19.13</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>48.810999999999993</v>
       </c>
       <c r="E6">
-        <v>75000000</v>
+        <v>92856355.024978921</v>
       </c>
       <c r="F6">
         <v>-0.81105519999999998</v>
@@ -4597,10 +4623,10 @@
         <v>0.06</v>
       </c>
       <c r="J6">
-        <v>32</v>
+        <v>32.016188586205516</v>
       </c>
       <c r="K6">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1901628047065098E-4</v>
       </c>
       <c r="L6">
         <v>1.25</v>
@@ -4608,19 +4634,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>4.5999999999999996</v>
+        <v>3.9097360000000001</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>19.016999999999999</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>58.574950000000001</v>
       </c>
       <c r="E7">
-        <v>75000000</v>
+        <v>79164260.506897658</v>
       </c>
       <c r="F7">
         <v>-0.81105519999999998</v>
@@ -4635,10 +4661,10 @@
         <v>0.06</v>
       </c>
       <c r="J7">
-        <v>32</v>
+        <v>32.53978285409724</v>
       </c>
       <c r="K7">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1914233112071469E-4</v>
       </c>
       <c r="L7">
         <v>1.25</v>
@@ -4646,19 +4672,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>4.5999999999999996</v>
+        <v>4.132396</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>21.689999999999998</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>54.947575000000001</v>
       </c>
       <c r="E8">
-        <v>75000000</v>
+        <v>61188043.070350163</v>
       </c>
       <c r="F8">
         <v>-0.81105519999999998</v>
@@ -4673,10 +4699,10 @@
         <v>0.06</v>
       </c>
       <c r="J8">
-        <v>32</v>
+        <v>33.023441888356132</v>
       </c>
       <c r="K8">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1881821432047566E-4</v>
       </c>
       <c r="L8">
         <v>1.25</v>
@@ -4684,19 +4710,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>4.5999999999999996</v>
+        <v>4.8912040000000001</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>20.202999999999999</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>58.979124999999996</v>
       </c>
       <c r="E9">
-        <v>75000000</v>
+        <v>75926076.360682368</v>
       </c>
       <c r="F9">
         <v>-0.81105519999999998</v>
@@ -4711,10 +4737,10 @@
         <v>0.06</v>
       </c>
       <c r="J9">
-        <v>32</v>
+        <v>31.244673900752687</v>
       </c>
       <c r="K9">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1925221404976266E-4</v>
       </c>
       <c r="L9">
         <v>1.25</v>
@@ -4722,19 +4748,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>4.5999999999999996</v>
+        <v>5.1419079999999999</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>21.23</v>
       </c>
       <c r="D10">
-        <v>61</v>
+        <v>51.635125000000002</v>
       </c>
       <c r="E10">
-        <v>75000000</v>
+        <v>84916828.106564894</v>
       </c>
       <c r="F10">
         <v>-0.81105519999999998</v>
@@ -4749,10 +4775,10 @@
         <v>0.06</v>
       </c>
       <c r="J10">
-        <v>32</v>
+        <v>31.275070474464282</v>
       </c>
       <c r="K10">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1980676747821723E-4</v>
       </c>
       <c r="L10">
         <v>1.25</v>
@@ -4760,19 +4786,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>4.5999999999999996</v>
+        <v>4.6430559999999996</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>22.059000000000001</v>
       </c>
       <c r="D11">
-        <v>61</v>
+        <v>69.78347500000001</v>
       </c>
       <c r="E11">
-        <v>75000000</v>
+        <v>67115566.268199742</v>
       </c>
       <c r="F11">
         <v>-0.81105519999999998</v>
@@ -4787,10 +4813,10 @@
         <v>0.06</v>
       </c>
       <c r="J11">
-        <v>32</v>
+        <v>30.553750740657712</v>
       </c>
       <c r="K11">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1867312309054653E-4</v>
       </c>
       <c r="L11">
         <v>1.25</v>
@@ -4798,19 +4824,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>4.5999999999999996</v>
+        <v>3.9982960000000003</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>19.893999999999998</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>61.488325000000003</v>
       </c>
       <c r="E12">
-        <v>75000000</v>
+        <v>72421762.848119438</v>
       </c>
       <c r="F12">
         <v>-0.81105519999999998</v>
@@ -4825,10 +4851,10 @@
         <v>0.06</v>
       </c>
       <c r="J12">
-        <v>32</v>
+        <v>35.219874752548762</v>
       </c>
       <c r="K12">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1918237904028511E-4</v>
       </c>
       <c r="L12">
         <v>1.25</v>
@@ -4836,19 +4862,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>4.5999999999999996</v>
+        <v>4.9733920000000005</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>21.302</v>
       </c>
       <c r="D13">
-        <v>61</v>
+        <v>63.074424999999998</v>
       </c>
       <c r="E13">
-        <v>75000000</v>
+        <v>83452126.294173017</v>
       </c>
       <c r="F13">
         <v>-0.81105519999999998</v>
@@ -4863,10 +4889,10 @@
         <v>0.06</v>
       </c>
       <c r="J13">
-        <v>32</v>
+        <v>30.667352681930989</v>
       </c>
       <c r="K13">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1926325126164217E-4</v>
       </c>
       <c r="L13">
         <v>1.25</v>
@@ -4874,19 +4900,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>4.5999999999999996</v>
+        <v>4.2484960000000003</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>22.545000000000002</v>
       </c>
       <c r="D14">
-        <v>61</v>
+        <v>62.249499999999998</v>
       </c>
       <c r="E14">
-        <v>75000000</v>
+        <v>64171259.398881353</v>
       </c>
       <c r="F14">
         <v>-0.81105519999999998</v>
@@ -4901,10 +4927,10 @@
         <v>0.06</v>
       </c>
       <c r="J14">
-        <v>32</v>
+        <v>33.922973981461439</v>
       </c>
       <c r="K14">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1888675745182344E-4</v>
       </c>
       <c r="L14">
         <v>1.25</v>
@@ -4912,19 +4938,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>4.5999999999999996</v>
+        <v>4.5591759999999999</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>21.125999999999998</v>
       </c>
       <c r="D15">
-        <v>61</v>
+        <v>66.576850000000007</v>
       </c>
       <c r="E15">
-        <v>75000000</v>
+        <v>84805997.498618424</v>
       </c>
       <c r="F15">
         <v>-0.81105519999999998</v>
@@ -4939,10 +4965,10 @@
         <v>0.06</v>
       </c>
       <c r="J15">
-        <v>32</v>
+        <v>30.427216508733487</v>
       </c>
       <c r="K15">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1911037783649864E-4</v>
       </c>
       <c r="L15">
         <v>1.25</v>
@@ -4950,19 +4976,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>4.5999999999999996</v>
+        <v>4.5365680000000008</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>20.257999999999999</v>
       </c>
       <c r="D16">
-        <v>61</v>
+        <v>66.193074999999993</v>
       </c>
       <c r="E16">
-        <v>75000000</v>
+        <v>72664584.334454596</v>
       </c>
       <c r="F16">
         <v>-0.81105519999999998</v>
@@ -4977,10 +5003,10 @@
         <v>0.06</v>
       </c>
       <c r="J16">
-        <v>32</v>
+        <v>33.708691527891908</v>
       </c>
       <c r="K16">
-        <v>2.1917808219178083E-4</v>
+        <v>2.2030116657474261E-4</v>
       </c>
       <c r="L16">
         <v>1.25</v>
@@ -4988,19 +5014,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>4.5999999999999996</v>
+        <v>4.8481839999999998</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>21.122</v>
       </c>
       <c r="D17">
-        <v>61</v>
+        <v>62.2393</v>
       </c>
       <c r="E17">
-        <v>75000000</v>
+        <v>80177540.905696243</v>
       </c>
       <c r="F17">
         <v>-0.81105519999999998</v>
@@ -5015,10 +5041,10 @@
         <v>0.06</v>
       </c>
       <c r="J17">
-        <v>32</v>
+        <v>33.806427779429328</v>
       </c>
       <c r="K17">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1893566632912959E-4</v>
       </c>
       <c r="L17">
         <v>1.25</v>
@@ -5026,19 +5052,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>4.5999999999999996</v>
+        <v>4.9138479999999998</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>20.593</v>
       </c>
       <c r="D18">
-        <v>61</v>
+        <v>55.140099999999997</v>
       </c>
       <c r="E18">
-        <v>75000000</v>
+        <v>77950819.672131151</v>
       </c>
       <c r="F18">
         <v>-0.81105519999999998</v>
@@ -5053,10 +5079,10 @@
         <v>0.06</v>
       </c>
       <c r="J18">
-        <v>32</v>
+        <v>30.874099994381854</v>
       </c>
       <c r="K18">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1912957748308089E-4</v>
       </c>
       <c r="L18">
         <v>1.25</v>
@@ -5064,19 +5090,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>4.5999999999999996</v>
+        <v>3.9793959999999999</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>20.129000000000001</v>
       </c>
       <c r="D19">
-        <v>61</v>
+        <v>58.267674999999997</v>
       </c>
       <c r="E19">
-        <v>75000000</v>
+        <v>77784492.230419099</v>
       </c>
       <c r="F19">
         <v>-0.81105519999999998</v>
@@ -5091,10 +5117,10 @@
         <v>0.06</v>
       </c>
       <c r="J19">
-        <v>32</v>
+        <v>30.96803159125562</v>
       </c>
       <c r="K19">
-        <v>2.1917808219178083E-4</v>
+        <v>2.19011147155634E-4</v>
       </c>
       <c r="L19">
         <v>1.25</v>
@@ -5102,19 +5128,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>4.5999999999999996</v>
+        <v>4.6136800000000004</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>21.771000000000001</v>
       </c>
       <c r="D20">
-        <v>61</v>
+        <v>61.033149999999999</v>
       </c>
       <c r="E20">
-        <v>75000000</v>
+        <v>77077260.323577732</v>
       </c>
       <c r="F20">
         <v>-0.81105519999999998</v>
@@ -5129,10 +5155,10 @@
         <v>0.06</v>
       </c>
       <c r="J20">
-        <v>32</v>
+        <v>32.760822339220937</v>
       </c>
       <c r="K20">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1935234936910065E-4</v>
       </c>
       <c r="L20">
         <v>1.25</v>
@@ -5140,19 +5166,19 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>4.5999999999999996</v>
+        <v>4.756456</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>20.385000000000002</v>
       </c>
       <c r="D21">
-        <v>61</v>
+        <v>59.899675000000002</v>
       </c>
       <c r="E21">
-        <v>75000000</v>
+        <v>81768674.363611072</v>
       </c>
       <c r="F21">
         <v>-0.81105519999999998</v>
@@ -5167,10 +5193,10 @@
         <v>0.06</v>
       </c>
       <c r="J21">
-        <v>32</v>
+        <v>33.324987783865851</v>
       </c>
       <c r="K21">
-        <v>2.1917808219178083E-4</v>
+        <v>2.192580432524246E-4</v>
       </c>
       <c r="L21">
         <v>1.25</v>
@@ -5178,19 +5204,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>4.5999999999999996</v>
+        <v>4.8691720000000007</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>20.074000000000002</v>
       </c>
       <c r="D22">
-        <v>61</v>
+        <v>59.937925</v>
       </c>
       <c r="E22">
-        <v>75000000</v>
+        <v>72091203.197107375</v>
       </c>
       <c r="F22">
         <v>-0.81105519999999998</v>
@@ -5205,10 +5231,10 @@
         <v>0.06</v>
       </c>
       <c r="J22">
-        <v>32</v>
+        <v>31.00126962170955</v>
       </c>
       <c r="K22">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1973903865882234E-4</v>
       </c>
       <c r="L22">
         <v>1.25</v>
@@ -5216,19 +5242,19 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B23">
-        <v>4.5999999999999996</v>
+        <v>4.9955680000000005</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>21.222000000000001</v>
       </c>
       <c r="D23">
-        <v>61</v>
+        <v>65.614225000000005</v>
       </c>
       <c r="E23">
-        <v>75000000</v>
+        <v>76557402.277623892</v>
       </c>
       <c r="F23">
         <v>-0.81105519999999998</v>
@@ -5243,10 +5269,10 @@
         <v>0.06</v>
       </c>
       <c r="J23">
-        <v>32</v>
+        <v>33.787759486519995</v>
       </c>
       <c r="K23">
-        <v>2.1917808219178083E-4</v>
+        <v>2.198708704244421E-4</v>
       </c>
       <c r="L23">
         <v>1.25</v>
@@ -5254,19 +5280,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>4.5999999999999996</v>
+        <v>4.3453359999999996</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>20.401</v>
       </c>
       <c r="D24">
-        <v>61</v>
+        <v>73.858374999999995</v>
       </c>
       <c r="E24">
-        <v>75000000</v>
+        <v>73226281.887987196</v>
       </c>
       <c r="F24">
         <v>-0.81105519999999998</v>
@@ -5281,10 +5307,10 @@
         <v>0.06</v>
       </c>
       <c r="J24">
-        <v>32</v>
+        <v>33.10740806318168</v>
       </c>
       <c r="K24">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1865813050217311E-4</v>
       </c>
       <c r="L24">
         <v>1.25</v>
@@ -5292,19 +5318,19 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25">
-        <v>4.5999999999999996</v>
+        <v>4.4019279999999998</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="D25">
-        <v>61</v>
+        <v>66.282325</v>
       </c>
       <c r="E25">
-        <v>75000000</v>
+        <v>73166307.166573763</v>
       </c>
       <c r="F25">
         <v>-0.81105519999999998</v>
@@ -5319,10 +5345,10 @@
         <v>0.06</v>
       </c>
       <c r="J25">
-        <v>32</v>
+        <v>30.219727833583054</v>
       </c>
       <c r="K25">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1910504438282818E-4</v>
       </c>
       <c r="L25">
         <v>1.25</v>
@@ -5330,19 +5356,19 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>4.5999999999999996</v>
+        <v>4.2241239999999998</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>20.846</v>
       </c>
       <c r="D26">
-        <v>61</v>
+        <v>55.21405</v>
       </c>
       <c r="E26">
-        <v>75000000</v>
+        <v>65081904.781778529</v>
       </c>
       <c r="F26">
         <v>-0.81105519999999998</v>
@@ -5357,10 +5383,10 @@
         <v>0.06</v>
       </c>
       <c r="J26">
-        <v>32</v>
+        <v>32.413232984616016</v>
       </c>
       <c r="K26">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1857686532323316E-4</v>
       </c>
       <c r="L26">
         <v>1.25</v>
@@ -5368,19 +5394,19 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B27">
-        <v>4.5999999999999996</v>
+        <v>4.8721600000000009</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>21.364000000000001</v>
       </c>
       <c r="D27">
-        <v>61</v>
+        <v>66.055374999999998</v>
       </c>
       <c r="E27">
-        <v>75000000</v>
+        <v>73487370.38345781</v>
       </c>
       <c r="F27">
         <v>-0.81105519999999998</v>
@@ -5395,10 +5421,10 @@
         <v>0.06</v>
       </c>
       <c r="J27">
-        <v>32</v>
+        <v>30.380840809428314</v>
       </c>
       <c r="K27">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1918984386206834E-4</v>
       </c>
       <c r="L27">
         <v>1.25</v>
@@ -5406,19 +5432,19 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>4.5999999999999996</v>
+        <v>4.641292</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>20.509</v>
       </c>
       <c r="D28">
-        <v>61</v>
+        <v>62.327275</v>
       </c>
       <c r="E28">
-        <v>75000000</v>
+        <v>82195833.85830079</v>
       </c>
       <c r="F28">
         <v>-0.81105519999999998</v>
@@ -5433,10 +5459,10 @@
         <v>0.06</v>
       </c>
       <c r="J28">
-        <v>32</v>
+        <v>32.724505547699572</v>
       </c>
       <c r="K28">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1890171884742741E-4</v>
       </c>
       <c r="L28">
         <v>1.25</v>
@@ -5444,19 +5470,19 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>4.5999999999999996</v>
+        <v>4.4312319999999996</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>21.227</v>
       </c>
       <c r="D29">
-        <v>61</v>
+        <v>64.858149999999995</v>
       </c>
       <c r="E29">
-        <v>75000000</v>
+        <v>72540848.008247524</v>
       </c>
       <c r="F29">
         <v>-0.81105519999999998</v>
@@ -5471,10 +5497,10 @@
         <v>0.06</v>
       </c>
       <c r="J29">
-        <v>32</v>
+        <v>30.300906380552107</v>
       </c>
       <c r="K29">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1930168115556964E-4</v>
       </c>
       <c r="L29">
         <v>1.25</v>
@@ -5482,19 +5508,19 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>4.5999999999999996</v>
+        <v>4.7419840000000004</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>21.329000000000001</v>
       </c>
       <c r="D30">
-        <v>61</v>
+        <v>61.136425000000003</v>
       </c>
       <c r="E30">
-        <v>75000000</v>
+        <v>84639903.664799929</v>
       </c>
       <c r="F30">
         <v>-0.81105519999999998</v>
@@ -5509,10 +5535,10 @@
         <v>0.06</v>
       </c>
       <c r="J30">
-        <v>32</v>
+        <v>29.86215245405662</v>
       </c>
       <c r="K30">
-        <v>2.1917808219178083E-4</v>
+        <v>2.190171858498925E-4</v>
       </c>
       <c r="L30">
         <v>1.25</v>
@@ -5520,19 +5546,19 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>4.5999999999999996</v>
+        <v>4.5948159999999998</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>21.393000000000001</v>
       </c>
       <c r="D31">
-        <v>61</v>
+        <v>59.770899999999997</v>
       </c>
       <c r="E31">
-        <v>75000000</v>
+        <v>72619590.660824671</v>
       </c>
       <c r="F31">
         <v>-0.81105519999999998</v>
@@ -5547,10 +5573,10 @@
         <v>0.06</v>
       </c>
       <c r="J31">
-        <v>32</v>
+        <v>31.650710440865563</v>
       </c>
       <c r="K31">
-        <v>2.1917808219178083E-4</v>
+        <v>2.1966921872084566E-4</v>
       </c>
       <c r="L31">
         <v>1.25</v>

--- a/ExcelInputs/GEPEP_calibration.xlsx
+++ b/ExcelInputs/GEPEP_calibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBE9164-C9A9-4DBA-B6BA-AC89FBD41A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F056F479-917E-4097-8B75-8616CC21B5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
+    <workbookView xWindow="3225" yWindow="450" windowWidth="25140" windowHeight="15075" activeTab="4" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Weights" sheetId="10" r:id="rId1"/>
@@ -564,7 +564,9 @@
   </sheetPr>
   <dimension ref="B1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -605,34 +607,34 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>1</v>
+        <v>3.0966014953309635</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.413120046235661</v>
       </c>
       <c r="D2">
-        <v>0.25</v>
+        <v>6.4641864182834199E-2</v>
       </c>
       <c r="E2">
-        <v>0.25</v>
+        <v>3.0508130267892637E-2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>29.015211341242807</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>7.9745703353327011</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>17.457801868409902</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.40937577019250732</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>231.42038342001354</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>0.48837722660222549</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +654,7 @@
       <selection activeCell="A3" sqref="A3:XFD31"/>
       <selection pane="topRight" activeCell="A3" sqref="A3:XFD31"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD31"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +728,7 @@
       <c r="J2" s="1">
         <v>0.86</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>29</v>
       </c>
     </row>
@@ -746,7 +748,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,34 +796,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>4.08</v>
+        <v>3.8341017900000001</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>18.589628000000001</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>41.0079669</v>
       </c>
       <c r="E2">
-        <v>60000000</v>
+        <v>56392901.100000001</v>
       </c>
       <c r="F2">
-        <v>1.302</v>
+        <v>1.7229718199999999</v>
       </c>
       <c r="G2">
-        <v>7.9349999999999996</v>
+        <v>8.9106451700000004</v>
       </c>
       <c r="H2">
-        <v>1.7397800000000001</v>
+        <v>1.9655323600000001</v>
       </c>
       <c r="I2">
-        <v>58.880013793103451</v>
+        <v>58.8780614</v>
       </c>
       <c r="J2">
-        <v>8.219178082191781E-5</v>
+        <v>-1.6263011500000001E-4</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>1.2497876800000001</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +839,9 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -884,34 +888,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3.08</v>
+        <v>2.8341017900000001</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>17.589628000000001</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>31.0079669</v>
       </c>
       <c r="E2">
-        <v>45000000</v>
+        <v>41392901.100000001</v>
       </c>
       <c r="F2">
-        <v>-2.698</v>
+        <v>-2.2770281800000003</v>
       </c>
       <c r="G2">
-        <v>6.9349999999999996</v>
+        <v>7.9106451700000004</v>
       </c>
       <c r="H2">
-        <v>0.7397800000000001</v>
+        <v>0.96553236000000009</v>
       </c>
       <c r="I2">
-        <v>53.880013793103451</v>
+        <v>53.8780614</v>
       </c>
       <c r="J2">
-        <v>-1.9178082191780824E-4</v>
+        <v>-4.3660271773972607E-4</v>
       </c>
       <c r="K2">
-        <v>0.75</v>
+        <v>0.99978768000000007</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +930,9 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -973,34 +979,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>5.08</v>
+        <v>4.8341017900000001</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>19.589628000000001</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>51.0079669</v>
       </c>
       <c r="E2">
-        <v>75000000</v>
+        <v>71392901.099999994</v>
       </c>
       <c r="F2">
-        <v>2.302</v>
+        <v>2.7229718199999997</v>
       </c>
       <c r="G2">
-        <v>8.9349999999999987</v>
+        <v>9.9106451700000004</v>
       </c>
       <c r="H2">
-        <v>5.7397799999999997</v>
+        <v>5.9655323600000001</v>
       </c>
       <c r="I2">
-        <v>63.880013793103451</v>
+        <v>63.8780614</v>
       </c>
       <c r="J2">
-        <v>2.1917808219178083E-4</v>
+        <v>-2.5643813630136977E-5</v>
       </c>
       <c r="K2">
-        <v>1.25</v>
+        <v>1.4997876800000001</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelInputs/GEPEP_calibration.xlsx
+++ b/ExcelInputs/GEPEP_calibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F056F479-917E-4097-8B75-8616CC21B5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C985D259-22B3-4490-B7A5-91360077DE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="450" windowWidth="25140" windowHeight="15075" activeTab="4" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Weights" sheetId="10" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <definedName name="coefficients">#REF!</definedName>
     <definedName name="HighAdj">#REF!</definedName>
     <definedName name="LowAdj">#REF!</definedName>
-    <definedName name="ProdnTargets">Targets!#REF!</definedName>
+    <definedName name="ProdnTargets">Targets!$B$3:$L$31</definedName>
     <definedName name="Scenario">#REF!</definedName>
     <definedName name="StdCoeffs">#REF!</definedName>
+    <definedName name="TeamNo">#REF!</definedName>
     <definedName name="Teams">#REF!</definedName>
     <definedName name="Traits">#REF!</definedName>
   </definedNames>
@@ -75,8 +76,80 @@
           </rPr>
           <t xml:space="preserve">
 There are 2 sources of information for this worksheet.
-1. The initial value prior to any optimisation. Copy in from BestBet Initial
+1. The initial value prior to any optimisation. Copy in from BestBet Initial (=BestBetInitial!RC)
 2. Results from a previous optimisation, copied in from CalibrationOutput workbook</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{96980180-1255-4F8E-B2A9-9475E5181A7D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Coefficient moves in opposite direction to target</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{259D33B2-2F04-41B7-BAC4-C3F21F7E54DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Too difficult to estmiate the effect on the coefficient</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{959EF070-A562-4429-ACC9-E08DD1482C43}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Input value based on other calculations</t>
         </r>
       </text>
     </comment>
@@ -85,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="52">
   <si>
     <t>Team</t>
   </si>
@@ -97,6 +170,9 @@
   </si>
   <si>
     <t>era</t>
+  </si>
+  <si>
+    <t>fat</t>
   </si>
   <si>
     <t>wwt</t>
@@ -120,10 +196,103 @@
     <t>density</t>
   </si>
   <si>
+    <t>evg</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
     <t>basal mort</t>
   </si>
   <si>
     <t>Wwt scalar</t>
+  </si>
+  <si>
+    <t>ANDER 140474</t>
+  </si>
+  <si>
+    <t>BARLOO 140027</t>
+  </si>
+  <si>
+    <t>BILL 130641</t>
+  </si>
+  <si>
+    <t>BILL 151280</t>
+  </si>
+  <si>
+    <t>BOOLAD 120708</t>
+  </si>
+  <si>
+    <t>CLAYPANS 130597</t>
+  </si>
+  <si>
+    <t>CORO 130660</t>
+  </si>
+  <si>
+    <t>CRANMORE 1310</t>
+  </si>
+  <si>
+    <t>ET MUND 090137</t>
+  </si>
+  <si>
+    <t>EJANDING 145096</t>
+  </si>
+  <si>
+    <t>HR 2.715</t>
+  </si>
+  <si>
+    <t>HAZELDEAN 11.43</t>
+  </si>
+  <si>
+    <t>INGLE 130387</t>
+  </si>
+  <si>
+    <t>INGLE 150087</t>
+  </si>
+  <si>
+    <t>LEAHCIM 090918</t>
+  </si>
+  <si>
+    <t>MTECH WA 100081</t>
+  </si>
+  <si>
+    <t>MIANELUP M00540</t>
+  </si>
+  <si>
+    <t>MOOJEPIN 120652</t>
+  </si>
+  <si>
+    <t>MOOJEPIN 140377</t>
+  </si>
+  <si>
+    <t>MOORUNDI NE73</t>
+  </si>
+  <si>
+    <t>NEEARRA G264</t>
+  </si>
+  <si>
+    <t>ONE OAK R56</t>
+  </si>
+  <si>
+    <t>RV 5680</t>
+  </si>
+  <si>
+    <t>RHAMILY 110330</t>
+  </si>
+  <si>
+    <t>TV 140477</t>
+  </si>
+  <si>
+    <t>WT PLAIN 110004</t>
+  </si>
+  <si>
+    <t>WOODY 150329</t>
+  </si>
+  <si>
+    <t>WYAMBEH 140141</t>
+  </si>
+  <si>
+    <t>EDALE 10Z266K</t>
   </si>
   <si>
     <t>ALW</t>
@@ -151,7 +320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,13 +352,24 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -199,8 +379,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -228,20 +431,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
-    <cellStyle name="Admin" xfId="2" xr:uid="{FD927006-E5C6-40B5-B20F-6B7A4B85B6C8}"/>
+  <cellStyles count="8">
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="4" builtinId="52"/>
+    <cellStyle name="Accent6" xfId="7" builtinId="49"/>
+    <cellStyle name="Admin" xfId="5" xr:uid="{FD927006-E5C6-40B5-B20F-6B7A4B85B6C8}"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,29 +780,29 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B1:K2"/>
+  <dimension ref="B1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:L2"/>
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -593,19 +811,22 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>3.0966014953309635</v>
       </c>
@@ -613,10 +834,10 @@
         <v>1.413120046235661</v>
       </c>
       <c r="D2">
-        <v>6.4641864182834199E-2</v>
+        <v>0.2585674567313368</v>
       </c>
       <c r="E2">
-        <v>3.0508130267892637E-2</v>
+        <v>0.12203252107157055</v>
       </c>
       <c r="F2">
         <v>29.015211341242807</v>
@@ -631,10 +852,13 @@
         <v>0.40937577019250732</v>
       </c>
       <c r="J2">
+        <v>65.234065593887095</v>
+      </c>
+      <c r="K2">
         <v>231.42038342001354</v>
       </c>
-      <c r="K2">
-        <v>0.48837722660222549</v>
+      <c r="L2">
+        <v>0.97675445320445098</v>
       </c>
     </row>
   </sheetData>
@@ -647,14 +871,14 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A3" sqref="A3:XFD31"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:XFD31"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD31"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,21 +886,21 @@
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -685,51 +909,1159 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2">
+        <v>106</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="I2" s="2">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.19109999999999999</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L2" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4.1309759999999995</v>
+      </c>
+      <c r="C3" s="3">
+        <v>23.079000000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>33.459000000000003</v>
+      </c>
+      <c r="E3" s="3">
+        <v>120.23099999999999</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="I3" s="3">
+        <v>69.298000000000002</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.20717576099179622</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.85967326409</v>
+      </c>
+      <c r="L3" s="3">
+        <v>30.684000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.8961740000000002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>18.650000000000002</v>
+      </c>
+      <c r="D4" s="3">
+        <v>26.134999999999998</v>
+      </c>
+      <c r="E4" s="3">
+        <v>99.49</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.208</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.753</v>
+      </c>
+      <c r="I4" s="3">
+        <v>62.789000000000001</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.16651315243102088</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.86023742049999996</v>
+      </c>
+      <c r="L4" s="3">
+        <v>28.283999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3.6334</v>
+      </c>
+      <c r="C5" s="3">
+        <v>17.824999999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>24.172000000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>107.45699999999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.532</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="I5" s="3">
+        <v>67.067000000000007</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.20134469038333472</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.86331519999999995</v>
+      </c>
+      <c r="L5" s="3">
+        <v>29.861000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3.8964699999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>16.93</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20.439999999999998</v>
+      </c>
+      <c r="E6" s="3">
+        <v>87.652000000000001</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.4829999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I6" s="3">
+        <v>64.281000000000006</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.19126188586205517</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.86167660000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>28.803000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.9905620000000002</v>
+      </c>
+      <c r="C7" s="3">
+        <v>16.817</v>
+      </c>
+      <c r="D7" s="3">
+        <v>28.097999999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100.80799999999999</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="I7" s="3">
+        <v>64.622</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.19649782854097236</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.86036988655000002</v>
+      </c>
+      <c r="L7" s="3">
+        <v>28.608000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3.2194069999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>19.490000000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <v>25.253</v>
+      </c>
+      <c r="E8" s="3">
+        <v>129.923</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="I8" s="3">
+        <v>64.822999999999993</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.20133441888356132</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.86373800000000001</v>
+      </c>
+      <c r="L8" s="3">
+        <v>28.318000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3.9992929999999998</v>
+      </c>
+      <c r="C9" s="3">
+        <v>18.003</v>
+      </c>
+      <c r="D9" s="3">
+        <v>28.414999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>104.78400000000001</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="I9" s="3">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.18354673900752688</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.85923404388000002</v>
+      </c>
+      <c r="L9" s="3">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4.2569610000000004</v>
+      </c>
+      <c r="C10" s="3">
+        <v>19.03</v>
+      </c>
+      <c r="D10" s="3">
+        <v>22.655000000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>94.653000000000006</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.347</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="I10" s="3">
+        <v>67.492999999999995</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.18385070474464282</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.85354770000000002</v>
+      </c>
+      <c r="L10" s="3">
+        <v>29.547000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3.7442519999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>19.859000000000002</v>
+      </c>
+      <c r="D11" s="3">
+        <v>36.889000000000003</v>
+      </c>
+      <c r="E11" s="3">
+        <v>118.10299999999999</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3.8999999999999993E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.363</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="I11" s="3">
+        <v>67.356999999999999</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.1766375074065771</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.86525439999999998</v>
+      </c>
+      <c r="L11" s="3">
+        <v>28.675999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3.0815820000000005</v>
+      </c>
+      <c r="C12" s="3">
+        <v>17.693999999999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>30.382999999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <v>109.592</v>
+      </c>
+      <c r="F12" s="6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.304</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="I12" s="3">
+        <v>62.981999999999999</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.22329874752548756</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.85995556574800003</v>
+      </c>
+      <c r="L12" s="3">
+        <v>29.206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4.0837640000000004</v>
+      </c>
+      <c r="C13" s="3">
+        <v>19.102</v>
+      </c>
+      <c r="D13" s="3">
+        <v>31.626999999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>96.122</v>
+      </c>
+      <c r="F13" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.448</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="I13" s="3">
+        <v>66.828999999999994</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.17777352681930988</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.85912012161999995</v>
+      </c>
+      <c r="L13" s="3">
+        <v>27.753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3.3387320000000003</v>
+      </c>
+      <c r="C14" s="3">
+        <v>20.344999999999999</v>
+      </c>
+      <c r="D14" s="3">
+        <v>30.98</v>
+      </c>
+      <c r="E14" s="3">
+        <v>123.61799999999999</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.106</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="I14" s="3">
+        <v>62.055</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.21032973981461439</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.86302349999999994</v>
+      </c>
+      <c r="L14" s="3">
+        <v>29.495000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3.658042</v>
+      </c>
+      <c r="C15" s="3">
+        <v>18.926000000000002</v>
+      </c>
+      <c r="D15" s="3">
+        <v>34.374000000000002</v>
+      </c>
+      <c r="E15" s="3">
+        <v>94.762</v>
+      </c>
+      <c r="F15" s="6">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.4949999999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="I15" s="3">
+        <v>68.450999999999993</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.17537216508733486</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.86070075310999994</v>
+      </c>
+      <c r="L15" s="3">
+        <v>30.582999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3.6348060000000002</v>
+      </c>
+      <c r="C16" s="3">
+        <v>18.058</v>
+      </c>
+      <c r="D16" s="3">
+        <v>34.073</v>
+      </c>
+      <c r="E16" s="3">
+        <v>109.24</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="I16" s="3">
+        <v>61.987000000000002</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.20818691527891905</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.84854200000000002</v>
+      </c>
+      <c r="L16" s="3">
+        <v>26.962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3.9550780000000003</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18.922000000000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>30.972000000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <v>99.644999999999996</v>
+      </c>
+      <c r="F17" s="6">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.452</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="I17" s="3">
+        <v>62.543999999999997</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.20916427779429331</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.86251440000000001</v>
+      </c>
+      <c r="L17" s="3">
+        <v>29.082999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4.0225660000000003</v>
+      </c>
+      <c r="C18" s="3">
+        <v>18.393000000000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>25.404</v>
+      </c>
+      <c r="E18" s="3">
+        <v>102.25</v>
+      </c>
+      <c r="F18" s="6">
+        <v>8.3999999999999991E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.748</v>
+      </c>
+      <c r="I18" s="3">
+        <v>62.887</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.17984099994381852</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.86050191573000001</v>
+      </c>
+      <c r="L18" s="3">
+        <v>30.245000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3.062157</v>
+      </c>
+      <c r="C19" s="3">
+        <v>17.929000000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>27.856999999999999</v>
+      </c>
+      <c r="E19" s="3">
+        <v>102.452</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="I19" s="3">
+        <v>66.741</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.18078031591255619</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.86172989999999994</v>
+      </c>
+      <c r="L19" s="3">
+        <v>28.137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3.7140600000000004</v>
+      </c>
+      <c r="C20" s="3">
+        <v>19.571000000000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>30.026</v>
+      </c>
+      <c r="E20" s="3">
+        <v>103.32299999999999</v>
+      </c>
+      <c r="F20" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.427</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.753</v>
+      </c>
+      <c r="I20" s="3">
+        <v>68.718000000000004</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.19870822339220931</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.85820160000000001</v>
+      </c>
+      <c r="L20" s="3">
+        <v>29.940999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3.8608020000000005</v>
+      </c>
+      <c r="C21" s="3">
+        <v>18.185000000000002</v>
+      </c>
+      <c r="D21" s="3">
+        <v>29.137</v>
+      </c>
+      <c r="E21" s="3">
+        <v>97.89</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.4689999999999999</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="I21" s="3">
+        <v>67.721999999999994</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.20434987783865849</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.85917387307000004</v>
+      </c>
+      <c r="L21" s="3">
+        <v>30.795000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>18.8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1">
-        <v>106</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="B22" s="4">
+        <v>3.9766490000000001</v>
+      </c>
+      <c r="C22" s="3">
+        <v>17.874000000000002</v>
+      </c>
+      <c r="D22" s="3">
+        <v>29.167000000000002</v>
+      </c>
+      <c r="E22" s="3">
+        <v>110.07599999999999</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.246</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="I22" s="3">
+        <v>63.435000000000002</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.1811126962170955</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.8542381</v>
+      </c>
+      <c r="L22" s="3">
+        <v>27.884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4.1065560000000003</v>
+      </c>
+      <c r="C23" s="3">
+        <v>19.022000000000002</v>
+      </c>
+      <c r="D23" s="3">
+        <v>33.619</v>
+      </c>
+      <c r="E23" s="3">
+        <v>103.976</v>
+      </c>
+      <c r="F23" s="6">
+        <v>4.9999999999999975E-3</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="I23" s="3">
+        <v>62.113</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.20897759486519993</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.85289530000000002</v>
+      </c>
+      <c r="L23" s="3">
+        <v>28.097000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3.4382619999999999</v>
+      </c>
+      <c r="C24" s="3">
+        <v>18.201000000000001</v>
+      </c>
+      <c r="D24" s="3">
+        <v>40.085000000000001</v>
+      </c>
+      <c r="E24" s="3">
+        <v>108.437</v>
+      </c>
+      <c r="F24" s="6">
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.4869999999999999</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="I24" s="3">
+        <v>66.564999999999998</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.2021740806318168</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.86541139999999994</v>
+      </c>
+      <c r="L24" s="3">
+        <v>29.506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3.4964260000000005</v>
+      </c>
+      <c r="C25" s="3">
+        <v>19.824999999999999</v>
+      </c>
+      <c r="D25" s="3">
+        <v>34.143000000000001</v>
+      </c>
+      <c r="E25" s="3">
+        <v>108.52200000000001</v>
+      </c>
+      <c r="F25" s="6">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.3579999999999999</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="I25" s="3">
+        <v>68.614000000000004</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.17329727833583053</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.86075600448</v>
+      </c>
+      <c r="L25" s="3">
+        <v>30.623999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3.3136830000000002</v>
+      </c>
+      <c r="C26" s="3">
+        <v>18.646000000000001</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25.462</v>
+      </c>
+      <c r="E26" s="3">
+        <v>121.843</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="I26" s="3">
+        <v>63.942</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.19523232984616015</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.86626340000000002</v>
+      </c>
+      <c r="L26" s="3">
+        <v>28.492000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3.9797200000000008</v>
+      </c>
+      <c r="C27" s="3">
+        <v>19.164000000000001</v>
+      </c>
+      <c r="D27" s="3">
+        <v>33.965000000000003</v>
+      </c>
+      <c r="E27" s="3">
+        <v>108.069</v>
+      </c>
+      <c r="F27" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.5859999999999999</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="I27" s="3">
+        <v>63.524999999999999</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.17490840809428312</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.85987838213000001</v>
+      </c>
+      <c r="L27" s="3">
+        <v>27.768000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3.7424390000000005</v>
+      </c>
+      <c r="C28" s="3">
+        <v>18.309000000000001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>31.041</v>
+      </c>
+      <c r="E28" s="3">
+        <v>97.432999999999993</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1.323</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I28" s="3">
+        <v>63.149000000000001</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.19834505547699571</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.86286770000000002</v>
+      </c>
+      <c r="L28" s="3">
+        <v>28.393999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3.5265439999999999</v>
+      </c>
+      <c r="C29" s="3">
+        <v>19.027000000000001</v>
+      </c>
+      <c r="D29" s="3">
+        <v>33.025999999999996</v>
+      </c>
+      <c r="E29" s="3">
+        <v>109.419</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1.1999999999999997E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1.645</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="I29" s="3">
+        <v>64.566999999999993</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.17410906380552105</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.85872369999999998</v>
+      </c>
+      <c r="L29" s="3">
+        <v>28.824000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3.8459279999999998</v>
+      </c>
+      <c r="C30" s="3">
+        <v>19.129000000000001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>30.106999999999999</v>
+      </c>
+      <c r="E30" s="3">
+        <v>94.926000000000002</v>
+      </c>
+      <c r="F30" s="6">
         <v>0.06</v>
       </c>
-      <c r="G2" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="I2" s="1">
-        <v>65</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="K2">
-        <v>29</v>
+      <c r="G30" s="3">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="I30" s="3">
+        <v>61.889000000000003</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.16972152454056619</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.86166719999999997</v>
+      </c>
+      <c r="L30" s="3">
+        <v>28.51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3.6946720000000002</v>
+      </c>
+      <c r="C31" s="3">
+        <v>19.193000000000001</v>
+      </c>
+      <c r="D31" s="3">
+        <v>29.036000000000001</v>
+      </c>
+      <c r="E31" s="3">
+        <v>109.30500000000001</v>
+      </c>
+      <c r="F31" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="I31" s="3">
+        <v>62.846000000000004</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.18760710440865561</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.85495100000000002</v>
+      </c>
+      <c r="L31" s="3">
+        <v>28.521000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -742,35 +2074,37 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -782,48 +2116,1249 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>3.8341017900000001</v>
-      </c>
-      <c r="C2">
-        <v>18.589628000000001</v>
-      </c>
-      <c r="D2">
-        <v>41.0079669</v>
-      </c>
-      <c r="E2">
-        <v>56392901.100000001</v>
-      </c>
-      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="C2" s="1">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>40.1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>57000000</v>
+      </c>
+      <c r="F2" s="1">
         <v>1.7229718199999999</v>
       </c>
-      <c r="G2">
-        <v>8.9106451700000004</v>
-      </c>
-      <c r="H2">
-        <v>1.9655323600000001</v>
-      </c>
-      <c r="I2">
+      <c r="G2" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
         <v>58.8780614</v>
       </c>
-      <c r="J2">
-        <v>-1.6263011500000001E-4</v>
-      </c>
-      <c r="K2">
-        <v>1.2497876800000001</v>
+      <c r="J2" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K2" s="1">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.3096127999999991</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22.833478723404255</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44.723530000000011</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50253262.46974574</v>
+      </c>
+      <c r="F3">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G3">
+        <v>9.9</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>62.575499999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.04</v>
+      </c>
+      <c r="K3" s="4">
+        <v>28.607576099179621</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.0646572000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.451595744680855</v>
+      </c>
+      <c r="D4" s="2">
+        <v>34.933783333333331</v>
+      </c>
+      <c r="E4" s="3">
+        <v>60729721.580058306</v>
+      </c>
+      <c r="F4">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G4">
+        <v>9.9</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>57.042000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.04</v>
+      </c>
+      <c r="K4" s="4">
+        <v>24.54131524310209</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.7905199999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17.635372340425533</v>
+      </c>
+      <c r="D5" s="2">
+        <v>32.309906666666663</v>
+      </c>
+      <c r="E5" s="3">
+        <v>56227142.019598536</v>
+      </c>
+      <c r="F5">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G5">
+        <v>9.9</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>61.2273</v>
+      </c>
+      <c r="J5">
+        <v>0.04</v>
+      </c>
+      <c r="K5" s="4">
+        <v>28.024469038333471</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.0649659999999992</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16.749893617021275</v>
+      </c>
+      <c r="D6" s="2">
+        <v>27.321466666666662</v>
+      </c>
+      <c r="E6" s="3">
+        <v>68931684.388262674</v>
+      </c>
+      <c r="F6">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G6">
+        <v>9.9</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>60.763300000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.04</v>
+      </c>
+      <c r="K6" s="4">
+        <v>27.016188586205519</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.1198835999999996</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16.63809574468085</v>
+      </c>
+      <c r="D7" s="2">
+        <v>37.557659999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>59935719.387350217</v>
+      </c>
+      <c r="F7">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G7">
+        <v>9.9</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>56.641500000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.04</v>
+      </c>
+      <c r="K7" s="4">
+        <v>27.539782854097236</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.3586245999999997</v>
+      </c>
+      <c r="C8" s="2">
+        <v>19.282659574468088</v>
+      </c>
+      <c r="D8" s="2">
+        <v>33.754843333333334</v>
+      </c>
+      <c r="E8" s="3">
+        <v>46504468.031064555</v>
+      </c>
+      <c r="F8">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G8">
+        <v>9.9</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>58.150599999999997</v>
+      </c>
+      <c r="J8">
+        <v>0.04</v>
+      </c>
+      <c r="K8" s="4">
+        <v>28.023441888356132</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.1722353999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>17.811478723404257</v>
+      </c>
+      <c r="D9" s="2">
+        <v>37.981383333333333</v>
+      </c>
+      <c r="E9" s="3">
+        <v>57661475.034356393</v>
+      </c>
+      <c r="F9">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G9">
+        <v>9.9</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>60.441400000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.04</v>
+      </c>
+      <c r="K9" s="4">
+        <v>26.244673900752687</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.4410458000000004</v>
+      </c>
+      <c r="C10" s="2">
+        <v>18.827553191489365</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30.282183333333332</v>
+      </c>
+      <c r="E10" s="3">
+        <v>63833159.012392625</v>
+      </c>
+      <c r="F10">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G10">
+        <v>9.9</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>62.059800000000003</v>
+      </c>
+      <c r="J10">
+        <v>0.04</v>
+      </c>
+      <c r="K10" s="4">
+        <v>26.275070474464282</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.9061655999999996</v>
+      </c>
+      <c r="C11" s="2">
+        <v>19.647734042553196</v>
+      </c>
+      <c r="D11" s="2">
+        <v>49.308296666666671</v>
+      </c>
+      <c r="E11" s="3">
+        <v>51158734.32512299</v>
+      </c>
+      <c r="F11">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G11">
+        <v>9.9</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>61.930900000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.04</v>
+      </c>
+      <c r="K11" s="4">
+        <v>25.553750740657712</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.2148395999999999</v>
+      </c>
+      <c r="C12" s="2">
+        <v>17.505765957446808</v>
+      </c>
+      <c r="D12" s="2">
+        <v>40.611943333333329</v>
+      </c>
+      <c r="E12" s="3">
+        <v>55131761.442441054</v>
+      </c>
+      <c r="F12">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G12">
+        <v>9.9</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>58.879199999999997</v>
+      </c>
+      <c r="J12">
+        <v>0.04</v>
+      </c>
+      <c r="K12" s="4">
+        <v>30.219874752548758</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4.2603591999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>18.898787234042555</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42.274756666666669</v>
+      </c>
+      <c r="E13" s="3">
+        <v>62857618.443228394</v>
+      </c>
+      <c r="F13">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G13">
+        <v>9.9</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>62.233199999999997</v>
+      </c>
+      <c r="J13">
+        <v>0.04</v>
+      </c>
+      <c r="K13" s="4">
+        <v>25.667352681930989</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.4831096000000001</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20.128563829787236</v>
+      </c>
+      <c r="D14" s="2">
+        <v>41.409933333333335</v>
+      </c>
+      <c r="E14" s="3">
+        <v>48876377.226617485</v>
+      </c>
+      <c r="F14">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G14">
+        <v>9.9</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>55.779899999999998</v>
+      </c>
+      <c r="J14">
+        <v>0.04</v>
+      </c>
+      <c r="K14" s="4">
+        <v>28.922973981461439</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.8162275999999999</v>
+      </c>
+      <c r="C15" s="2">
+        <v>18.724659574468085</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45.946580000000004</v>
+      </c>
+      <c r="E15" s="3">
+        <v>63759734.914839275</v>
+      </c>
+      <c r="F15">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G15">
+        <v>9.9</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>63.841500000000003</v>
+      </c>
+      <c r="J15">
+        <v>0.04</v>
+      </c>
+      <c r="K15" s="4">
+        <v>25.427216508733487</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.7919868000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17.865893617021278</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45.544243333333334</v>
+      </c>
+      <c r="E16" s="3">
+        <v>55309410.472354449</v>
+      </c>
+      <c r="F16">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G16">
+        <v>9.9</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>55.713000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.04</v>
+      </c>
+      <c r="K16" s="4">
+        <v>28.708691527891908</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4.1261083999999997</v>
+      </c>
+      <c r="C17" s="2">
+        <v>18.720702127659575</v>
+      </c>
+      <c r="D17" s="2">
+        <v>41.399239999999999</v>
+      </c>
+      <c r="E17" s="3">
+        <v>60635255.155803107</v>
+      </c>
+      <c r="F17">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G17">
+        <v>9.9</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>59.744700000000002</v>
+      </c>
+      <c r="J17">
+        <v>0.04</v>
+      </c>
+      <c r="K17" s="4">
+        <v>28.806427779429331</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4.1965148000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>18.197329787234043</v>
+      </c>
+      <c r="D18" s="2">
+        <v>33.956679999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>59090464.547677256</v>
+      </c>
+      <c r="F18">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G18">
+        <v>9.9</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>57.333199999999998</v>
+      </c>
+      <c r="J18">
+        <v>0.04</v>
+      </c>
+      <c r="K18" s="4">
+        <v>25.874099994381854</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.1945745999999997</v>
+      </c>
+      <c r="C19" s="2">
+        <v>17.73826595744681</v>
+      </c>
+      <c r="D19" s="2">
+        <v>37.235523333333333</v>
+      </c>
+      <c r="E19" s="3">
+        <v>58973958.536680587</v>
+      </c>
+      <c r="F19">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G19">
+        <v>9.9</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>58.217500000000001</v>
+      </c>
+      <c r="J19">
+        <v>0.04</v>
+      </c>
+      <c r="K19" s="4">
+        <v>25.96803159125562</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.8746679999999998</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19.362797872340426</v>
+      </c>
+      <c r="D20" s="2">
+        <v>40.134753333333329</v>
+      </c>
+      <c r="E20" s="3">
+        <v>58476815.423477843</v>
+      </c>
+      <c r="F20">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G20">
+        <v>9.9</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>62.1205</v>
+      </c>
+      <c r="J20">
+        <v>0.04</v>
+      </c>
+      <c r="K20" s="4">
+        <v>27.760822339220933</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4.0277555999999999</v>
+      </c>
+      <c r="C21" s="2">
+        <v>17.99154255319149</v>
+      </c>
+      <c r="D21" s="2">
+        <v>38.94645666666667</v>
+      </c>
+      <c r="E21" s="3">
+        <v>61722341.403616309</v>
+      </c>
+      <c r="F21">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G21">
+        <v>9.9</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>60.4283</v>
+      </c>
+      <c r="J21">
+        <v>0.04</v>
+      </c>
+      <c r="K21" s="4">
+        <v>28.324987783865851</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4.1486121999999996</v>
+      </c>
+      <c r="C22" s="2">
+        <v>17.683851063829788</v>
+      </c>
+      <c r="D22" s="2">
+        <v>38.986556666666672</v>
+      </c>
+      <c r="E22" s="3">
+        <v>54889349.176932305</v>
+      </c>
+      <c r="F22">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G22">
+        <v>9.9</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>56.915599999999998</v>
+      </c>
+      <c r="J22">
+        <v>0.04</v>
+      </c>
+      <c r="K22" s="4">
+        <v>26.00126962170955</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4.2841367999999997</v>
+      </c>
+      <c r="C23" s="2">
+        <v>18.819638297872341</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44.937396666666672</v>
+      </c>
+      <c r="E23" s="3">
+        <v>58109563.745479733</v>
+      </c>
+      <c r="F23">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G23">
+        <v>9.9</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>57.457900000000002</v>
+      </c>
+      <c r="J23">
+        <v>0.04</v>
+      </c>
+      <c r="K23" s="4">
+        <v>28.787759486519995</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.5869435999999997</v>
+      </c>
+      <c r="C24" s="2">
+        <v>18.007372340425533</v>
+      </c>
+      <c r="D24" s="2">
+        <v>53.580283333333341</v>
+      </c>
+      <c r="E24" s="3">
+        <v>55718988.906000718</v>
+      </c>
+      <c r="F24">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G24">
+        <v>9.9</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>58.113999999999997</v>
+      </c>
+      <c r="J24">
+        <v>0.04</v>
+      </c>
+      <c r="K24" s="4">
+        <v>28.10740806318168</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3.6476228000000002</v>
+      </c>
+      <c r="C25" s="2">
+        <v>19.614095744680849</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45.637810000000009</v>
+      </c>
+      <c r="E25" s="3">
+        <v>55675346.934262179</v>
+      </c>
+      <c r="F25">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G25">
+        <v>9.9</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>61.163699999999999</v>
+      </c>
+      <c r="J25">
+        <v>0.04</v>
+      </c>
+      <c r="K25" s="4">
+        <v>25.219727833583054</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3.4569774</v>
+      </c>
+      <c r="C26" s="2">
+        <v>18.447638297872341</v>
+      </c>
+      <c r="D26" s="2">
+        <v>34.03420666666667</v>
+      </c>
+      <c r="E26" s="3">
+        <v>49588404.750375479</v>
+      </c>
+      <c r="F26">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G26">
+        <v>9.9</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>56.215699999999998</v>
+      </c>
+      <c r="J26">
+        <v>0.04</v>
+      </c>
+      <c r="K26" s="4">
+        <v>27.413232984616016</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4.1518160000000002</v>
+      </c>
+      <c r="C27" s="2">
+        <v>18.960127659574468</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45.399883333333342</v>
+      </c>
+      <c r="E27" s="3">
+        <v>55908724.981261969</v>
+      </c>
+      <c r="F27">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G27">
+        <v>9.9</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>58.371400000000001</v>
+      </c>
+      <c r="J27">
+        <v>0.04</v>
+      </c>
+      <c r="K27" s="4">
+        <v>25.380840809428314</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.9042742000000001</v>
+      </c>
+      <c r="C28" s="2">
+        <v>18.11422340425532</v>
+      </c>
+      <c r="D28" s="2">
+        <v>41.49147</v>
+      </c>
+      <c r="E28" s="3">
+        <v>62011844.03641478</v>
+      </c>
+      <c r="F28">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G28">
+        <v>9.9</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>56.062399999999997</v>
+      </c>
+      <c r="J28">
+        <v>0.04</v>
+      </c>
+      <c r="K28" s="4">
+        <v>27.724505547699572</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.6790431999999997</v>
+      </c>
+      <c r="C29" s="2">
+        <v>18.82458510638298</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44.144753333333327</v>
+      </c>
+      <c r="E29" s="3">
+        <v>55218929.070819512</v>
+      </c>
+      <c r="F29">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G29">
+        <v>9.9</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>58.537100000000002</v>
+      </c>
+      <c r="J29">
+        <v>0.04</v>
+      </c>
+      <c r="K29" s="4">
+        <v>25.300906380552107</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4.0122383999999993</v>
+      </c>
+      <c r="C30" s="2">
+        <v>18.925500000000003</v>
+      </c>
+      <c r="D30" s="2">
+        <v>40.243023333333333</v>
+      </c>
+      <c r="E30" s="3">
+        <v>63649579.672587067</v>
+      </c>
+      <c r="F30">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G30">
+        <v>9.9</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>54.719200000000001</v>
+      </c>
+      <c r="J30">
+        <v>0.04</v>
+      </c>
+      <c r="K30" s="4">
+        <v>24.86215245405662</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3.8544415999999999</v>
+      </c>
+      <c r="C31" s="2">
+        <v>18.988819148936173</v>
+      </c>
+      <c r="D31" s="2">
+        <v>38.81145333333334</v>
+      </c>
+      <c r="E31" s="3">
+        <v>55276519.829833947</v>
+      </c>
+      <c r="F31">
+        <v>1.7229718199999999</v>
+      </c>
+      <c r="G31">
+        <v>9.9</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>54.8401</v>
+      </c>
+      <c r="J31">
+        <v>0.04</v>
+      </c>
+      <c r="K31" s="4">
+        <v>26.650710440865563</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -837,10 +3372,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:M2"/>
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,21 +3383,21 @@
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -874,48 +3409,1249 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>2.8341017900000001</v>
+        <v>2.86</v>
       </c>
       <c r="C2">
-        <v>17.589628000000001</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D2">
-        <v>31.0079669</v>
+        <v>25.1</v>
       </c>
       <c r="E2">
-        <v>41392901.100000001</v>
+        <v>42000000</v>
       </c>
       <c r="F2">
         <v>-2.2770281800000003</v>
       </c>
       <c r="G2">
-        <v>7.9106451700000004</v>
+        <v>7.9</v>
       </c>
       <c r="H2">
-        <v>0.96553236000000009</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>53.8780614</v>
+        <v>58.8780614</v>
       </c>
       <c r="J2">
-        <v>-4.3660271773972607E-4</v>
+        <v>0.02</v>
       </c>
       <c r="K2">
-        <v>0.99978768000000007</v>
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>3.3096127999999991</v>
+      </c>
+      <c r="C3">
+        <v>21.833478723404255</v>
+      </c>
+      <c r="D3">
+        <v>29.723530000000011</v>
+      </c>
+      <c r="E3">
+        <v>35253262.46974574</v>
+      </c>
+      <c r="F3">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G3">
+        <v>7.9</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>62.575499999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.02</v>
+      </c>
+      <c r="K3">
+        <v>23.607576099179621</v>
+      </c>
+      <c r="L3">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>3.0646572000000001</v>
+      </c>
+      <c r="C4">
+        <v>17.451595744680855</v>
+      </c>
+      <c r="D4">
+        <v>19.933783333333331</v>
+      </c>
+      <c r="E4">
+        <v>45729721.580058306</v>
+      </c>
+      <c r="F4">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G4">
+        <v>7.9</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>57.042000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.02</v>
+      </c>
+      <c r="K4">
+        <v>19.54131524310209</v>
+      </c>
+      <c r="L4">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>2.7905199999999999</v>
+      </c>
+      <c r="C5">
+        <v>16.635372340425533</v>
+      </c>
+      <c r="D5">
+        <v>17.309906666666663</v>
+      </c>
+      <c r="E5">
+        <v>41227142.019598536</v>
+      </c>
+      <c r="F5">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G5">
+        <v>7.9</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>61.2273</v>
+      </c>
+      <c r="J5">
+        <v>0.02</v>
+      </c>
+      <c r="K5">
+        <v>23.024469038333471</v>
+      </c>
+      <c r="L5">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>3.0649659999999992</v>
+      </c>
+      <c r="C6">
+        <v>15.749893617021275</v>
+      </c>
+      <c r="D6">
+        <v>12.321466666666662</v>
+      </c>
+      <c r="E6">
+        <v>53931684.388262674</v>
+      </c>
+      <c r="F6">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G6">
+        <v>7.9</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>60.763300000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.02</v>
+      </c>
+      <c r="K6">
+        <v>22.016188586205519</v>
+      </c>
+      <c r="L6">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>2.1198835999999996</v>
+      </c>
+      <c r="C7">
+        <v>15.63809574468085</v>
+      </c>
+      <c r="D7">
+        <v>22.557659999999998</v>
+      </c>
+      <c r="E7">
+        <v>44935719.387350217</v>
+      </c>
+      <c r="F7">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G7">
+        <v>7.9</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>56.641500000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.02</v>
+      </c>
+      <c r="K7">
+        <v>22.539782854097236</v>
+      </c>
+      <c r="L7">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>2.3586245999999997</v>
+      </c>
+      <c r="C8">
+        <v>18.282659574468088</v>
+      </c>
+      <c r="D8">
+        <v>18.754843333333334</v>
+      </c>
+      <c r="E8">
+        <v>31504468.031064555</v>
+      </c>
+      <c r="F8">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G8">
+        <v>7.9</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>58.150599999999997</v>
+      </c>
+      <c r="J8">
+        <v>0.02</v>
+      </c>
+      <c r="K8">
+        <v>23.023441888356132</v>
+      </c>
+      <c r="L8">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>3.1722353999999999</v>
+      </c>
+      <c r="C9">
+        <v>16.811478723404257</v>
+      </c>
+      <c r="D9">
+        <v>22.981383333333333</v>
+      </c>
+      <c r="E9">
+        <v>42661475.034356393</v>
+      </c>
+      <c r="F9">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G9">
+        <v>7.9</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>60.441400000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.02</v>
+      </c>
+      <c r="K9">
+        <v>21.244673900752687</v>
+      </c>
+      <c r="L9">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>3.4410458000000004</v>
+      </c>
+      <c r="C10">
+        <v>17.827553191489365</v>
+      </c>
+      <c r="D10">
+        <v>15.282183333333332</v>
+      </c>
+      <c r="E10">
+        <v>48833159.012392625</v>
+      </c>
+      <c r="F10">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G10">
+        <v>7.9</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>62.059800000000003</v>
+      </c>
+      <c r="J10">
+        <v>0.02</v>
+      </c>
+      <c r="K10">
+        <v>21.275070474464282</v>
+      </c>
+      <c r="L10">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>2.9061655999999996</v>
+      </c>
+      <c r="C11">
+        <v>18.647734042553196</v>
+      </c>
+      <c r="D11">
+        <v>34.308296666666671</v>
+      </c>
+      <c r="E11">
+        <v>36158734.32512299</v>
+      </c>
+      <c r="F11">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G11">
+        <v>7.9</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>61.930900000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.02</v>
+      </c>
+      <c r="K11">
+        <v>20.553750740657712</v>
+      </c>
+      <c r="L11">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>2.2148395999999999</v>
+      </c>
+      <c r="C12">
+        <v>16.505765957446808</v>
+      </c>
+      <c r="D12">
+        <v>25.611943333333329</v>
+      </c>
+      <c r="E12">
+        <v>40131761.442441054</v>
+      </c>
+      <c r="F12">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G12">
+        <v>7.9</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>58.879199999999997</v>
+      </c>
+      <c r="J12">
+        <v>0.02</v>
+      </c>
+      <c r="K12">
+        <v>25.219874752548758</v>
+      </c>
+      <c r="L12">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3.2603591999999999</v>
+      </c>
+      <c r="C13">
+        <v>17.898787234042555</v>
+      </c>
+      <c r="D13">
+        <v>27.274756666666669</v>
+      </c>
+      <c r="E13">
+        <v>47857618.443228394</v>
+      </c>
+      <c r="F13">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G13">
+        <v>7.9</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>62.233199999999997</v>
+      </c>
+      <c r="J13">
+        <v>0.02</v>
+      </c>
+      <c r="K13">
+        <v>20.667352681930989</v>
+      </c>
+      <c r="L13">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>2.4831096000000001</v>
+      </c>
+      <c r="C14">
+        <v>19.128563829787236</v>
+      </c>
+      <c r="D14">
+        <v>26.409933333333335</v>
+      </c>
+      <c r="E14">
+        <v>33876377.226617485</v>
+      </c>
+      <c r="F14">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G14">
+        <v>7.9</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>55.779899999999998</v>
+      </c>
+      <c r="J14">
+        <v>0.02</v>
+      </c>
+      <c r="K14">
+        <v>23.922973981461439</v>
+      </c>
+      <c r="L14">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>2.8162275999999999</v>
+      </c>
+      <c r="C15">
+        <v>17.724659574468085</v>
+      </c>
+      <c r="D15">
+        <v>30.946580000000004</v>
+      </c>
+      <c r="E15">
+        <v>48759734.914839275</v>
+      </c>
+      <c r="F15">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G15">
+        <v>7.9</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>63.841500000000003</v>
+      </c>
+      <c r="J15">
+        <v>0.02</v>
+      </c>
+      <c r="K15">
+        <v>20.427216508733487</v>
+      </c>
+      <c r="L15">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>2.7919868000000001</v>
+      </c>
+      <c r="C16">
+        <v>16.865893617021278</v>
+      </c>
+      <c r="D16">
+        <v>30.544243333333334</v>
+      </c>
+      <c r="E16">
+        <v>40309410.472354449</v>
+      </c>
+      <c r="F16">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G16">
+        <v>7.9</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>55.713000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.02</v>
+      </c>
+      <c r="K16">
+        <v>23.708691527891908</v>
+      </c>
+      <c r="L16">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>3.1261083999999997</v>
+      </c>
+      <c r="C17">
+        <v>17.720702127659575</v>
+      </c>
+      <c r="D17">
+        <v>26.399239999999999</v>
+      </c>
+      <c r="E17">
+        <v>45635255.155803107</v>
+      </c>
+      <c r="F17">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G17">
+        <v>7.9</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>59.744700000000002</v>
+      </c>
+      <c r="J17">
+        <v>0.02</v>
+      </c>
+      <c r="K17">
+        <v>23.806427779429331</v>
+      </c>
+      <c r="L17">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>3.1965148000000001</v>
+      </c>
+      <c r="C18">
+        <v>17.197329787234043</v>
+      </c>
+      <c r="D18">
+        <v>18.956679999999999</v>
+      </c>
+      <c r="E18">
+        <v>44090464.547677256</v>
+      </c>
+      <c r="F18">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G18">
+        <v>7.9</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>57.333199999999998</v>
+      </c>
+      <c r="J18">
+        <v>0.02</v>
+      </c>
+      <c r="K18">
+        <v>20.874099994381854</v>
+      </c>
+      <c r="L18">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>2.1945745999999997</v>
+      </c>
+      <c r="C19">
+        <v>16.73826595744681</v>
+      </c>
+      <c r="D19">
+        <v>22.235523333333333</v>
+      </c>
+      <c r="E19">
+        <v>43973958.536680587</v>
+      </c>
+      <c r="F19">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G19">
+        <v>7.9</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>58.217500000000001</v>
+      </c>
+      <c r="J19">
+        <v>0.02</v>
+      </c>
+      <c r="K19">
+        <v>20.96803159125562</v>
+      </c>
+      <c r="L19">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>2.8746679999999998</v>
+      </c>
+      <c r="C20">
+        <v>18.362797872340426</v>
+      </c>
+      <c r="D20">
+        <v>25.134753333333329</v>
+      </c>
+      <c r="E20">
+        <v>43476815.423477843</v>
+      </c>
+      <c r="F20">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G20">
+        <v>7.9</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>62.1205</v>
+      </c>
+      <c r="J20">
+        <v>0.02</v>
+      </c>
+      <c r="K20">
+        <v>22.760822339220933</v>
+      </c>
+      <c r="L20">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>3.0277555999999999</v>
+      </c>
+      <c r="C21">
+        <v>16.99154255319149</v>
+      </c>
+      <c r="D21">
+        <v>23.94645666666667</v>
+      </c>
+      <c r="E21">
+        <v>46722341.403616309</v>
+      </c>
+      <c r="F21">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G21">
+        <v>7.9</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>60.4283</v>
+      </c>
+      <c r="J21">
+        <v>0.02</v>
+      </c>
+      <c r="K21">
+        <v>23.324987783865851</v>
+      </c>
+      <c r="L21">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>3.1486121999999996</v>
+      </c>
+      <c r="C22">
+        <v>16.683851063829788</v>
+      </c>
+      <c r="D22">
+        <v>23.986556666666672</v>
+      </c>
+      <c r="E22">
+        <v>39889349.176932305</v>
+      </c>
+      <c r="F22">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G22">
+        <v>7.9</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>56.915599999999998</v>
+      </c>
+      <c r="J22">
+        <v>0.02</v>
+      </c>
+      <c r="K22">
+        <v>21.00126962170955</v>
+      </c>
+      <c r="L22">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>3.2841367999999997</v>
+      </c>
+      <c r="C23">
+        <v>17.819638297872341</v>
+      </c>
+      <c r="D23">
+        <v>29.937396666666672</v>
+      </c>
+      <c r="E23">
+        <v>43109563.745479733</v>
+      </c>
+      <c r="F23">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G23">
+        <v>7.9</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>57.457900000000002</v>
+      </c>
+      <c r="J23">
+        <v>0.02</v>
+      </c>
+      <c r="K23">
+        <v>23.787759486519995</v>
+      </c>
+      <c r="L23">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>2.5869435999999997</v>
+      </c>
+      <c r="C24">
+        <v>17.007372340425533</v>
+      </c>
+      <c r="D24">
+        <v>38.580283333333341</v>
+      </c>
+      <c r="E24">
+        <v>40718988.906000718</v>
+      </c>
+      <c r="F24">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G24">
+        <v>7.9</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>58.113999999999997</v>
+      </c>
+      <c r="J24">
+        <v>0.02</v>
+      </c>
+      <c r="K24">
+        <v>23.10740806318168</v>
+      </c>
+      <c r="L24">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>2.6476228000000002</v>
+      </c>
+      <c r="C25">
+        <v>18.614095744680849</v>
+      </c>
+      <c r="D25">
+        <v>30.637810000000009</v>
+      </c>
+      <c r="E25">
+        <v>40675346.934262179</v>
+      </c>
+      <c r="F25">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G25">
+        <v>7.9</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>61.163699999999999</v>
+      </c>
+      <c r="J25">
+        <v>0.02</v>
+      </c>
+      <c r="K25">
+        <v>20.219727833583054</v>
+      </c>
+      <c r="L25">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>2.4569774</v>
+      </c>
+      <c r="C26">
+        <v>17.447638297872341</v>
+      </c>
+      <c r="D26">
+        <v>19.03420666666667</v>
+      </c>
+      <c r="E26">
+        <v>34588404.750375479</v>
+      </c>
+      <c r="F26">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G26">
+        <v>7.9</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>56.215699999999998</v>
+      </c>
+      <c r="J26">
+        <v>0.02</v>
+      </c>
+      <c r="K26">
+        <v>22.413232984616016</v>
+      </c>
+      <c r="L26">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>3.1518160000000002</v>
+      </c>
+      <c r="C27">
+        <v>17.960127659574468</v>
+      </c>
+      <c r="D27">
+        <v>30.399883333333342</v>
+      </c>
+      <c r="E27">
+        <v>40908724.981261969</v>
+      </c>
+      <c r="F27">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G27">
+        <v>7.9</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>58.371400000000001</v>
+      </c>
+      <c r="J27">
+        <v>0.02</v>
+      </c>
+      <c r="K27">
+        <v>20.380840809428314</v>
+      </c>
+      <c r="L27">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>2.9042742000000001</v>
+      </c>
+      <c r="C28">
+        <v>17.11422340425532</v>
+      </c>
+      <c r="D28">
+        <v>26.49147</v>
+      </c>
+      <c r="E28">
+        <v>47011844.03641478</v>
+      </c>
+      <c r="F28">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G28">
+        <v>7.9</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>56.062399999999997</v>
+      </c>
+      <c r="J28">
+        <v>0.02</v>
+      </c>
+      <c r="K28">
+        <v>22.724505547699572</v>
+      </c>
+      <c r="L28">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>2.6790431999999997</v>
+      </c>
+      <c r="C29">
+        <v>17.82458510638298</v>
+      </c>
+      <c r="D29">
+        <v>29.144753333333327</v>
+      </c>
+      <c r="E29">
+        <v>40218929.070819512</v>
+      </c>
+      <c r="F29">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G29">
+        <v>7.9</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>58.537100000000002</v>
+      </c>
+      <c r="J29">
+        <v>0.02</v>
+      </c>
+      <c r="K29">
+        <v>20.300906380552107</v>
+      </c>
+      <c r="L29">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>3.0122383999999993</v>
+      </c>
+      <c r="C30">
+        <v>17.925500000000003</v>
+      </c>
+      <c r="D30">
+        <v>25.243023333333333</v>
+      </c>
+      <c r="E30">
+        <v>48649579.672587067</v>
+      </c>
+      <c r="F30">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G30">
+        <v>7.9</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>54.719200000000001</v>
+      </c>
+      <c r="J30">
+        <v>0.02</v>
+      </c>
+      <c r="K30">
+        <v>19.86215245405662</v>
+      </c>
+      <c r="L30">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>2.8544415999999999</v>
+      </c>
+      <c r="C31">
+        <v>17.988819148936173</v>
+      </c>
+      <c r="D31">
+        <v>23.81145333333334</v>
+      </c>
+      <c r="E31">
+        <v>40276519.829833947</v>
+      </c>
+      <c r="F31">
+        <v>-2.2770281800000003</v>
+      </c>
+      <c r="G31">
+        <v>7.9</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>54.8401</v>
+      </c>
+      <c r="J31">
+        <v>0.02</v>
+      </c>
+      <c r="K31">
+        <v>21.650710440865563</v>
+      </c>
+      <c r="L31">
+        <v>-2.7397260273972606E-4</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -928,10 +4664,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,21 +4675,21 @@
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -965,48 +4701,1249 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>4.8341017900000001</v>
+        <v>4.8599999999999994</v>
       </c>
       <c r="C2">
-        <v>19.589628000000001</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D2">
-        <v>51.0079669</v>
+        <v>55.1</v>
       </c>
       <c r="E2">
-        <v>71392901.099999994</v>
+        <v>72000000</v>
       </c>
       <c r="F2">
         <v>2.7229718199999997</v>
       </c>
       <c r="G2">
-        <v>9.9106451700000004</v>
+        <v>11.9</v>
       </c>
       <c r="H2">
-        <v>5.9655323600000001</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>63.8780614</v>
+        <v>58.8780614</v>
       </c>
       <c r="J2">
-        <v>-2.5643813630136977E-5</v>
+        <v>0.06</v>
       </c>
       <c r="K2">
-        <v>1.4997876800000001</v>
+        <v>32</v>
+      </c>
+      <c r="L2">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>5.3096127999999991</v>
+      </c>
+      <c r="C3">
+        <v>23.833478723404255</v>
+      </c>
+      <c r="D3">
+        <v>59.723530000000011</v>
+      </c>
+      <c r="E3">
+        <v>65253262.46974574</v>
+      </c>
+      <c r="F3">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G3">
+        <v>11.9</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>62.575499999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.06</v>
+      </c>
+      <c r="K3">
+        <v>33.607576099179624</v>
+      </c>
+      <c r="L3">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>5.0646572000000001</v>
+      </c>
+      <c r="C4">
+        <v>19.451595744680855</v>
+      </c>
+      <c r="D4">
+        <v>49.933783333333331</v>
+      </c>
+      <c r="E4">
+        <v>75729721.580058306</v>
+      </c>
+      <c r="F4">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G4">
+        <v>11.9</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>57.042000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.06</v>
+      </c>
+      <c r="K4">
+        <v>29.54131524310209</v>
+      </c>
+      <c r="L4">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>4.7905199999999999</v>
+      </c>
+      <c r="C5">
+        <v>18.635372340425533</v>
+      </c>
+      <c r="D5">
+        <v>47.309906666666663</v>
+      </c>
+      <c r="E5">
+        <v>71227142.019598544</v>
+      </c>
+      <c r="F5">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G5">
+        <v>11.9</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>61.2273</v>
+      </c>
+      <c r="J5">
+        <v>0.06</v>
+      </c>
+      <c r="K5">
+        <v>33.024469038333471</v>
+      </c>
+      <c r="L5">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>5.0649659999999992</v>
+      </c>
+      <c r="C6">
+        <v>17.749893617021275</v>
+      </c>
+      <c r="D6">
+        <v>42.321466666666666</v>
+      </c>
+      <c r="E6">
+        <v>83931684.388262674</v>
+      </c>
+      <c r="F6">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G6">
+        <v>11.9</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>60.763300000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.06</v>
+      </c>
+      <c r="K6">
+        <v>32.016188586205516</v>
+      </c>
+      <c r="L6">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>4.1198835999999996</v>
+      </c>
+      <c r="C7">
+        <v>17.63809574468085</v>
+      </c>
+      <c r="D7">
+        <v>52.557659999999998</v>
+      </c>
+      <c r="E7">
+        <v>74935719.387350217</v>
+      </c>
+      <c r="F7">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G7">
+        <v>11.9</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>56.641500000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.06</v>
+      </c>
+      <c r="K7">
+        <v>32.53978285409724</v>
+      </c>
+      <c r="L7">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>4.3586245999999997</v>
+      </c>
+      <c r="C8">
+        <v>20.282659574468088</v>
+      </c>
+      <c r="D8">
+        <v>48.754843333333334</v>
+      </c>
+      <c r="E8">
+        <v>61504468.031064555</v>
+      </c>
+      <c r="F8">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G8">
+        <v>11.9</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>58.150599999999997</v>
+      </c>
+      <c r="J8">
+        <v>0.06</v>
+      </c>
+      <c r="K8">
+        <v>33.023441888356132</v>
+      </c>
+      <c r="L8">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>5.1722353999999999</v>
+      </c>
+      <c r="C9">
+        <v>18.811478723404257</v>
+      </c>
+      <c r="D9">
+        <v>52.981383333333333</v>
+      </c>
+      <c r="E9">
+        <v>72661475.034356385</v>
+      </c>
+      <c r="F9">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G9">
+        <v>11.9</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>60.441400000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.06</v>
+      </c>
+      <c r="K9">
+        <v>31.244673900752687</v>
+      </c>
+      <c r="L9">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>5.4410458000000004</v>
+      </c>
+      <c r="C10">
+        <v>19.827553191489365</v>
+      </c>
+      <c r="D10">
+        <v>45.282183333333336</v>
+      </c>
+      <c r="E10">
+        <v>78833159.012392625</v>
+      </c>
+      <c r="F10">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G10">
+        <v>11.9</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>62.059800000000003</v>
+      </c>
+      <c r="J10">
+        <v>0.06</v>
+      </c>
+      <c r="K10">
+        <v>31.275070474464282</v>
+      </c>
+      <c r="L10">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>4.9061655999999996</v>
+      </c>
+      <c r="C11">
+        <v>20.647734042553196</v>
+      </c>
+      <c r="D11">
+        <v>64.308296666666678</v>
+      </c>
+      <c r="E11">
+        <v>66158734.32512299</v>
+      </c>
+      <c r="F11">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G11">
+        <v>11.9</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>61.930900000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.06</v>
+      </c>
+      <c r="K11">
+        <v>30.553750740657712</v>
+      </c>
+      <c r="L11">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>4.2148395999999995</v>
+      </c>
+      <c r="C12">
+        <v>18.505765957446808</v>
+      </c>
+      <c r="D12">
+        <v>55.611943333333329</v>
+      </c>
+      <c r="E12">
+        <v>70131761.442441046</v>
+      </c>
+      <c r="F12">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G12">
+        <v>11.9</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>58.879199999999997</v>
+      </c>
+      <c r="J12">
+        <v>0.06</v>
+      </c>
+      <c r="K12">
+        <v>35.219874752548762</v>
+      </c>
+      <c r="L12">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>5.2603591999999999</v>
+      </c>
+      <c r="C13">
+        <v>19.898787234042555</v>
+      </c>
+      <c r="D13">
+        <v>57.274756666666669</v>
+      </c>
+      <c r="E13">
+        <v>77857618.443228394</v>
+      </c>
+      <c r="F13">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G13">
+        <v>11.9</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>62.233199999999997</v>
+      </c>
+      <c r="J13">
+        <v>0.06</v>
+      </c>
+      <c r="K13">
+        <v>30.667352681930989</v>
+      </c>
+      <c r="L13">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>4.4831096000000006</v>
+      </c>
+      <c r="C14">
+        <v>21.128563829787236</v>
+      </c>
+      <c r="D14">
+        <v>56.409933333333335</v>
+      </c>
+      <c r="E14">
+        <v>63876377.226617485</v>
+      </c>
+      <c r="F14">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G14">
+        <v>11.9</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>55.779899999999998</v>
+      </c>
+      <c r="J14">
+        <v>0.06</v>
+      </c>
+      <c r="K14">
+        <v>33.922973981461439</v>
+      </c>
+      <c r="L14">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>4.8162275999999995</v>
+      </c>
+      <c r="C15">
+        <v>19.724659574468085</v>
+      </c>
+      <c r="D15">
+        <v>60.946580000000004</v>
+      </c>
+      <c r="E15">
+        <v>78759734.914839268</v>
+      </c>
+      <c r="F15">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G15">
+        <v>11.9</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>63.841500000000003</v>
+      </c>
+      <c r="J15">
+        <v>0.06</v>
+      </c>
+      <c r="K15">
+        <v>30.427216508733487</v>
+      </c>
+      <c r="L15">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>4.7919868000000001</v>
+      </c>
+      <c r="C16">
+        <v>18.865893617021278</v>
+      </c>
+      <c r="D16">
+        <v>60.544243333333334</v>
+      </c>
+      <c r="E16">
+        <v>70309410.472354442</v>
+      </c>
+      <c r="F16">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G16">
+        <v>11.9</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>55.713000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.06</v>
+      </c>
+      <c r="K16">
+        <v>33.708691527891908</v>
+      </c>
+      <c r="L16">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>5.1261083999999997</v>
+      </c>
+      <c r="C17">
+        <v>19.720702127659575</v>
+      </c>
+      <c r="D17">
+        <v>56.399239999999999</v>
+      </c>
+      <c r="E17">
+        <v>75635255.155803114</v>
+      </c>
+      <c r="F17">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G17">
+        <v>11.9</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>59.744700000000002</v>
+      </c>
+      <c r="J17">
+        <v>0.06</v>
+      </c>
+      <c r="K17">
+        <v>33.806427779429328</v>
+      </c>
+      <c r="L17">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>5.1965148000000001</v>
+      </c>
+      <c r="C18">
+        <v>19.197329787234043</v>
+      </c>
+      <c r="D18">
+        <v>48.956679999999999</v>
+      </c>
+      <c r="E18">
+        <v>74090464.547677249</v>
+      </c>
+      <c r="F18">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G18">
+        <v>11.9</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>57.333199999999998</v>
+      </c>
+      <c r="J18">
+        <v>0.06</v>
+      </c>
+      <c r="K18">
+        <v>30.874099994381854</v>
+      </c>
+      <c r="L18">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>4.1945745999999993</v>
+      </c>
+      <c r="C19">
+        <v>18.73826595744681</v>
+      </c>
+      <c r="D19">
+        <v>52.235523333333333</v>
+      </c>
+      <c r="E19">
+        <v>73973958.536680579</v>
+      </c>
+      <c r="F19">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G19">
+        <v>11.9</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>58.217500000000001</v>
+      </c>
+      <c r="J19">
+        <v>0.06</v>
+      </c>
+      <c r="K19">
+        <v>30.96803159125562</v>
+      </c>
+      <c r="L19">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>4.8746679999999998</v>
+      </c>
+      <c r="C20">
+        <v>20.362797872340426</v>
+      </c>
+      <c r="D20">
+        <v>55.134753333333329</v>
+      </c>
+      <c r="E20">
+        <v>73476815.423477843</v>
+      </c>
+      <c r="F20">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G20">
+        <v>11.9</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>62.1205</v>
+      </c>
+      <c r="J20">
+        <v>0.06</v>
+      </c>
+      <c r="K20">
+        <v>32.760822339220937</v>
+      </c>
+      <c r="L20">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>5.0277555999999999</v>
+      </c>
+      <c r="C21">
+        <v>18.99154255319149</v>
+      </c>
+      <c r="D21">
+        <v>53.94645666666667</v>
+      </c>
+      <c r="E21">
+        <v>76722341.403616309</v>
+      </c>
+      <c r="F21">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G21">
+        <v>11.9</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>60.4283</v>
+      </c>
+      <c r="J21">
+        <v>0.06</v>
+      </c>
+      <c r="K21">
+        <v>33.324987783865851</v>
+      </c>
+      <c r="L21">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>5.1486121999999996</v>
+      </c>
+      <c r="C22">
+        <v>18.683851063829788</v>
+      </c>
+      <c r="D22">
+        <v>53.986556666666672</v>
+      </c>
+      <c r="E22">
+        <v>69889349.176932305</v>
+      </c>
+      <c r="F22">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G22">
+        <v>11.9</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>56.915599999999998</v>
+      </c>
+      <c r="J22">
+        <v>0.06</v>
+      </c>
+      <c r="K22">
+        <v>31.00126962170955</v>
+      </c>
+      <c r="L22">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>5.2841367999999997</v>
+      </c>
+      <c r="C23">
+        <v>19.819638297872341</v>
+      </c>
+      <c r="D23">
+        <v>59.937396666666672</v>
+      </c>
+      <c r="E23">
+        <v>73109563.745479733</v>
+      </c>
+      <c r="F23">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G23">
+        <v>11.9</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>57.457900000000002</v>
+      </c>
+      <c r="J23">
+        <v>0.06</v>
+      </c>
+      <c r="K23">
+        <v>33.787759486519995</v>
+      </c>
+      <c r="L23">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>4.5869435999999997</v>
+      </c>
+      <c r="C24">
+        <v>19.007372340425533</v>
+      </c>
+      <c r="D24">
+        <v>68.580283333333341</v>
+      </c>
+      <c r="E24">
+        <v>70718988.906000718</v>
+      </c>
+      <c r="F24">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G24">
+        <v>11.9</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>58.113999999999997</v>
+      </c>
+      <c r="J24">
+        <v>0.06</v>
+      </c>
+      <c r="K24">
+        <v>33.10740806318168</v>
+      </c>
+      <c r="L24">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>4.6476228000000006</v>
+      </c>
+      <c r="C25">
+        <v>20.614095744680849</v>
+      </c>
+      <c r="D25">
+        <v>60.637810000000009</v>
+      </c>
+      <c r="E25">
+        <v>70675346.934262186</v>
+      </c>
+      <c r="F25">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G25">
+        <v>11.9</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>61.163699999999999</v>
+      </c>
+      <c r="J25">
+        <v>0.06</v>
+      </c>
+      <c r="K25">
+        <v>30.219727833583054</v>
+      </c>
+      <c r="L25">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>4.4569773999999995</v>
+      </c>
+      <c r="C26">
+        <v>19.447638297872341</v>
+      </c>
+      <c r="D26">
+        <v>49.03420666666667</v>
+      </c>
+      <c r="E26">
+        <v>64588404.750375479</v>
+      </c>
+      <c r="F26">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G26">
+        <v>11.9</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>56.215699999999998</v>
+      </c>
+      <c r="J26">
+        <v>0.06</v>
+      </c>
+      <c r="K26">
+        <v>32.413232984616016</v>
+      </c>
+      <c r="L26">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>5.1518160000000002</v>
+      </c>
+      <c r="C27">
+        <v>19.960127659574468</v>
+      </c>
+      <c r="D27">
+        <v>60.399883333333342</v>
+      </c>
+      <c r="E27">
+        <v>70908724.981261969</v>
+      </c>
+      <c r="F27">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G27">
+        <v>11.9</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>58.371400000000001</v>
+      </c>
+      <c r="J27">
+        <v>0.06</v>
+      </c>
+      <c r="K27">
+        <v>30.380840809428314</v>
+      </c>
+      <c r="L27">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>4.9042741999999997</v>
+      </c>
+      <c r="C28">
+        <v>19.11422340425532</v>
+      </c>
+      <c r="D28">
+        <v>56.49147</v>
+      </c>
+      <c r="E28">
+        <v>77011844.036414772</v>
+      </c>
+      <c r="F28">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G28">
+        <v>11.9</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>56.062399999999997</v>
+      </c>
+      <c r="J28">
+        <v>0.06</v>
+      </c>
+      <c r="K28">
+        <v>32.724505547699572</v>
+      </c>
+      <c r="L28">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M28">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>4.6790431999999997</v>
+      </c>
+      <c r="C29">
+        <v>19.82458510638298</v>
+      </c>
+      <c r="D29">
+        <v>59.144753333333327</v>
+      </c>
+      <c r="E29">
+        <v>70218929.070819512</v>
+      </c>
+      <c r="F29">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G29">
+        <v>11.9</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>58.537100000000002</v>
+      </c>
+      <c r="J29">
+        <v>0.06</v>
+      </c>
+      <c r="K29">
+        <v>30.300906380552107</v>
+      </c>
+      <c r="L29">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>5.0122383999999993</v>
+      </c>
+      <c r="C30">
+        <v>19.925500000000003</v>
+      </c>
+      <c r="D30">
+        <v>55.243023333333333</v>
+      </c>
+      <c r="E30">
+        <v>78649579.672587067</v>
+      </c>
+      <c r="F30">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G30">
+        <v>11.9</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>54.719200000000001</v>
+      </c>
+      <c r="J30">
+        <v>0.06</v>
+      </c>
+      <c r="K30">
+        <v>29.86215245405662</v>
+      </c>
+      <c r="L30">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>4.8544415999999995</v>
+      </c>
+      <c r="C31">
+        <v>19.988819148936173</v>
+      </c>
+      <c r="D31">
+        <v>53.81145333333334</v>
+      </c>
+      <c r="E31">
+        <v>70276519.829833955</v>
+      </c>
+      <c r="F31">
+        <v>2.7229718199999997</v>
+      </c>
+      <c r="G31">
+        <v>11.9</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>54.8401</v>
+      </c>
+      <c r="J31">
+        <v>0.06</v>
+      </c>
+      <c r="K31">
+        <v>31.650710440865563</v>
+      </c>
+      <c r="L31">
+        <v>1.3698630136986303E-4</v>
+      </c>
+      <c r="M31">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelInputs/GEPEP_calibration.xlsx
+++ b/ExcelInputs/GEPEP_calibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C985D259-22B3-4490-B7A5-91360077DE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DDA61D-A98B-4F69-893A-A1E9B89235B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
+    <workbookView xWindow="3150" yWindow="420" windowWidth="25140" windowHeight="15075" activeTab="4" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Weights" sheetId="10" r:id="rId1"/>
@@ -874,11 +874,11 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B3" sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="B3" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,37 +929,37 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>3.7</v>
+        <v>3.7410000000000001</v>
       </c>
       <c r="C2" s="2">
-        <v>18.8</v>
+        <v>18.811</v>
       </c>
       <c r="D2" s="2">
-        <v>30</v>
+        <v>34.848999999999997</v>
       </c>
       <c r="E2" s="2">
-        <v>106</v>
+        <v>105.3</v>
       </c>
       <c r="F2" s="2">
-        <v>0.06</v>
+        <v>5.7799999999999997E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>1.45</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="H2" s="2">
-        <v>0.76</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="I2" s="2">
-        <v>65</v>
+        <v>64.75</v>
       </c>
       <c r="J2" s="2">
-        <v>0.19109999999999999</v>
+        <v>0.42697000000000002</v>
       </c>
       <c r="K2" s="2">
-        <v>0.86</v>
+        <v>0.75109999999999999</v>
       </c>
       <c r="L2" s="2">
-        <v>29</v>
+        <v>27.73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -967,37 +967,37 @@
         <v>20</v>
       </c>
       <c r="B3" s="4">
-        <v>4.1309759999999995</v>
+        <v>4.1767516799999997</v>
       </c>
       <c r="C3" s="3">
-        <v>23.079000000000001</v>
+        <v>23.09</v>
       </c>
       <c r="D3" s="3">
-        <v>33.459000000000003</v>
+        <v>38.308</v>
       </c>
       <c r="E3" s="3">
-        <v>120.23099999999999</v>
+        <v>119.53099999999999</v>
       </c>
       <c r="F3" s="6">
-        <v>3.6999999999999998E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="G3" s="3">
-        <v>1.5649999999999999</v>
+        <v>1.5960000000000001</v>
       </c>
       <c r="H3" s="3">
-        <v>0.79700000000000004</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="I3" s="3">
-        <v>69.298000000000002</v>
+        <v>69.048000000000002</v>
       </c>
       <c r="J3" s="5">
-        <v>0.20717576099179622</v>
+        <v>0.44306118809935435</v>
       </c>
       <c r="K3" s="3">
-        <v>0.85967326409</v>
+        <v>0.75077326409</v>
       </c>
       <c r="L3" s="3">
-        <v>30.684000000000001</v>
+        <v>29.414000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1005,37 +1005,37 @@
         <v>41</v>
       </c>
       <c r="B4" s="4">
-        <v>3.8961740000000002</v>
+        <v>3.9393478200000005</v>
       </c>
       <c r="C4" s="3">
-        <v>18.650000000000002</v>
+        <v>18.661000000000001</v>
       </c>
       <c r="D4" s="3">
-        <v>26.134999999999998</v>
+        <v>30.983999999999995</v>
       </c>
       <c r="E4" s="3">
-        <v>99.49</v>
+        <v>98.789999999999992</v>
       </c>
       <c r="F4" s="6">
-        <v>0.11199999999999999</v>
+        <v>0.10979999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>1.208</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="H4" s="3">
-        <v>0.753</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="I4" s="3">
-        <v>62.789000000000001</v>
+        <v>62.539000000000001</v>
       </c>
       <c r="J4" s="5">
-        <v>0.16651315243102088</v>
+        <v>0.41848976763793333</v>
       </c>
       <c r="K4" s="3">
-        <v>0.86023742049999996</v>
+        <v>0.75133742049999996</v>
       </c>
       <c r="L4" s="3">
-        <v>28.283999999999999</v>
+        <v>27.013999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1043,37 +1043,37 @@
         <v>27</v>
       </c>
       <c r="B5" s="4">
-        <v>3.6334</v>
+        <v>3.6736620000000002</v>
       </c>
       <c r="C5" s="3">
-        <v>17.824999999999999</v>
+        <v>17.835999999999999</v>
       </c>
       <c r="D5" s="3">
-        <v>24.172000000000001</v>
+        <v>29.020999999999997</v>
       </c>
       <c r="E5" s="3">
-        <v>107.45699999999999</v>
+        <v>106.75699999999999</v>
       </c>
       <c r="F5" s="6">
-        <v>0.06</v>
+        <v>5.7799999999999997E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>1.532</v>
+        <v>1.5630000000000002</v>
       </c>
       <c r="H5" s="3">
-        <v>0.63900000000000001</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="I5" s="3">
-        <v>67.067000000000007</v>
+        <v>66.817000000000007</v>
       </c>
       <c r="J5" s="5">
-        <v>0.20134469038333472</v>
+        <v>0.42874988512882617</v>
       </c>
       <c r="K5" s="3">
-        <v>0.86331519999999995</v>
+        <v>0.75441519999999995</v>
       </c>
       <c r="L5" s="3">
-        <v>29.861000000000001</v>
+        <v>28.591000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1081,37 +1081,37 @@
         <v>37</v>
       </c>
       <c r="B6" s="4">
-        <v>3.8964699999999999</v>
+        <v>3.9396470999999997</v>
       </c>
       <c r="C6" s="3">
-        <v>16.93</v>
+        <v>16.940999999999999</v>
       </c>
       <c r="D6" s="3">
-        <v>20.439999999999998</v>
+        <v>25.288999999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>87.652000000000001</v>
+        <v>86.951999999999998</v>
       </c>
       <c r="F6" s="6">
-        <v>4.1999999999999996E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="G6" s="3">
-        <v>1.4829999999999999</v>
+        <v>1.514</v>
       </c>
       <c r="H6" s="3">
-        <v>0.80900000000000005</v>
+        <v>0.81300000000000006</v>
       </c>
       <c r="I6" s="3">
-        <v>64.281000000000006</v>
+        <v>64.031000000000006</v>
       </c>
       <c r="J6" s="5">
-        <v>0.19126188586205517</v>
+        <v>0.42892719809843949</v>
       </c>
       <c r="K6" s="3">
-        <v>0.86167660000000001</v>
+        <v>0.75277660000000002</v>
       </c>
       <c r="L6" s="3">
-        <v>28.803000000000001</v>
+        <v>27.533000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1119,37 +1119,37 @@
         <v>28</v>
       </c>
       <c r="B7" s="4">
-        <v>2.9905620000000002</v>
+        <v>3.0237006599999998</v>
       </c>
       <c r="C7" s="3">
-        <v>16.817</v>
+        <v>16.827999999999999</v>
       </c>
       <c r="D7" s="3">
-        <v>28.097999999999999</v>
+        <v>32.946999999999996</v>
       </c>
       <c r="E7" s="3">
-        <v>100.80799999999999</v>
+        <v>100.108</v>
       </c>
       <c r="F7" s="6">
-        <v>4.4999999999999998E-2</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="G7" s="3">
-        <v>1.6359999999999999</v>
+        <v>1.667</v>
       </c>
       <c r="H7" s="3">
-        <v>0.72</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="I7" s="3">
-        <v>64.622</v>
+        <v>64.372</v>
       </c>
       <c r="J7" s="5">
-        <v>0.19649782854097236</v>
+        <v>0.43434045374696995</v>
       </c>
       <c r="K7" s="3">
-        <v>0.86036988655000002</v>
+        <v>0.75146988655000002</v>
       </c>
       <c r="L7" s="3">
-        <v>28.608000000000001</v>
+        <v>27.338000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1157,37 +1157,37 @@
         <v>34</v>
       </c>
       <c r="B8" s="4">
-        <v>3.2194069999999999</v>
+        <v>3.2550815099999997</v>
       </c>
       <c r="C8" s="3">
-        <v>19.490000000000002</v>
+        <v>19.501000000000001</v>
       </c>
       <c r="D8" s="3">
-        <v>25.253</v>
+        <v>30.101999999999997</v>
       </c>
       <c r="E8" s="3">
-        <v>129.923</v>
+        <v>129.22299999999998</v>
       </c>
       <c r="F8" s="6">
-        <v>4.4999999999999998E-2</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="G8" s="3">
-        <v>1.4339999999999999</v>
+        <v>1.4650000000000001</v>
       </c>
       <c r="H8" s="3">
-        <v>0.80200000000000005</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="I8" s="3">
-        <v>64.822999999999993</v>
+        <v>64.572999999999993</v>
       </c>
       <c r="J8" s="5">
-        <v>0.20133441888356132</v>
+        <v>0.44459029973808939</v>
       </c>
       <c r="K8" s="3">
-        <v>0.86373800000000001</v>
+        <v>0.75483800000000001</v>
       </c>
       <c r="L8" s="3">
-        <v>28.318000000000001</v>
+        <v>27.048000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1195,37 +1195,37 @@
         <v>18</v>
       </c>
       <c r="B9" s="4">
-        <v>3.9992929999999998</v>
+        <v>4.0436094899999997</v>
       </c>
       <c r="C9" s="3">
-        <v>18.003</v>
+        <v>18.013999999999999</v>
       </c>
       <c r="D9" s="3">
-        <v>28.414999999999999</v>
+        <v>33.263999999999996</v>
       </c>
       <c r="E9" s="3">
-        <v>104.78400000000001</v>
+        <v>104.084</v>
       </c>
       <c r="F9" s="6">
-        <v>5.1999999999999998E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="G9" s="3">
-        <v>1.39</v>
+        <v>1.421</v>
       </c>
       <c r="H9" s="3">
-        <v>0.85299999999999998</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="I9" s="3">
-        <v>65.709999999999994</v>
+        <v>65.459999999999994</v>
       </c>
       <c r="J9" s="5">
-        <v>0.18354673900752688</v>
+        <v>0.43705246585317437</v>
       </c>
       <c r="K9" s="3">
-        <v>0.85923404388000002</v>
+        <v>0.75033404388000002</v>
       </c>
       <c r="L9" s="3">
-        <v>29.4</v>
+        <v>28.13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1233,37 +1233,37 @@
         <v>24</v>
       </c>
       <c r="B10" s="4">
-        <v>4.2569610000000004</v>
+        <v>4.3041327300000001</v>
       </c>
       <c r="C10" s="3">
-        <v>19.03</v>
+        <v>19.041</v>
       </c>
       <c r="D10" s="3">
-        <v>22.655000000000001</v>
+        <v>27.503999999999998</v>
       </c>
       <c r="E10" s="3">
-        <v>94.653000000000006</v>
+        <v>93.953000000000003</v>
       </c>
       <c r="F10" s="6">
-        <v>0.11199999999999999</v>
+        <v>0.10979999999999999</v>
       </c>
       <c r="G10" s="3">
-        <v>1.347</v>
+        <v>1.3780000000000001</v>
       </c>
       <c r="H10" s="3">
-        <v>0.75800000000000001</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="I10" s="3">
-        <v>67.492999999999995</v>
+        <v>67.242999999999995</v>
       </c>
       <c r="J10" s="5">
-        <v>0.18385070474464282</v>
+        <v>0.42981859770537534</v>
       </c>
       <c r="K10" s="3">
-        <v>0.85354770000000002</v>
+        <v>0.74464770000000002</v>
       </c>
       <c r="L10" s="3">
-        <v>29.547000000000001</v>
+        <v>28.277000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1271,37 +1271,37 @@
         <v>25</v>
       </c>
       <c r="B11" s="4">
-        <v>3.7442519999999999</v>
+        <v>3.78574236</v>
       </c>
       <c r="C11" s="3">
-        <v>19.859000000000002</v>
+        <v>19.87</v>
       </c>
       <c r="D11" s="3">
-        <v>36.889000000000003</v>
+        <v>41.738</v>
       </c>
       <c r="E11" s="3">
-        <v>118.10299999999999</v>
+        <v>117.40299999999999</v>
       </c>
       <c r="F11" s="6">
-        <v>3.8999999999999993E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>1.363</v>
+        <v>1.3940000000000001</v>
       </c>
       <c r="H11" s="3">
-        <v>0.83099999999999996</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="I11" s="3">
-        <v>67.356999999999999</v>
+        <v>67.106999999999999</v>
       </c>
       <c r="J11" s="5">
-        <v>0.1766375074065771</v>
+        <v>0.41537153221951056</v>
       </c>
       <c r="K11" s="3">
-        <v>0.86525439999999998</v>
+        <v>0.75635439999999998</v>
       </c>
       <c r="L11" s="3">
-        <v>28.675999999999998</v>
+        <v>27.405999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1309,37 +1309,37 @@
         <v>30</v>
       </c>
       <c r="B12" s="4">
-        <v>3.0815820000000005</v>
+        <v>3.1157292600000002</v>
       </c>
       <c r="C12" s="3">
-        <v>17.693999999999999</v>
+        <v>17.704999999999998</v>
       </c>
       <c r="D12" s="3">
-        <v>30.382999999999999</v>
+        <v>35.231999999999999</v>
       </c>
       <c r="E12" s="3">
-        <v>109.592</v>
+        <v>108.892</v>
       </c>
       <c r="F12" s="6">
-        <v>4.5999999999999999E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="G12" s="3">
-        <v>1.304</v>
+        <v>1.3350000000000002</v>
       </c>
       <c r="H12" s="3">
-        <v>0.84899999999999998</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="I12" s="3">
-        <v>62.981999999999999</v>
+        <v>62.731999999999999</v>
       </c>
       <c r="J12" s="5">
-        <v>0.22329874752548756</v>
+        <v>0.44758570685255628</v>
       </c>
       <c r="K12" s="3">
-        <v>0.85995556574800003</v>
+        <v>0.75105556574800003</v>
       </c>
       <c r="L12" s="3">
-        <v>29.206</v>
+        <v>27.936</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1347,37 +1347,37 @@
         <v>21</v>
       </c>
       <c r="B13" s="4">
-        <v>4.0837640000000004</v>
+        <v>4.1290165200000004</v>
       </c>
       <c r="C13" s="3">
-        <v>19.102</v>
+        <v>19.113</v>
       </c>
       <c r="D13" s="3">
-        <v>31.626999999999999</v>
+        <v>36.475999999999999</v>
       </c>
       <c r="E13" s="3">
-        <v>96.122</v>
+        <v>95.421999999999997</v>
       </c>
       <c r="F13" s="6">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="G13" s="3">
-        <v>1.448</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="H13" s="3">
-        <v>0.73099999999999998</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="I13" s="3">
-        <v>66.828999999999994</v>
+        <v>66.578999999999994</v>
       </c>
       <c r="J13" s="5">
-        <v>0.17777352681930988</v>
+        <v>0.43427466077942428</v>
       </c>
       <c r="K13" s="3">
-        <v>0.85912012161999995</v>
+        <v>0.75022012161999996</v>
       </c>
       <c r="L13" s="3">
-        <v>27.753</v>
+        <v>26.483000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1385,37 +1385,37 @@
         <v>43</v>
       </c>
       <c r="B14" s="4">
-        <v>3.3387320000000003</v>
+        <v>3.3757287600000003</v>
       </c>
       <c r="C14" s="3">
-        <v>20.344999999999999</v>
+        <v>20.356000000000002</v>
       </c>
       <c r="D14" s="3">
-        <v>30.98</v>
+        <v>35.828999999999994</v>
       </c>
       <c r="E14" s="3">
-        <v>123.61799999999999</v>
+        <v>122.91799999999999</v>
       </c>
       <c r="F14" s="6">
-        <v>0.106</v>
+        <v>0.1038</v>
       </c>
       <c r="G14" s="3">
-        <v>1.4359999999999999</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="H14" s="3">
-        <v>0.73299999999999998</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="I14" s="3">
-        <v>62.055</v>
+        <v>61.805</v>
       </c>
       <c r="J14" s="5">
-        <v>0.21032973981461439</v>
+        <v>0.45351982770159682</v>
       </c>
       <c r="K14" s="3">
-        <v>0.86302349999999994</v>
+        <v>0.75412349999999995</v>
       </c>
       <c r="L14" s="3">
-        <v>29.495000000000001</v>
+        <v>28.225000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1423,37 +1423,37 @@
         <v>39</v>
       </c>
       <c r="B15" s="4">
-        <v>3.658042</v>
+        <v>3.6985770599999999</v>
       </c>
       <c r="C15" s="3">
-        <v>18.926000000000002</v>
+        <v>18.937000000000001</v>
       </c>
       <c r="D15" s="3">
-        <v>34.374000000000002</v>
+        <v>39.222999999999999</v>
       </c>
       <c r="E15" s="3">
-        <v>94.762</v>
+        <v>94.061999999999998</v>
       </c>
       <c r="F15" s="6">
-        <v>9.2999999999999999E-2</v>
+        <v>9.0799999999999992E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.4949999999999999</v>
+        <v>1.526</v>
       </c>
       <c r="H15" s="3">
-        <v>0.71299999999999997</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="I15" s="3">
-        <v>68.450999999999993</v>
+        <v>68.200999999999993</v>
       </c>
       <c r="J15" s="5">
-        <v>0.17537216508733486</v>
+        <v>0.4378074198964898</v>
       </c>
       <c r="K15" s="3">
-        <v>0.86070075310999994</v>
+        <v>0.75180075310999994</v>
       </c>
       <c r="L15" s="3">
-        <v>30.582999999999998</v>
+        <v>29.312999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1461,37 +1461,37 @@
         <v>31</v>
       </c>
       <c r="B16" s="4">
-        <v>3.6348060000000002</v>
+        <v>3.6750835800000003</v>
       </c>
       <c r="C16" s="3">
-        <v>18.058</v>
+        <v>18.068999999999999</v>
       </c>
       <c r="D16" s="3">
-        <v>34.073</v>
+        <v>38.921999999999997</v>
       </c>
       <c r="E16" s="3">
-        <v>109.24</v>
+        <v>108.53999999999999</v>
       </c>
       <c r="F16" s="6">
-        <v>3.2000000000000001E-2</v>
+        <v>2.9799999999999997E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.5149999999999999</v>
+        <v>1.546</v>
       </c>
       <c r="H16" s="3">
-        <v>0.70199999999999996</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="I16" s="3">
-        <v>61.987000000000002</v>
+        <v>61.737000000000002</v>
       </c>
       <c r="J16" s="5">
-        <v>0.20818691527891905</v>
+        <v>0.45490976228296698</v>
       </c>
       <c r="K16" s="3">
-        <v>0.84854200000000002</v>
+        <v>0.73964200000000002</v>
       </c>
       <c r="L16" s="3">
-        <v>26.962</v>
+        <v>25.692</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1499,37 +1499,37 @@
         <v>26</v>
       </c>
       <c r="B17" s="4">
-        <v>3.9550780000000003</v>
+        <v>3.9989045400000003</v>
       </c>
       <c r="C17" s="3">
-        <v>18.922000000000001</v>
+        <v>18.933</v>
       </c>
       <c r="D17" s="3">
-        <v>30.972000000000001</v>
+        <v>35.820999999999998</v>
       </c>
       <c r="E17" s="3">
-        <v>99.644999999999996</v>
+        <v>98.944999999999993</v>
       </c>
       <c r="F17" s="6">
-        <v>5.2999999999999999E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="G17" s="3">
-        <v>1.452</v>
+        <v>1.4830000000000001</v>
       </c>
       <c r="H17" s="3">
-        <v>0.79500000000000004</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="I17" s="3">
-        <v>62.543999999999997</v>
+        <v>62.293999999999997</v>
       </c>
       <c r="J17" s="5">
-        <v>0.20916427779429331</v>
+        <v>0.47298946718481838</v>
       </c>
       <c r="K17" s="3">
-        <v>0.86251440000000001</v>
+        <v>0.75361440000000002</v>
       </c>
       <c r="L17" s="3">
-        <v>29.082999999999998</v>
+        <v>27.812999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1537,37 +1537,37 @@
         <v>35</v>
       </c>
       <c r="B18" s="4">
-        <v>4.0225660000000003</v>
+        <v>4.0671403800000006</v>
       </c>
       <c r="C18" s="3">
-        <v>18.393000000000001</v>
+        <v>18.404</v>
       </c>
       <c r="D18" s="3">
-        <v>25.404</v>
+        <v>30.252999999999997</v>
       </c>
       <c r="E18" s="3">
-        <v>102.25</v>
+        <v>101.55</v>
       </c>
       <c r="F18" s="6">
-        <v>8.3999999999999991E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="G18" s="3">
-        <v>1.2909999999999999</v>
+        <v>1.3220000000000001</v>
       </c>
       <c r="H18" s="3">
-        <v>0.748</v>
+        <v>0.752</v>
       </c>
       <c r="I18" s="3">
-        <v>62.887</v>
+        <v>62.637</v>
       </c>
       <c r="J18" s="5">
-        <v>0.17984099994381852</v>
+        <v>0.46174589423619505</v>
       </c>
       <c r="K18" s="3">
-        <v>0.86050191573000001</v>
+        <v>0.75160191573000001</v>
       </c>
       <c r="L18" s="3">
-        <v>30.245000000000001</v>
+        <v>28.975000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1575,37 +1575,37 @@
         <v>36</v>
       </c>
       <c r="B19" s="4">
-        <v>3.062157</v>
+        <v>3.09608901</v>
       </c>
       <c r="C19" s="3">
-        <v>17.929000000000002</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="D19" s="3">
-        <v>27.856999999999999</v>
+        <v>32.705999999999996</v>
       </c>
       <c r="E19" s="3">
-        <v>102.452</v>
+        <v>101.752</v>
       </c>
       <c r="F19" s="6">
-        <v>2.4999999999999994E-2</v>
+        <v>2.2799999999999994E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.63</v>
+        <v>1.661</v>
       </c>
       <c r="H19" s="3">
-        <v>0.71199999999999997</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="I19" s="3">
-        <v>66.741</v>
+        <v>66.491</v>
       </c>
       <c r="J19" s="5">
-        <v>0.18078031591255619</v>
+        <v>0.45144163725630937</v>
       </c>
       <c r="K19" s="3">
-        <v>0.86172989999999994</v>
+        <v>0.75282989999999994</v>
       </c>
       <c r="L19" s="3">
-        <v>28.137</v>
+        <v>26.867000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1613,37 +1613,37 @@
         <v>32</v>
       </c>
       <c r="B20" s="4">
-        <v>3.7140600000000004</v>
+        <v>3.7552158000000002</v>
       </c>
       <c r="C20" s="3">
-        <v>19.571000000000002</v>
+        <v>19.582000000000001</v>
       </c>
       <c r="D20" s="3">
-        <v>30.026</v>
+        <v>34.875</v>
       </c>
       <c r="E20" s="3">
-        <v>103.32299999999999</v>
+        <v>102.62299999999999</v>
       </c>
       <c r="F20" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2799999999999995E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>1.427</v>
+        <v>1.4580000000000002</v>
       </c>
       <c r="H20" s="3">
-        <v>0.753</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="I20" s="3">
-        <v>68.718000000000004</v>
+        <v>68.468000000000004</v>
       </c>
       <c r="J20" s="5">
-        <v>0.19870822339220931</v>
+        <v>0.4590652877560768</v>
       </c>
       <c r="K20" s="3">
-        <v>0.85820160000000001</v>
+        <v>0.74930160000000001</v>
       </c>
       <c r="L20" s="3">
-        <v>29.940999999999999</v>
+        <v>28.670999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1651,37 +1651,37 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>3.8608020000000005</v>
+        <v>3.9035838600000003</v>
       </c>
       <c r="C21" s="3">
-        <v>18.185000000000002</v>
+        <v>18.196000000000002</v>
       </c>
       <c r="D21" s="3">
-        <v>29.137</v>
+        <v>33.985999999999997</v>
       </c>
       <c r="E21" s="3">
-        <v>97.89</v>
+        <v>97.19</v>
       </c>
       <c r="F21" s="6">
-        <v>5.1999999999999998E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>1.4689999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H21" s="3">
-        <v>0.74399999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="I21" s="3">
-        <v>67.721999999999994</v>
+        <v>67.471999999999994</v>
       </c>
       <c r="J21" s="5">
-        <v>0.20434987783865849</v>
+        <v>0.47233059270229338</v>
       </c>
       <c r="K21" s="3">
-        <v>0.85917387307000004</v>
+        <v>0.75027387307000004</v>
       </c>
       <c r="L21" s="3">
-        <v>30.795000000000002</v>
+        <v>29.524999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1689,37 +1689,37 @@
         <v>19</v>
       </c>
       <c r="B22" s="4">
-        <v>3.9766490000000001</v>
+        <v>4.02071457</v>
       </c>
       <c r="C22" s="3">
-        <v>17.874000000000002</v>
+        <v>17.885000000000002</v>
       </c>
       <c r="D22" s="3">
-        <v>29.167000000000002</v>
+        <v>34.015999999999998</v>
       </c>
       <c r="E22" s="3">
-        <v>110.07599999999999</v>
+        <v>109.37599999999999</v>
       </c>
       <c r="F22" s="6">
-        <v>3.3000000000000002E-2</v>
+        <v>3.0799999999999998E-2</v>
       </c>
       <c r="G22" s="3">
-        <v>1.246</v>
+        <v>1.2770000000000001</v>
       </c>
       <c r="H22" s="3">
-        <v>0.84299999999999997</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="I22" s="3">
-        <v>63.435000000000002</v>
+        <v>63.185000000000002</v>
       </c>
       <c r="J22" s="5">
-        <v>0.1811126962170955</v>
+        <v>0.462358716026947</v>
       </c>
       <c r="K22" s="3">
-        <v>0.8542381</v>
+        <v>0.7453381</v>
       </c>
       <c r="L22" s="3">
-        <v>27.884</v>
+        <v>26.614000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1727,37 +1727,37 @@
         <v>44</v>
       </c>
       <c r="B23" s="4">
-        <v>4.1065560000000003</v>
+        <v>4.1520610800000002</v>
       </c>
       <c r="C23" s="3">
-        <v>19.022000000000002</v>
+        <v>19.033000000000001</v>
       </c>
       <c r="D23" s="3">
-        <v>33.619</v>
+        <v>38.467999999999996</v>
       </c>
       <c r="E23" s="3">
-        <v>103.976</v>
+        <v>103.276</v>
       </c>
       <c r="F23" s="6">
-        <v>4.9999999999999975E-3</v>
+        <v>2.7999999999999969E-3</v>
       </c>
       <c r="G23" s="3">
-        <v>1.3220000000000001</v>
+        <v>1.3530000000000002</v>
       </c>
       <c r="H23" s="3">
-        <v>0.65700000000000003</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="I23" s="3">
-        <v>62.113</v>
+        <v>61.863</v>
       </c>
       <c r="J23" s="5">
-        <v>0.20897759486519993</v>
+        <v>0.48025173799970505</v>
       </c>
       <c r="K23" s="3">
-        <v>0.85289530000000002</v>
+        <v>0.74399530000000003</v>
       </c>
       <c r="L23" s="3">
-        <v>28.097000000000001</v>
+        <v>26.827000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1765,37 +1765,37 @@
         <v>29</v>
       </c>
       <c r="B24" s="4">
-        <v>3.4382619999999999</v>
+        <v>3.4763616599999998</v>
       </c>
       <c r="C24" s="3">
-        <v>18.201000000000001</v>
+        <v>18.212</v>
       </c>
       <c r="D24" s="3">
-        <v>40.085000000000001</v>
+        <v>44.933999999999997</v>
       </c>
       <c r="E24" s="3">
-        <v>108.437</v>
+        <v>107.73699999999999</v>
       </c>
       <c r="F24" s="6">
-        <v>4.1999999999999996E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>1.4869999999999999</v>
+        <v>1.518</v>
       </c>
       <c r="H24" s="3">
-        <v>0.73799999999999999</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="I24" s="3">
-        <v>66.564999999999998</v>
+        <v>66.314999999999998</v>
       </c>
       <c r="J24" s="5">
-        <v>0.2021740806318168</v>
+        <v>0.49134124573908</v>
       </c>
       <c r="K24" s="3">
-        <v>0.86541139999999994</v>
+        <v>0.75651139999999995</v>
       </c>
       <c r="L24" s="3">
-        <v>29.506</v>
+        <v>28.236000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1803,37 +1803,37 @@
         <v>40</v>
       </c>
       <c r="B25" s="4">
-        <v>3.4964260000000005</v>
+        <v>3.5351701800000002</v>
       </c>
       <c r="C25" s="3">
-        <v>19.824999999999999</v>
+        <v>19.835999999999999</v>
       </c>
       <c r="D25" s="3">
-        <v>34.143000000000001</v>
+        <v>38.991999999999997</v>
       </c>
       <c r="E25" s="3">
-        <v>108.52200000000001</v>
+        <v>107.822</v>
       </c>
       <c r="F25" s="6">
-        <v>6.3E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>1.3579999999999999</v>
+        <v>1.389</v>
       </c>
       <c r="H25" s="3">
-        <v>0.79</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="I25" s="3">
-        <v>68.614000000000004</v>
+        <v>68.364000000000004</v>
       </c>
       <c r="J25" s="5">
-        <v>0.17329727833583053</v>
+        <v>0.47355395118246868</v>
       </c>
       <c r="K25" s="3">
-        <v>0.86075600448</v>
+        <v>0.75185600448000001</v>
       </c>
       <c r="L25" s="3">
-        <v>30.623999999999999</v>
+        <v>29.353999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1841,37 +1841,37 @@
         <v>33</v>
       </c>
       <c r="B26" s="4">
-        <v>3.3136830000000002</v>
+        <v>3.3504021900000001</v>
       </c>
       <c r="C26" s="3">
-        <v>18.646000000000001</v>
+        <v>18.657</v>
       </c>
       <c r="D26" s="3">
-        <v>25.462</v>
+        <v>30.310999999999996</v>
       </c>
       <c r="E26" s="3">
-        <v>121.843</v>
+        <v>121.143</v>
       </c>
       <c r="F26" s="6">
-        <v>0.11799999999999999</v>
+        <v>0.1158</v>
       </c>
       <c r="G26" s="3">
-        <v>1.55</v>
+        <v>1.5810000000000002</v>
       </c>
       <c r="H26" s="3">
-        <v>0.80100000000000005</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="I26" s="3">
-        <v>63.942</v>
+        <v>63.692</v>
       </c>
       <c r="J26" s="5">
-        <v>0.19523232984616015</v>
+        <v>0.47770170813618695</v>
       </c>
       <c r="K26" s="3">
-        <v>0.86626340000000002</v>
+        <v>0.75736340000000002</v>
       </c>
       <c r="L26" s="3">
-        <v>28.492000000000001</v>
+        <v>27.222000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1879,37 +1879,37 @@
         <v>42</v>
       </c>
       <c r="B27" s="4">
-        <v>3.9797200000000008</v>
+        <v>4.0238196000000004</v>
       </c>
       <c r="C27" s="3">
-        <v>19.164000000000001</v>
+        <v>19.175000000000001</v>
       </c>
       <c r="D27" s="3">
-        <v>33.965000000000003</v>
+        <v>38.813999999999993</v>
       </c>
       <c r="E27" s="3">
-        <v>108.069</v>
+        <v>107.369</v>
       </c>
       <c r="F27" s="6">
-        <v>4.8000000000000001E-2</v>
+        <v>4.5799999999999993E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>1.5859999999999999</v>
+        <v>1.617</v>
       </c>
       <c r="H27" s="3">
-        <v>0.70199999999999996</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="I27" s="3">
-        <v>63.524999999999999</v>
+        <v>63.274999999999999</v>
       </c>
       <c r="J27" s="5">
-        <v>0.17490840809428312</v>
+        <v>0.4615255433380282</v>
       </c>
       <c r="K27" s="3">
-        <v>0.85987838213000001</v>
+        <v>0.75097838213000001</v>
       </c>
       <c r="L27" s="3">
-        <v>27.768000000000001</v>
+        <v>26.498000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1917,37 +1917,37 @@
         <v>38</v>
       </c>
       <c r="B28" s="4">
-        <v>3.7424390000000005</v>
+        <v>3.7839092700000005</v>
       </c>
       <c r="C28" s="3">
-        <v>18.309000000000001</v>
+        <v>18.32</v>
       </c>
       <c r="D28" s="3">
-        <v>31.041</v>
+        <v>35.889999999999993</v>
       </c>
       <c r="E28" s="3">
-        <v>97.432999999999993</v>
+        <v>96.733000000000004</v>
       </c>
       <c r="F28" s="6">
-        <v>0.14000000000000001</v>
+        <v>0.13780000000000001</v>
       </c>
       <c r="G28" s="3">
-        <v>1.323</v>
+        <v>1.3540000000000001</v>
       </c>
       <c r="H28" s="3">
-        <v>0.80900000000000005</v>
+        <v>0.81300000000000006</v>
       </c>
       <c r="I28" s="3">
-        <v>63.149000000000001</v>
+        <v>62.899000000000001</v>
       </c>
       <c r="J28" s="5">
-        <v>0.19834505547699571</v>
+        <v>0.46878602592258201</v>
       </c>
       <c r="K28" s="3">
-        <v>0.86286770000000002</v>
+        <v>0.75396770000000002</v>
       </c>
       <c r="L28" s="3">
-        <v>28.393999999999998</v>
+        <v>27.123999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1955,37 +1955,37 @@
         <v>23</v>
       </c>
       <c r="B29" s="4">
-        <v>3.5265439999999999</v>
+        <v>3.5656219199999999</v>
       </c>
       <c r="C29" s="3">
-        <v>19.027000000000001</v>
+        <v>19.038</v>
       </c>
       <c r="D29" s="3">
-        <v>33.025999999999996</v>
+        <v>37.875</v>
       </c>
       <c r="E29" s="3">
-        <v>109.419</v>
+        <v>108.71899999999999</v>
       </c>
       <c r="F29" s="6">
-        <v>1.1999999999999997E-2</v>
+        <v>9.7999999999999962E-3</v>
       </c>
       <c r="G29" s="3">
-        <v>1.645</v>
+        <v>1.6760000000000002</v>
       </c>
       <c r="H29" s="3">
-        <v>0.83599999999999997</v>
+        <v>0.84</v>
       </c>
       <c r="I29" s="3">
-        <v>64.566999999999993</v>
+        <v>64.316999999999993</v>
       </c>
       <c r="J29" s="5">
-        <v>0.17410906380552105</v>
+        <v>0.4518105168356612</v>
       </c>
       <c r="K29" s="3">
-        <v>0.85872369999999998</v>
+        <v>0.74982369999999998</v>
       </c>
       <c r="L29" s="3">
-        <v>28.824000000000002</v>
+        <v>27.554000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1993,37 +1993,37 @@
         <v>17</v>
       </c>
       <c r="B30" s="4">
-        <v>3.8459279999999998</v>
+        <v>3.8885450399999999</v>
       </c>
       <c r="C30" s="3">
-        <v>19.129000000000001</v>
+        <v>19.14</v>
       </c>
       <c r="D30" s="3">
-        <v>30.106999999999999</v>
+        <v>34.955999999999996</v>
       </c>
       <c r="E30" s="3">
-        <v>94.926000000000002</v>
+        <v>94.225999999999999</v>
       </c>
       <c r="F30" s="6">
-        <v>0.06</v>
+        <v>5.7799999999999997E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>1.3859999999999999</v>
+        <v>1.417</v>
       </c>
       <c r="H30" s="3">
-        <v>0.77100000000000002</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="I30" s="3">
-        <v>61.889000000000003</v>
+        <v>61.639000000000003</v>
       </c>
       <c r="J30" s="5">
-        <v>0.16972152454056619</v>
+        <v>0.43044746848378551</v>
       </c>
       <c r="K30" s="3">
-        <v>0.86166719999999997</v>
+        <v>0.75276719999999997</v>
       </c>
       <c r="L30" s="3">
-        <v>28.51</v>
+        <v>27.240000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2031,37 +2031,37 @@
         <v>16</v>
       </c>
       <c r="B31" s="4">
-        <v>3.6946720000000002</v>
+        <v>3.7356129600000001</v>
       </c>
       <c r="C31" s="3">
-        <v>19.193000000000001</v>
+        <v>19.204000000000001</v>
       </c>
       <c r="D31" s="3">
-        <v>29.036000000000001</v>
+        <v>33.884999999999998</v>
       </c>
       <c r="E31" s="3">
-        <v>109.30500000000001</v>
+        <v>108.605</v>
       </c>
       <c r="F31" s="6">
-        <v>4.2999999999999997E-2</v>
+        <v>4.0799999999999996E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>1.74</v>
+        <v>1.7710000000000001</v>
       </c>
       <c r="H31" s="3">
-        <v>0.67400000000000004</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="I31" s="3">
-        <v>62.846000000000004</v>
+        <v>62.596000000000004</v>
       </c>
       <c r="J31" s="5">
-        <v>0.18760710440865561</v>
+        <v>0.42696999999999924</v>
       </c>
       <c r="K31" s="3">
-        <v>0.85495100000000002</v>
+        <v>0.74605100000000002</v>
       </c>
       <c r="L31" s="3">
-        <v>28.521000000000001</v>
+        <v>27.251000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2076,12 +2076,12 @@
   </sheetPr>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B3" sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="B3" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,10 +2166,10 @@
         <v>27</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>8.219178082191781E-5</v>
       </c>
       <c r="M2" s="1">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2180,13 +2180,13 @@
         <v>4.3096127999999991</v>
       </c>
       <c r="C3" s="2">
-        <v>22.833478723404255</v>
+        <v>22.831003136462709</v>
       </c>
       <c r="D3" s="2">
-        <v>44.723530000000011</v>
+        <v>44.080197423168535</v>
       </c>
       <c r="E3" s="3">
-        <v>50253262.46974574</v>
+        <v>50213752.081050105</v>
       </c>
       <c r="F3">
         <v>1.7229718199999999</v>
@@ -2204,13 +2204,13 @@
         <v>0.04</v>
       </c>
       <c r="K3" s="4">
-        <v>28.607576099179621</v>
+        <v>28.609118809935435</v>
       </c>
       <c r="L3" s="3">
-        <v>0</v>
+        <v>8.2227550617654902E-5</v>
       </c>
       <c r="M3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2221,13 +2221,13 @@
         <v>4.0646572000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>18.451595744680855</v>
+        <v>18.451682526181493</v>
       </c>
       <c r="D4" s="2">
-        <v>34.933783333333331</v>
+        <v>35.652627048121893</v>
       </c>
       <c r="E4" s="3">
-        <v>60729721.580058306</v>
+        <v>60756149.407834806</v>
       </c>
       <c r="F4">
         <v>1.7229718199999999</v>
@@ -2245,13 +2245,13 @@
         <v>0.04</v>
       </c>
       <c r="K4" s="4">
-        <v>24.54131524310209</v>
+        <v>26.151976763793332</v>
       </c>
       <c r="L4" s="3">
-        <v>0</v>
+        <v>8.2165808451626916E-5</v>
       </c>
       <c r="M4">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2262,13 +2262,13 @@
         <v>3.7905199999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>17.635372340425533</v>
+        <v>17.635936420179682</v>
       </c>
       <c r="D5" s="2">
-        <v>32.309906666666663</v>
+        <v>33.393844873597523</v>
       </c>
       <c r="E5" s="3">
-        <v>56227142.019598536</v>
+        <v>56222074.430716492</v>
       </c>
       <c r="F5">
         <v>1.7229718199999999</v>
@@ -2286,13 +2286,13 @@
         <v>0.04</v>
       </c>
       <c r="K5" s="4">
-        <v>28.024469038333471</v>
+        <v>27.177988512882614</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>8.1830597495043141E-5</v>
       </c>
       <c r="M5">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2303,13 +2303,13 @@
         <v>4.0649659999999992</v>
       </c>
       <c r="C6" s="2">
-        <v>16.749893617021275</v>
+        <v>16.750975493062569</v>
       </c>
       <c r="D6" s="2">
-        <v>27.321466666666662</v>
+        <v>29.099512181124279</v>
       </c>
       <c r="E6" s="3">
-        <v>68931684.388262674</v>
+        <v>69027739.442451</v>
       </c>
       <c r="F6">
         <v>1.7229718199999999</v>
@@ -2327,13 +2327,13 @@
         <v>0.04</v>
       </c>
       <c r="K6" s="4">
-        <v>27.016188586205519</v>
+        <v>27.195719809843947</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>8.2008721545465769E-5</v>
       </c>
       <c r="M6">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2344,13 +2344,13 @@
         <v>3.1198835999999996</v>
       </c>
       <c r="C7" s="2">
-        <v>16.63809574468085</v>
+        <v>16.639242996119293</v>
       </c>
       <c r="D7" s="2">
-        <v>37.557659999999998</v>
+        <v>37.911409222646277</v>
       </c>
       <c r="E7" s="3">
-        <v>59935719.387350217</v>
+        <v>59956247.252966784</v>
       </c>
       <c r="F7">
         <v>1.7229718199999999</v>
@@ -2368,13 +2368,13 @@
         <v>0.04</v>
       </c>
       <c r="K7" s="4">
-        <v>27.539782854097236</v>
+        <v>27.737045374696994</v>
       </c>
       <c r="L7" s="3">
-        <v>0</v>
+        <v>8.2151324597668887E-5</v>
       </c>
       <c r="M7">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2385,13 +2385,13 @@
         <v>3.3586245999999997</v>
       </c>
       <c r="C8" s="2">
-        <v>19.282659574468088</v>
+        <v>19.282260379565152</v>
       </c>
       <c r="D8" s="2">
-        <v>33.754843333333334</v>
+        <v>34.637728485752817</v>
       </c>
       <c r="E8" s="3">
-        <v>46504468.031064555</v>
+        <v>46447613.814878158</v>
       </c>
       <c r="F8">
         <v>1.7229718199999999</v>
@@ -2409,13 +2409,13 @@
         <v>0.04</v>
       </c>
       <c r="K8" s="4">
-        <v>28.023441888356132</v>
+        <v>28.762029973808936</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>8.1784762525657771E-5</v>
       </c>
       <c r="M8">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2426,13 +2426,13 @@
         <v>4.1722353999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>17.811478723404257</v>
+        <v>17.811939822444316</v>
       </c>
       <c r="D9" s="2">
-        <v>37.981383333333333</v>
+        <v>38.276174352205231</v>
       </c>
       <c r="E9" s="3">
-        <v>57661475.034356393</v>
+        <v>57665923.677030079</v>
       </c>
       <c r="F9">
         <v>1.7229718199999999</v>
@@ -2450,13 +2450,13 @@
         <v>0.04</v>
       </c>
       <c r="K9" s="4">
-        <v>26.244673900752687</v>
+        <v>28.008246585317433</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>8.2275683848906573E-5</v>
       </c>
       <c r="M9">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2467,13 +2467,13 @@
         <v>4.4410458000000004</v>
       </c>
       <c r="C10" s="2">
-        <v>18.827553191489365</v>
+        <v>18.827420126521716</v>
       </c>
       <c r="D10" s="2">
-        <v>30.282183333333332</v>
+        <v>31.648265373468394</v>
       </c>
       <c r="E10" s="3">
-        <v>63833159.012392625</v>
+        <v>63884069.694421679</v>
       </c>
       <c r="F10">
         <v>1.7229718199999999</v>
@@ -2491,13 +2491,13 @@
         <v>0.04</v>
       </c>
       <c r="K10" s="4">
-        <v>26.275070474464282</v>
+        <v>27.284859770537533</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>8.2903964620239157E-5</v>
       </c>
       <c r="M10">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2508,13 +2508,13 @@
         <v>3.9061655999999996</v>
       </c>
       <c r="C11" s="2">
-        <v>19.647734042553196</v>
+        <v>19.647121365158686</v>
       </c>
       <c r="D11" s="2">
-        <v>49.308296666666671</v>
+        <v>48.027025165714946</v>
       </c>
       <c r="E11" s="3">
-        <v>51158734.32512299</v>
+        <v>51123906.544125788</v>
       </c>
       <c r="F11">
         <v>1.7229718199999999</v>
@@ -2532,13 +2532,13 @@
         <v>0.04</v>
       </c>
       <c r="K11" s="4">
-        <v>25.553750740657712</v>
+        <v>25.840153221951056</v>
       </c>
       <c r="L11" s="3">
-        <v>0</v>
+        <v>8.1620793870363511E-5</v>
       </c>
       <c r="M11">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2549,13 +2549,13 @@
         <v>3.2148395999999999</v>
       </c>
       <c r="C12" s="2">
-        <v>17.505765957446808</v>
+        <v>17.506405826378181</v>
       </c>
       <c r="D12" s="2">
-        <v>40.611943333333329</v>
+        <v>40.540709919940312</v>
       </c>
       <c r="E12" s="3">
-        <v>55131761.442441054</v>
+        <v>55119751.680564225</v>
       </c>
       <c r="F12">
         <v>1.7229718199999999</v>
@@ -2573,13 +2573,13 @@
         <v>0.04</v>
       </c>
       <c r="K12" s="4">
-        <v>30.219874752548758</v>
+        <v>29.061570685255624</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>8.2196643485171937E-5</v>
       </c>
       <c r="M12">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2590,13 +2590,13 @@
         <v>4.2603591999999999</v>
       </c>
       <c r="C13" s="2">
-        <v>18.898787234042555</v>
+        <v>18.898612513954603</v>
       </c>
       <c r="D13" s="2">
-        <v>42.274756666666669</v>
+        <v>41.972154150764737</v>
       </c>
       <c r="E13" s="3">
-        <v>62857618.443228394</v>
+        <v>62900588.962713003</v>
       </c>
       <c r="F13">
         <v>1.7229718199999999</v>
@@ -2614,13 +2614,13 @@
         <v>0.04</v>
       </c>
       <c r="K13" s="4">
-        <v>25.667352681930989</v>
+        <v>27.730466077942427</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
+        <v>8.2288177557855458E-5</v>
       </c>
       <c r="M13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2631,13 +2631,13 @@
         <v>3.4831096000000001</v>
       </c>
       <c r="C14" s="2">
-        <v>20.128563829787236</v>
+        <v>20.127669980330658</v>
       </c>
       <c r="D14" s="2">
-        <v>41.409933333333335</v>
+        <v>41.227665069298979</v>
       </c>
       <c r="E14" s="3">
-        <v>48876377.226617485</v>
+        <v>48830114.385199897</v>
       </c>
       <c r="F14">
         <v>1.7229718199999999</v>
@@ -2655,13 +2655,13 @@
         <v>0.04</v>
       </c>
       <c r="K14" s="4">
-        <v>28.922973981461439</v>
+        <v>29.65498277015968</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>8.1862250115985604E-5</v>
       </c>
       <c r="M14">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2672,13 +2672,13 @@
         <v>3.8162275999999999</v>
       </c>
       <c r="C15" s="2">
-        <v>18.724659574468085</v>
+        <v>18.724586678007551</v>
       </c>
       <c r="D15" s="2">
-        <v>45.946580000000004</v>
+        <v>45.13306838072829</v>
       </c>
       <c r="E15" s="3">
-        <v>63759734.914839275</v>
+        <v>63810040.186260127</v>
       </c>
       <c r="F15">
         <v>1.7229718199999999</v>
@@ -2696,13 +2696,13 @@
         <v>0.04</v>
       </c>
       <c r="K15" s="4">
-        <v>25.427216508733487</v>
+        <v>28.083741989648978</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>8.2115169903680327E-5</v>
       </c>
       <c r="M15">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2713,13 +2713,13 @@
         <v>3.7919868000000001</v>
       </c>
       <c r="C16" s="2">
-        <v>17.865893617021278</v>
+        <v>17.866322896177767</v>
       </c>
       <c r="D16" s="2">
-        <v>45.544243333333334</v>
+        <v>44.786714109443601</v>
       </c>
       <c r="E16" s="3">
-        <v>55309410.472354449</v>
+        <v>55298507.462686568</v>
       </c>
       <c r="F16">
         <v>1.7229718199999999</v>
@@ -2737,13 +2737,13 @@
         <v>0.04</v>
       </c>
       <c r="K16" s="4">
-        <v>28.708691527891908</v>
+        <v>29.793976228296696</v>
       </c>
       <c r="L16" s="3">
-        <v>0</v>
+        <v>8.3465036565449861E-5</v>
       </c>
       <c r="M16">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2754,13 +2754,13 @@
         <v>4.1261083999999997</v>
       </c>
       <c r="C17" s="2">
-        <v>18.720702127659575</v>
+        <v>18.720631545372392</v>
       </c>
       <c r="D17" s="2">
-        <v>41.399239999999999</v>
+        <v>41.218459640161846</v>
       </c>
       <c r="E17" s="3">
-        <v>60635255.155803107</v>
+        <v>60660973.267977163</v>
       </c>
       <c r="F17">
         <v>1.7229718199999999</v>
@@ -2778,13 +2778,13 @@
         <v>0.04</v>
       </c>
       <c r="K17" s="4">
-        <v>28.806427779429331</v>
+        <v>31.601946718481837</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>8.1917551701961197E-5</v>
       </c>
       <c r="M17">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2795,13 +2795,13 @@
         <v>4.1965148000000001</v>
       </c>
       <c r="C18" s="2">
-        <v>18.197329787234043</v>
+        <v>18.197565254372442</v>
       </c>
       <c r="D18" s="2">
-        <v>33.956679999999999</v>
+        <v>34.811480960716231</v>
       </c>
       <c r="E18" s="3">
-        <v>59090464.547677256</v>
+        <v>59104874.446085669</v>
       </c>
       <c r="F18">
         <v>1.7229718199999999</v>
@@ -2819,13 +2819,13 @@
         <v>0.04</v>
       </c>
       <c r="K18" s="4">
-        <v>25.874099994381854</v>
+        <v>30.477589423619506</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>8.2136893591313603E-5</v>
       </c>
       <c r="M18">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2836,13 +2836,13 @@
         <v>3.1945745999999997</v>
       </c>
       <c r="C19" s="2">
-        <v>17.73826595744681</v>
+        <v>17.738769868693851</v>
       </c>
       <c r="D19" s="2">
-        <v>37.235523333333333</v>
+        <v>37.634095669890101</v>
       </c>
       <c r="E19" s="3">
-        <v>58973958.536680587</v>
+        <v>58987538.328484945</v>
       </c>
       <c r="F19">
         <v>1.7229718199999999</v>
@@ -2860,13 +2860,13 @@
         <v>0.04</v>
       </c>
       <c r="K19" s="4">
-        <v>25.96803159125562</v>
+        <v>29.447163725630936</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>8.200291536686105E-5</v>
       </c>
       <c r="M19">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2877,13 +2877,13 @@
         <v>3.8746679999999998</v>
       </c>
       <c r="C20" s="2">
-        <v>19.362797872340426</v>
+        <v>19.362351815427147</v>
       </c>
       <c r="D20" s="2">
-        <v>40.134753333333329</v>
+        <v>40.129917644695688</v>
       </c>
       <c r="E20" s="3">
-        <v>58476815.423477843</v>
+        <v>58486888.904046856</v>
       </c>
       <c r="F20">
         <v>1.7229718199999999</v>
@@ -2901,13 +2901,13 @@
         <v>0.04</v>
       </c>
       <c r="K20" s="4">
-        <v>27.760822339220933</v>
+        <v>30.20952877560768</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>8.2389049449971109E-5</v>
       </c>
       <c r="M20">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2918,13 +2918,13 @@
         <v>4.0277555999999999</v>
       </c>
       <c r="C21" s="2">
-        <v>17.99154255319149</v>
+        <v>17.991898357344112</v>
       </c>
       <c r="D21" s="2">
-        <v>38.94645666666667</v>
+        <v>39.10696433183162</v>
       </c>
       <c r="E21" s="3">
-        <v>61722341.403616309</v>
+        <v>61756353.53431423</v>
       </c>
       <c r="F21">
         <v>1.7229718199999999</v>
@@ -2942,13 +2942,13 @@
         <v>0.04</v>
       </c>
       <c r="K21" s="4">
-        <v>28.324987783865851</v>
+        <v>31.536059270229337</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>8.2282282232134591E-5</v>
       </c>
       <c r="M21">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2959,13 +2959,13 @@
         <v>4.1486121999999996</v>
       </c>
       <c r="C22" s="2">
-        <v>17.683851063829788</v>
+        <v>17.6843867949604</v>
       </c>
       <c r="D22" s="2">
-        <v>38.986556666666672</v>
+        <v>39.141484691095869</v>
       </c>
       <c r="E22" s="3">
-        <v>54889349.176932305</v>
+        <v>54875841.135166764</v>
       </c>
       <c r="F22">
         <v>1.7229718199999999</v>
@@ -2983,13 +2983,13 @@
         <v>0.04</v>
       </c>
       <c r="K22" s="4">
-        <v>26.00126962170955</v>
+        <v>30.538871602694698</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>8.2827171421053701E-5</v>
       </c>
       <c r="M22">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3000,13 +3000,13 @@
         <v>4.2841367999999997</v>
       </c>
       <c r="C23" s="2">
-        <v>18.819638297872341</v>
+        <v>18.819509861251397</v>
       </c>
       <c r="D23" s="2">
-        <v>44.937396666666672</v>
+        <v>44.264306005911223</v>
       </c>
       <c r="E23" s="3">
-        <v>58109563.745479733</v>
+        <v>58117084.317750491</v>
       </c>
       <c r="F23">
         <v>1.7229718199999999</v>
@@ -3024,13 +3024,13 @@
         <v>0.04</v>
       </c>
       <c r="K23" s="4">
-        <v>28.787759486519995</v>
+        <v>32.3281737999705</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>8.2976662050610365E-5</v>
       </c>
       <c r="M23">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3041,13 +3041,13 @@
         <v>3.5869435999999997</v>
       </c>
       <c r="C24" s="2">
-        <v>18.007372340425533</v>
+        <v>18.007718887884749</v>
       </c>
       <c r="D24" s="2">
-        <v>53.580283333333341</v>
+        <v>51.704594106000179</v>
       </c>
       <c r="E24" s="3">
-        <v>55718988.906000718</v>
+        <v>55710665.787983701</v>
       </c>
       <c r="F24">
         <v>1.7229718199999999</v>
@@ -3065,13 +3065,13 @@
         <v>0.04</v>
       </c>
       <c r="K24" s="4">
-        <v>28.10740806318168</v>
+        <v>33.437124573908001</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>8.1603854978712121E-5</v>
       </c>
       <c r="M24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3082,13 +3082,13 @@
         <v>3.6476228000000002</v>
       </c>
       <c r="C25" s="2">
-        <v>19.614095744680849</v>
+        <v>19.61350273775982</v>
       </c>
       <c r="D25" s="2">
-        <v>45.637810000000009</v>
+        <v>44.867261614393534</v>
       </c>
       <c r="E25" s="3">
-        <v>55675346.934262179</v>
+        <v>55666747.046057388</v>
       </c>
       <c r="F25">
         <v>1.7229718199999999</v>
@@ -3106,13 +3106,13 @@
         <v>0.04</v>
       </c>
       <c r="K25" s="4">
-        <v>25.219727833583054</v>
+        <v>31.658395118246865</v>
       </c>
       <c r="L25" s="3">
-        <v>0</v>
+        <v>8.2109135535918503E-5</v>
       </c>
       <c r="M25">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3123,13 +3123,13 @@
         <v>3.4569774</v>
       </c>
       <c r="C26" s="2">
-        <v>18.447638297872341</v>
+        <v>18.44772739354633</v>
       </c>
       <c r="D26" s="2">
-        <v>34.03420666666667</v>
+        <v>34.878220321960455</v>
       </c>
       <c r="E26" s="3">
-        <v>49588404.750375479</v>
+        <v>49545578.366063245</v>
       </c>
       <c r="F26">
         <v>1.7229718199999999</v>
@@ -3147,13 +3147,13 @@
         <v>0.04</v>
       </c>
       <c r="K26" s="4">
-        <v>27.413232984616016</v>
+        <v>32.073170813618695</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>8.1512054286413189E-5</v>
       </c>
       <c r="M26">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3164,13 +3164,13 @@
         <v>4.1518160000000002</v>
       </c>
       <c r="C27" s="2">
-        <v>18.960127659574468</v>
+        <v>18.959917069799591</v>
       </c>
       <c r="D27" s="2">
-        <v>45.399883333333342</v>
+        <v>44.662440816092278</v>
       </c>
       <c r="E27" s="3">
-        <v>55908724.981261969</v>
+        <v>55901610.334454075</v>
       </c>
       <c r="F27">
         <v>1.7229718199999999</v>
@@ -3188,13 +3188,13 @@
         <v>0.04</v>
       </c>
       <c r="K27" s="4">
-        <v>25.380840809428314</v>
+        <v>30.455554333802819</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>8.2205091443838385E-5</v>
       </c>
       <c r="M27">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3205,13 +3205,13 @@
         <v>3.9042742000000001</v>
       </c>
       <c r="C28" s="2">
-        <v>18.11422340425532</v>
+        <v>18.114507469034077</v>
       </c>
       <c r="D28" s="2">
-        <v>41.49147</v>
+        <v>41.297856466469625</v>
       </c>
       <c r="E28" s="3">
-        <v>62011844.03641478</v>
+        <v>62048111.812928371</v>
       </c>
       <c r="F28">
         <v>1.7229718199999999</v>
@@ -3229,13 +3229,13 @@
         <v>0.04</v>
       </c>
       <c r="K28" s="4">
-        <v>27.724505547699572</v>
+        <v>31.181602592258198</v>
       </c>
       <c r="L28" s="3">
-        <v>0</v>
+        <v>8.1879166143778402E-5</v>
       </c>
       <c r="M28">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3246,13 +3246,13 @@
         <v>3.6790431999999997</v>
       </c>
       <c r="C29" s="2">
-        <v>18.82458510638298</v>
+        <v>18.824453777045349</v>
       </c>
       <c r="D29" s="2">
-        <v>44.144753333333327</v>
+        <v>43.581953571121126</v>
       </c>
       <c r="E29" s="3">
-        <v>55218929.070819512</v>
+        <v>55207461.43728327</v>
       </c>
       <c r="F29">
         <v>1.7229718199999999</v>
@@ -3270,13 +3270,13 @@
         <v>0.04</v>
       </c>
       <c r="K29" s="4">
-        <v>25.300906380552107</v>
+        <v>29.484051683566118</v>
       </c>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>8.2331682201219392E-5</v>
       </c>
       <c r="M29">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3287,13 +3287,13 @@
         <v>4.0122383999999993</v>
       </c>
       <c r="C30" s="2">
-        <v>18.925500000000003</v>
+        <v>18.925309659241936</v>
       </c>
       <c r="D30" s="2">
-        <v>40.243023333333333</v>
+        <v>40.223122614709169</v>
       </c>
       <c r="E30" s="3">
-        <v>63649579.672587067</v>
+        <v>63698979.050368257</v>
       </c>
       <c r="F30">
         <v>1.7229718199999999</v>
@@ -3311,13 +3311,13 @@
         <v>0.04</v>
       </c>
       <c r="K30" s="4">
-        <v>24.86215245405662</v>
+        <v>27.347746848378549</v>
       </c>
       <c r="L30" s="3">
-        <v>0</v>
+        <v>8.2009745609721663E-5</v>
       </c>
       <c r="M30">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3328,13 +3328,13 @@
         <v>3.8544415999999999</v>
       </c>
       <c r="C31" s="2">
-        <v>18.988819148936173</v>
+        <v>18.988591781404498</v>
       </c>
       <c r="D31" s="2">
-        <v>38.81145333333334</v>
+        <v>38.990745788975296</v>
       </c>
       <c r="E31" s="3">
-        <v>55276519.829833947</v>
+        <v>55265411.353068456</v>
       </c>
       <c r="F31">
         <v>1.7229718199999999</v>
@@ -3352,13 +3352,13 @@
         <v>0.04</v>
       </c>
       <c r="K31" s="4">
-        <v>26.650710440865563</v>
+        <v>26.999999999999922</v>
       </c>
       <c r="L31" s="3">
-        <v>0</v>
+        <v>8.2748024699842853E-5</v>
       </c>
       <c r="M31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3375,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,10 +3459,10 @@
         <v>22</v>
       </c>
       <c r="L2">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9178082191780824E-4</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3473,13 +3473,13 @@
         <v>3.3096127999999991</v>
       </c>
       <c r="C3">
-        <v>21.833478723404255</v>
+        <v>21.831003136462709</v>
       </c>
       <c r="D3">
-        <v>29.723530000000011</v>
+        <v>29.080197423168535</v>
       </c>
       <c r="E3">
-        <v>35253262.46974574</v>
+        <v>35213752.081050105</v>
       </c>
       <c r="F3">
         <v>-2.2770281800000003</v>
@@ -3497,13 +3497,13 @@
         <v>0.02</v>
       </c>
       <c r="K3">
-        <v>23.607576099179621</v>
+        <v>23.609118809935435</v>
       </c>
       <c r="L3">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9174505212207115E-4</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3514,13 +3514,13 @@
         <v>3.0646572000000001</v>
       </c>
       <c r="C4">
-        <v>17.451595744680855</v>
+        <v>17.451682526181493</v>
       </c>
       <c r="D4">
-        <v>19.933783333333331</v>
+        <v>20.652627048121893</v>
       </c>
       <c r="E4">
-        <v>45729721.580058306</v>
+        <v>45756149.407834806</v>
       </c>
       <c r="F4">
         <v>-2.2770281800000003</v>
@@ -3538,13 +3538,13 @@
         <v>0.02</v>
       </c>
       <c r="K4">
-        <v>19.54131524310209</v>
+        <v>21.151976763793332</v>
       </c>
       <c r="L4">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9180679428809915E-4</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3555,13 +3555,13 @@
         <v>2.7905199999999999</v>
       </c>
       <c r="C5">
-        <v>16.635372340425533</v>
+        <v>16.635936420179682</v>
       </c>
       <c r="D5">
-        <v>17.309906666666663</v>
+        <v>18.393844873597523</v>
       </c>
       <c r="E5">
-        <v>41227142.019598536</v>
+        <v>41222074.430716492</v>
       </c>
       <c r="F5">
         <v>-2.2770281800000003</v>
@@ -3579,13 +3579,13 @@
         <v>0.02</v>
       </c>
       <c r="K5">
-        <v>23.024469038333471</v>
+        <v>22.177988512882614</v>
       </c>
       <c r="L5">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9214200524468291E-4</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3596,13 +3596,13 @@
         <v>3.0649659999999992</v>
       </c>
       <c r="C6">
-        <v>15.749893617021275</v>
+        <v>15.750975493062569</v>
       </c>
       <c r="D6">
-        <v>12.321466666666662</v>
+        <v>14.099512181124279</v>
       </c>
       <c r="E6">
-        <v>53931684.388262674</v>
+        <v>54027739.442451</v>
       </c>
       <c r="F6">
         <v>-2.2770281800000003</v>
@@ -3620,13 +3620,13 @@
         <v>0.02</v>
       </c>
       <c r="K6">
-        <v>22.016188586205519</v>
+        <v>22.195719809843947</v>
       </c>
       <c r="L6">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9196388119426029E-4</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3637,13 +3637,13 @@
         <v>2.1198835999999996</v>
       </c>
       <c r="C7">
-        <v>15.63809574468085</v>
+        <v>15.639242996119293</v>
       </c>
       <c r="D7">
-        <v>22.557659999999998</v>
+        <v>22.911409222646277</v>
       </c>
       <c r="E7">
-        <v>44935719.387350217</v>
+        <v>44956247.252966784</v>
       </c>
       <c r="F7">
         <v>-2.2770281800000003</v>
@@ -3661,13 +3661,13 @@
         <v>0.02</v>
       </c>
       <c r="K7">
-        <v>22.539782854097236</v>
+        <v>22.737045374696994</v>
       </c>
       <c r="L7">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9182127814205719E-4</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3678,13 +3678,13 @@
         <v>2.3586245999999997</v>
       </c>
       <c r="C8">
-        <v>18.282659574468088</v>
+        <v>18.282260379565152</v>
       </c>
       <c r="D8">
-        <v>18.754843333333334</v>
+        <v>19.637728485752817</v>
       </c>
       <c r="E8">
-        <v>31504468.031064555</v>
+        <v>31447613.814878158</v>
       </c>
       <c r="F8">
         <v>-2.2770281800000003</v>
@@ -3702,13 +3702,13 @@
         <v>0.02</v>
       </c>
       <c r="K8">
-        <v>23.023441888356132</v>
+        <v>23.762029973808936</v>
       </c>
       <c r="L8">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9218784021406829E-4</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3719,13 +3719,13 @@
         <v>3.1722353999999999</v>
       </c>
       <c r="C9">
-        <v>16.811478723404257</v>
+        <v>16.811939822444316</v>
       </c>
       <c r="D9">
-        <v>22.981383333333333</v>
+        <v>23.276174352205231</v>
       </c>
       <c r="E9">
-        <v>42661475.034356393</v>
+        <v>42665923.677030079</v>
       </c>
       <c r="F9">
         <v>-2.2770281800000003</v>
@@ -3743,13 +3743,13 @@
         <v>0.02</v>
       </c>
       <c r="K9">
-        <v>21.244673900752687</v>
+        <v>23.008246585317433</v>
       </c>
       <c r="L9">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9169691889081949E-4</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3760,13 +3760,13 @@
         <v>3.4410458000000004</v>
       </c>
       <c r="C10">
-        <v>17.827553191489365</v>
+        <v>17.827420126521716</v>
       </c>
       <c r="D10">
-        <v>15.282183333333332</v>
+        <v>16.648265373468394</v>
       </c>
       <c r="E10">
-        <v>48833159.012392625</v>
+        <v>48884069.694421679</v>
       </c>
       <c r="F10">
         <v>-2.2770281800000003</v>
@@ -3784,13 +3784,13 @@
         <v>0.02</v>
       </c>
       <c r="K10">
-        <v>21.275070474464282</v>
+        <v>22.284859770537533</v>
       </c>
       <c r="L10">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9106863811948691E-4</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3801,13 +3801,13 @@
         <v>2.9061655999999996</v>
       </c>
       <c r="C11">
-        <v>18.647734042553196</v>
+        <v>18.647121365158686</v>
       </c>
       <c r="D11">
-        <v>34.308296666666671</v>
+        <v>33.027025165714946</v>
       </c>
       <c r="E11">
-        <v>36158734.32512299</v>
+        <v>36123906.544125788</v>
       </c>
       <c r="F11">
         <v>-2.2770281800000003</v>
@@ -3825,13 +3825,13 @@
         <v>0.02</v>
       </c>
       <c r="K11">
-        <v>20.553750740657712</v>
+        <v>20.840153221951056</v>
       </c>
       <c r="L11">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9235180886936255E-4</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3842,13 +3842,13 @@
         <v>2.2148395999999999</v>
       </c>
       <c r="C12">
-        <v>16.505765957446808</v>
+        <v>16.506405826378181</v>
       </c>
       <c r="D12">
-        <v>25.611943333333329</v>
+        <v>25.540709919940312</v>
       </c>
       <c r="E12">
-        <v>40131761.442441054</v>
+        <v>40119751.680564225</v>
       </c>
       <c r="F12">
         <v>-2.2770281800000003</v>
@@ -3866,13 +3866,13 @@
         <v>0.02</v>
       </c>
       <c r="K12">
-        <v>25.219874752548758</v>
+        <v>24.061570685255624</v>
       </c>
       <c r="L12">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9177595925455414E-4</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3883,13 +3883,13 @@
         <v>3.2603591999999999</v>
       </c>
       <c r="C13">
-        <v>17.898787234042555</v>
+        <v>17.898612513954603</v>
       </c>
       <c r="D13">
-        <v>27.274756666666669</v>
+        <v>26.972154150764737</v>
       </c>
       <c r="E13">
-        <v>47857618.443228394</v>
+        <v>47900588.962713003</v>
       </c>
       <c r="F13">
         <v>-2.2770281800000003</v>
@@ -3907,13 +3907,13 @@
         <v>0.02</v>
       </c>
       <c r="K13">
-        <v>20.667352681930989</v>
+        <v>22.730466077942427</v>
       </c>
       <c r="L13">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.916844251818706E-4</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3924,13 +3924,13 @@
         <v>2.4831096000000001</v>
       </c>
       <c r="C14">
-        <v>19.128563829787236</v>
+        <v>19.127669980330658</v>
       </c>
       <c r="D14">
-        <v>26.409933333333335</v>
+        <v>26.227665069298979</v>
       </c>
       <c r="E14">
-        <v>33876377.226617485</v>
+        <v>33830114.385199897</v>
       </c>
       <c r="F14">
         <v>-2.2770281800000003</v>
@@ -3948,13 +3948,13 @@
         <v>0.02</v>
       </c>
       <c r="K14">
-        <v>23.922973981461439</v>
+        <v>24.65498277015968</v>
       </c>
       <c r="L14">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9211035262374046E-4</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3965,13 +3965,13 @@
         <v>2.8162275999999999</v>
       </c>
       <c r="C15">
-        <v>17.724659574468085</v>
+        <v>17.724586678007551</v>
       </c>
       <c r="D15">
-        <v>30.946580000000004</v>
+        <v>30.13306838072829</v>
       </c>
       <c r="E15">
-        <v>48759734.914839275</v>
+        <v>48810040.186260127</v>
       </c>
       <c r="F15">
         <v>-2.2770281800000003</v>
@@ -3989,13 +3989,13 @@
         <v>0.02</v>
       </c>
       <c r="K15">
-        <v>20.427216508733487</v>
+        <v>23.083741989648978</v>
       </c>
       <c r="L15">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9185743283604574E-4</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4006,13 +4006,13 @@
         <v>2.7919868000000001</v>
       </c>
       <c r="C16">
-        <v>16.865893617021278</v>
+        <v>16.866322896177767</v>
       </c>
       <c r="D16">
-        <v>30.544243333333334</v>
+        <v>29.786714109443601</v>
       </c>
       <c r="E16">
-        <v>40309410.472354449</v>
+        <v>40298507.462686568</v>
       </c>
       <c r="F16">
         <v>-2.2770281800000003</v>
@@ -4030,13 +4030,13 @@
         <v>0.02</v>
       </c>
       <c r="K16">
-        <v>23.708691527891908</v>
+        <v>24.793976228296696</v>
       </c>
       <c r="L16">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9050756617427621E-4</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4047,13 +4047,13 @@
         <v>3.1261083999999997</v>
       </c>
       <c r="C17">
-        <v>17.720702127659575</v>
+        <v>17.720631545372392</v>
       </c>
       <c r="D17">
-        <v>26.399239999999999</v>
+        <v>26.218459640161846</v>
       </c>
       <c r="E17">
-        <v>45635255.155803107</v>
+        <v>45660973.267977163</v>
       </c>
       <c r="F17">
         <v>-2.2770281800000003</v>
@@ -4071,13 +4071,13 @@
         <v>0.02</v>
       </c>
       <c r="K17">
-        <v>23.806427779429331</v>
+        <v>26.601946718481837</v>
       </c>
       <c r="L17">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9205505103776487E-4</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4088,13 +4088,13 @@
         <v>3.1965148000000001</v>
       </c>
       <c r="C18">
-        <v>17.197329787234043</v>
+        <v>17.197565254372442</v>
       </c>
       <c r="D18">
-        <v>18.956679999999999</v>
+        <v>19.811480960716231</v>
       </c>
       <c r="E18">
-        <v>44090464.547677256</v>
+        <v>44104874.446085669</v>
       </c>
       <c r="F18">
         <v>-2.2770281800000003</v>
@@ -4112,13 +4112,13 @@
         <v>0.02</v>
       </c>
       <c r="K18">
-        <v>20.874099994381854</v>
+        <v>25.477589423619506</v>
       </c>
       <c r="L18">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9183570914841247E-4</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4129,13 +4129,13 @@
         <v>2.1945745999999997</v>
       </c>
       <c r="C19">
-        <v>16.73826595744681</v>
+        <v>16.738769868693851</v>
       </c>
       <c r="D19">
-        <v>22.235523333333333</v>
+        <v>22.634095669890101</v>
       </c>
       <c r="E19">
-        <v>43973958.536680587</v>
+        <v>43987538.328484945</v>
       </c>
       <c r="F19">
         <v>-2.2770281800000003</v>
@@ -4153,13 +4153,13 @@
         <v>0.02</v>
       </c>
       <c r="K19">
-        <v>20.96803159125562</v>
+        <v>24.447163725630936</v>
       </c>
       <c r="L19">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9196968737286501E-4</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4170,13 +4170,13 @@
         <v>2.8746679999999998</v>
       </c>
       <c r="C20">
-        <v>18.362797872340426</v>
+        <v>18.362351815427147</v>
       </c>
       <c r="D20">
-        <v>25.134753333333329</v>
+        <v>25.129917644695688</v>
       </c>
       <c r="E20">
-        <v>43476815.423477843</v>
+        <v>43486888.904046856</v>
       </c>
       <c r="F20">
         <v>-2.2770281800000003</v>
@@ -4194,13 +4194,13 @@
         <v>0.02</v>
       </c>
       <c r="K20">
-        <v>22.760822339220933</v>
+        <v>25.20952877560768</v>
       </c>
       <c r="L20">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9158355328975494E-4</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4211,13 +4211,13 @@
         <v>3.0277555999999999</v>
       </c>
       <c r="C21">
-        <v>16.99154255319149</v>
+        <v>16.991898357344112</v>
       </c>
       <c r="D21">
-        <v>23.94645666666667</v>
+        <v>24.10696433183162</v>
       </c>
       <c r="E21">
-        <v>46722341.403616309</v>
+        <v>46756353.53431423</v>
       </c>
       <c r="F21">
         <v>-2.2770281800000003</v>
@@ -4235,13 +4235,13 @@
         <v>0.02</v>
       </c>
       <c r="K21">
-        <v>23.324987783865851</v>
+        <v>26.536059270229337</v>
       </c>
       <c r="L21">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9169032050759147E-4</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4252,13 +4252,13 @@
         <v>3.1486121999999996</v>
       </c>
       <c r="C22">
-        <v>16.683851063829788</v>
+        <v>16.6843867949604</v>
       </c>
       <c r="D22">
-        <v>23.986556666666672</v>
+        <v>24.141484691095869</v>
       </c>
       <c r="E22">
-        <v>39889349.176932305</v>
+        <v>39875841.135166764</v>
       </c>
       <c r="F22">
         <v>-2.2770281800000003</v>
@@ -4276,13 +4276,13 @@
         <v>0.02</v>
       </c>
       <c r="K22">
-        <v>21.00126962170955</v>
+        <v>25.538871602694698</v>
       </c>
       <c r="L22">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9114543131867236E-4</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4293,13 +4293,13 @@
         <v>3.2841367999999997</v>
       </c>
       <c r="C23">
-        <v>17.819638297872341</v>
+        <v>17.819509861251397</v>
       </c>
       <c r="D23">
-        <v>29.937396666666672</v>
+        <v>29.264306005911223</v>
       </c>
       <c r="E23">
-        <v>43109563.745479733</v>
+        <v>43117084.317750491</v>
       </c>
       <c r="F23">
         <v>-2.2770281800000003</v>
@@ -4317,13 +4317,13 @@
         <v>0.02</v>
       </c>
       <c r="K23">
-        <v>23.787759486519995</v>
+        <v>27.3281737999705</v>
       </c>
       <c r="L23">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.909959406891157E-4</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4334,13 +4334,13 @@
         <v>2.5869435999999997</v>
       </c>
       <c r="C24">
-        <v>17.007372340425533</v>
+        <v>17.007718887884749</v>
       </c>
       <c r="D24">
-        <v>38.580283333333341</v>
+        <v>36.704594106000179</v>
       </c>
       <c r="E24">
-        <v>40718988.906000718</v>
+        <v>40710665.787983701</v>
       </c>
       <c r="F24">
         <v>-2.2770281800000003</v>
@@ -4358,13 +4358,13 @@
         <v>0.02</v>
       </c>
       <c r="K24">
-        <v>23.10740806318168</v>
+        <v>28.437124573908001</v>
       </c>
       <c r="L24">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9236874776101394E-4</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4375,13 +4375,13 @@
         <v>2.6476228000000002</v>
       </c>
       <c r="C25">
-        <v>18.614095744680849</v>
+        <v>18.61350273775982</v>
       </c>
       <c r="D25">
-        <v>30.637810000000009</v>
+        <v>29.867261614393534</v>
       </c>
       <c r="E25">
-        <v>40675346.934262179</v>
+        <v>40666747.046057388</v>
       </c>
       <c r="F25">
         <v>-2.2770281800000003</v>
@@ -4399,13 +4399,13 @@
         <v>0.02</v>
       </c>
       <c r="K25">
-        <v>20.219727833583054</v>
+        <v>26.658395118246865</v>
       </c>
       <c r="L25">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9186346720380756E-4</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -4416,13 +4416,13 @@
         <v>2.4569774</v>
       </c>
       <c r="C26">
-        <v>17.447638297872341</v>
+        <v>17.44772739354633</v>
       </c>
       <c r="D26">
-        <v>19.03420666666667</v>
+        <v>19.878220321960455</v>
       </c>
       <c r="E26">
-        <v>34588404.750375479</v>
+        <v>34545578.366063245</v>
       </c>
       <c r="F26">
         <v>-2.2770281800000003</v>
@@ -4440,13 +4440,13 @@
         <v>0.02</v>
       </c>
       <c r="K26">
-        <v>22.413232984616016</v>
+        <v>27.073170813618695</v>
       </c>
       <c r="L26">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9246054845331286E-4</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4457,13 +4457,13 @@
         <v>3.1518160000000002</v>
       </c>
       <c r="C27">
-        <v>17.960127659574468</v>
+        <v>17.959917069799591</v>
       </c>
       <c r="D27">
-        <v>30.399883333333342</v>
+        <v>29.662440816092278</v>
       </c>
       <c r="E27">
-        <v>40908724.981261969</v>
+        <v>40901610.334454075</v>
       </c>
       <c r="F27">
         <v>-2.2770281800000003</v>
@@ -4481,13 +4481,13 @@
         <v>0.02</v>
       </c>
       <c r="K27">
-        <v>20.380840809428314</v>
+        <v>25.455554333802819</v>
       </c>
       <c r="L27">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9176751129588768E-4</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4498,13 +4498,13 @@
         <v>2.9042742000000001</v>
       </c>
       <c r="C28">
-        <v>17.11422340425532</v>
+        <v>17.114507469034077</v>
       </c>
       <c r="D28">
-        <v>26.49147</v>
+        <v>26.297856466469625</v>
       </c>
       <c r="E28">
-        <v>47011844.03641478</v>
+        <v>47048111.812928371</v>
       </c>
       <c r="F28">
         <v>-2.2770281800000003</v>
@@ -4522,13 +4522,13 @@
         <v>0.02</v>
       </c>
       <c r="K28">
-        <v>22.724505547699572</v>
+        <v>26.181602592258198</v>
       </c>
       <c r="L28">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9209343659594766E-4</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -4539,13 +4539,13 @@
         <v>2.6790431999999997</v>
       </c>
       <c r="C29">
-        <v>17.82458510638298</v>
+        <v>17.824453777045349</v>
       </c>
       <c r="D29">
-        <v>29.144753333333327</v>
+        <v>28.581953571121126</v>
       </c>
       <c r="E29">
-        <v>40218929.070819512</v>
+        <v>40207461.43728327</v>
       </c>
       <c r="F29">
         <v>-2.2770281800000003</v>
@@ -4563,13 +4563,13 @@
         <v>0.02</v>
       </c>
       <c r="K29">
-        <v>20.300906380552107</v>
+        <v>24.484051683566118</v>
       </c>
       <c r="L29">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.9164092053850667E-4</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4580,13 +4580,13 @@
         <v>3.0122383999999993</v>
       </c>
       <c r="C30">
-        <v>17.925500000000003</v>
+        <v>17.925309659241936</v>
       </c>
       <c r="D30">
-        <v>25.243023333333333</v>
+        <v>25.223122614709169</v>
       </c>
       <c r="E30">
-        <v>48649579.672587067</v>
+        <v>48698979.050368257</v>
       </c>
       <c r="F30">
         <v>-2.2770281800000003</v>
@@ -4604,13 +4604,13 @@
         <v>0.02</v>
       </c>
       <c r="K30">
-        <v>19.86215245405662</v>
+        <v>22.347746848378549</v>
       </c>
       <c r="L30">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.919628571300044E-4</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4621,13 +4621,13 @@
         <v>2.8544415999999999</v>
       </c>
       <c r="C31">
-        <v>17.988819148936173</v>
+        <v>17.988591781404498</v>
       </c>
       <c r="D31">
-        <v>23.81145333333334</v>
+        <v>23.990745788975296</v>
       </c>
       <c r="E31">
-        <v>40276519.829833947</v>
+        <v>40265411.353068456</v>
       </c>
       <c r="F31">
         <v>-2.2770281800000003</v>
@@ -4645,13 +4645,13 @@
         <v>0.02</v>
       </c>
       <c r="K31">
-        <v>21.650710440865563</v>
+        <v>21.999999999999922</v>
       </c>
       <c r="L31">
-        <v>-2.7397260273972606E-4</v>
+        <v>-1.912245780398832E-4</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -4666,8 +4666,8 @@
   </sheetPr>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4751,10 +4751,10 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1917808219178083E-4</v>
       </c>
       <c r="M2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4765,13 +4765,13 @@
         <v>5.3096127999999991</v>
       </c>
       <c r="C3">
-        <v>23.833478723404255</v>
+        <v>23.831003136462709</v>
       </c>
       <c r="D3">
-        <v>59.723530000000011</v>
+        <v>59.080197423168535</v>
       </c>
       <c r="E3">
-        <v>65253262.46974574</v>
+        <v>65213752.081050105</v>
       </c>
       <c r="F3">
         <v>2.7229718199999997</v>
@@ -4789,13 +4789,13 @@
         <v>0.06</v>
       </c>
       <c r="K3">
-        <v>33.607576099179624</v>
+        <v>33.609118809935438</v>
       </c>
       <c r="L3">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1921385198751792E-4</v>
       </c>
       <c r="M3">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4806,13 +4806,13 @@
         <v>5.0646572000000001</v>
       </c>
       <c r="C4">
-        <v>19.451595744680855</v>
+        <v>19.451682526181493</v>
       </c>
       <c r="D4">
-        <v>49.933783333333331</v>
+        <v>50.652627048121893</v>
       </c>
       <c r="E4">
-        <v>75729721.580058306</v>
+        <v>75756149.407834798</v>
       </c>
       <c r="F4">
         <v>2.7229718199999997</v>
@@ -4830,13 +4830,13 @@
         <v>0.06</v>
       </c>
       <c r="K4">
-        <v>29.54131524310209</v>
+        <v>31.151976763793332</v>
       </c>
       <c r="L4">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1915210982148995E-4</v>
       </c>
       <c r="M4">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -4847,13 +4847,13 @@
         <v>4.7905199999999999</v>
       </c>
       <c r="C5">
-        <v>18.635372340425533</v>
+        <v>18.635936420179682</v>
       </c>
       <c r="D5">
-        <v>47.309906666666663</v>
+        <v>48.393844873597523</v>
       </c>
       <c r="E5">
-        <v>71227142.019598544</v>
+        <v>71222074.430716485</v>
       </c>
       <c r="F5">
         <v>2.7229718199999997</v>
@@ -4871,13 +4871,13 @@
         <v>0.06</v>
       </c>
       <c r="K5">
-        <v>33.024469038333471</v>
+        <v>32.177988512882614</v>
       </c>
       <c r="L5">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1881689886490616E-4</v>
       </c>
       <c r="M5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -4888,13 +4888,13 @@
         <v>5.0649659999999992</v>
       </c>
       <c r="C6">
-        <v>17.749893617021275</v>
+        <v>17.750975493062569</v>
       </c>
       <c r="D6">
-        <v>42.321466666666666</v>
+        <v>44.099512181124283</v>
       </c>
       <c r="E6">
-        <v>83931684.388262674</v>
+        <v>84027739.442451</v>
       </c>
       <c r="F6">
         <v>2.7229718199999997</v>
@@ -4912,13 +4912,13 @@
         <v>0.06</v>
       </c>
       <c r="K6">
-        <v>32.016188586205516</v>
+        <v>32.195719809843951</v>
       </c>
       <c r="L6">
-        <v>1.3698630136986303E-4</v>
+        <v>2.189950229153288E-4</v>
       </c>
       <c r="M6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -4929,13 +4929,13 @@
         <v>4.1198835999999996</v>
       </c>
       <c r="C7">
-        <v>17.63809574468085</v>
+        <v>17.639242996119293</v>
       </c>
       <c r="D7">
-        <v>52.557659999999998</v>
+        <v>52.911409222646277</v>
       </c>
       <c r="E7">
-        <v>74935719.387350217</v>
+        <v>74956247.252966791</v>
       </c>
       <c r="F7">
         <v>2.7229718199999997</v>
@@ -4953,13 +4953,13 @@
         <v>0.06</v>
       </c>
       <c r="K7">
-        <v>32.53978285409724</v>
+        <v>32.73704537469699</v>
       </c>
       <c r="L7">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1913762596753193E-4</v>
       </c>
       <c r="M7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -4970,13 +4970,13 @@
         <v>4.3586245999999997</v>
       </c>
       <c r="C8">
-        <v>20.282659574468088</v>
+        <v>20.282260379565152</v>
       </c>
       <c r="D8">
-        <v>48.754843333333334</v>
+        <v>49.637728485752817</v>
       </c>
       <c r="E8">
-        <v>61504468.031064555</v>
+        <v>61447613.814878158</v>
       </c>
       <c r="F8">
         <v>2.7229718199999997</v>
@@ -4994,13 +4994,13 @@
         <v>0.06</v>
       </c>
       <c r="K8">
-        <v>33.023441888356132</v>
+        <v>33.762029973808936</v>
       </c>
       <c r="L8">
-        <v>1.3698630136986303E-4</v>
+        <v>2.187710638955208E-4</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -5011,13 +5011,13 @@
         <v>5.1722353999999999</v>
       </c>
       <c r="C9">
-        <v>18.811478723404257</v>
+        <v>18.811939822444316</v>
       </c>
       <c r="D9">
-        <v>52.981383333333333</v>
+        <v>53.276174352205231</v>
       </c>
       <c r="E9">
-        <v>72661475.034356385</v>
+        <v>72665923.677030087</v>
       </c>
       <c r="F9">
         <v>2.7229718199999997</v>
@@ -5035,13 +5035,13 @@
         <v>0.06</v>
       </c>
       <c r="K9">
-        <v>31.244673900752687</v>
+        <v>33.008246585317437</v>
       </c>
       <c r="L9">
-        <v>1.3698630136986303E-4</v>
+        <v>2.192619852187696E-4</v>
       </c>
       <c r="M9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -5052,13 +5052,13 @@
         <v>5.4410458000000004</v>
       </c>
       <c r="C10">
-        <v>19.827553191489365</v>
+        <v>19.827420126521716</v>
       </c>
       <c r="D10">
-        <v>45.282183333333336</v>
+        <v>46.648265373468391</v>
       </c>
       <c r="E10">
-        <v>78833159.012392625</v>
+        <v>78884069.694421679</v>
       </c>
       <c r="F10">
         <v>2.7229718199999997</v>
@@ -5076,13 +5076,13 @@
         <v>0.06</v>
       </c>
       <c r="K10">
-        <v>31.275070474464282</v>
+        <v>32.284859770537537</v>
       </c>
       <c r="L10">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1989026599010219E-4</v>
       </c>
       <c r="M10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -5093,13 +5093,13 @@
         <v>4.9061655999999996</v>
       </c>
       <c r="C11">
-        <v>20.647734042553196</v>
+        <v>20.647121365158686</v>
       </c>
       <c r="D11">
-        <v>64.308296666666678</v>
+        <v>63.027025165714946</v>
       </c>
       <c r="E11">
-        <v>66158734.32512299</v>
+        <v>66123906.544125788</v>
       </c>
       <c r="F11">
         <v>2.7229718199999997</v>
@@ -5117,13 +5117,13 @@
         <v>0.06</v>
       </c>
       <c r="K11">
-        <v>30.553750740657712</v>
+        <v>30.840153221951056</v>
       </c>
       <c r="L11">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1860709524022654E-4</v>
       </c>
       <c r="M11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -5134,13 +5134,13 @@
         <v>4.2148395999999995</v>
       </c>
       <c r="C12">
-        <v>18.505765957446808</v>
+        <v>18.506405826378181</v>
       </c>
       <c r="D12">
-        <v>55.611943333333329</v>
+        <v>55.540709919940312</v>
       </c>
       <c r="E12">
-        <v>70131761.442441046</v>
+        <v>70119751.680564225</v>
       </c>
       <c r="F12">
         <v>2.7229718199999997</v>
@@ -5158,13 +5158,13 @@
         <v>0.06</v>
       </c>
       <c r="K12">
-        <v>35.219874752548762</v>
+        <v>34.061570685255624</v>
       </c>
       <c r="L12">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1918294485503498E-4</v>
       </c>
       <c r="M12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -5175,13 +5175,13 @@
         <v>5.2603591999999999</v>
       </c>
       <c r="C13">
-        <v>19.898787234042555</v>
+        <v>19.898612513954603</v>
       </c>
       <c r="D13">
-        <v>57.274756666666669</v>
+        <v>56.972154150764737</v>
       </c>
       <c r="E13">
-        <v>77857618.443228394</v>
+        <v>77900588.962713003</v>
       </c>
       <c r="F13">
         <v>2.7229718199999997</v>
@@ -5199,13 +5199,13 @@
         <v>0.06</v>
       </c>
       <c r="K13">
-        <v>30.667352681930989</v>
+        <v>32.730466077942424</v>
       </c>
       <c r="L13">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1927447892771849E-4</v>
       </c>
       <c r="M13">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -5216,13 +5216,13 @@
         <v>4.4831096000000006</v>
       </c>
       <c r="C14">
-        <v>21.128563829787236</v>
+        <v>21.127669980330658</v>
       </c>
       <c r="D14">
-        <v>56.409933333333335</v>
+        <v>56.227665069298979</v>
       </c>
       <c r="E14">
-        <v>63876377.226617485</v>
+        <v>63830114.385199897</v>
       </c>
       <c r="F14">
         <v>2.7229718199999997</v>
@@ -5240,13 +5240,13 @@
         <v>0.06</v>
       </c>
       <c r="K14">
-        <v>33.922973981461439</v>
+        <v>34.654982770159677</v>
       </c>
       <c r="L14">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1884855148584864E-4</v>
       </c>
       <c r="M14">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -5257,13 +5257,13 @@
         <v>4.8162275999999995</v>
       </c>
       <c r="C15">
-        <v>19.724659574468085</v>
+        <v>19.724586678007551</v>
       </c>
       <c r="D15">
-        <v>60.946580000000004</v>
+        <v>60.13306838072829</v>
       </c>
       <c r="E15">
-        <v>78759734.914839268</v>
+        <v>78810040.186260134</v>
       </c>
       <c r="F15">
         <v>2.7229718199999997</v>
@@ -5281,13 +5281,13 @@
         <v>0.06</v>
       </c>
       <c r="K15">
-        <v>30.427216508733487</v>
+        <v>33.083741989648978</v>
       </c>
       <c r="L15">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1910147127354336E-4</v>
       </c>
       <c r="M15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -5298,13 +5298,13 @@
         <v>4.7919868000000001</v>
       </c>
       <c r="C16">
-        <v>18.865893617021278</v>
+        <v>18.866322896177767</v>
       </c>
       <c r="D16">
-        <v>60.544243333333334</v>
+        <v>59.786714109443601</v>
       </c>
       <c r="E16">
-        <v>70309410.472354442</v>
+        <v>70298507.462686568</v>
       </c>
       <c r="F16">
         <v>2.7229718199999997</v>
@@ -5322,13 +5322,13 @@
         <v>0.06</v>
       </c>
       <c r="K16">
-        <v>33.708691527891908</v>
+        <v>34.7939762282967</v>
       </c>
       <c r="L16">
-        <v>1.3698630136986303E-4</v>
+        <v>2.2045133793531291E-4</v>
       </c>
       <c r="M16">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -5339,13 +5339,13 @@
         <v>5.1261083999999997</v>
       </c>
       <c r="C17">
-        <v>19.720702127659575</v>
+        <v>19.720631545372392</v>
       </c>
       <c r="D17">
-        <v>56.399239999999999</v>
+        <v>56.218459640161846</v>
       </c>
       <c r="E17">
-        <v>75635255.155803114</v>
+        <v>75660973.267977163</v>
       </c>
       <c r="F17">
         <v>2.7229718199999997</v>
@@ -5363,13 +5363,13 @@
         <v>0.06</v>
       </c>
       <c r="K17">
-        <v>33.806427779429328</v>
+        <v>36.601946718481841</v>
       </c>
       <c r="L17">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1890385307182423E-4</v>
       </c>
       <c r="M17">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -5380,13 +5380,13 @@
         <v>5.1965148000000001</v>
       </c>
       <c r="C18">
-        <v>19.197329787234043</v>
+        <v>19.197565254372442</v>
       </c>
       <c r="D18">
-        <v>48.956679999999999</v>
+        <v>49.811480960716231</v>
       </c>
       <c r="E18">
-        <v>74090464.547677249</v>
+        <v>74104874.446085662</v>
       </c>
       <c r="F18">
         <v>2.7229718199999997</v>
@@ -5404,13 +5404,13 @@
         <v>0.06</v>
       </c>
       <c r="K18">
-        <v>30.874099994381854</v>
+        <v>35.477589423619506</v>
       </c>
       <c r="L18">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1912319496117665E-4</v>
       </c>
       <c r="M18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -5421,13 +5421,13 @@
         <v>4.1945745999999993</v>
       </c>
       <c r="C19">
-        <v>18.73826595744681</v>
+        <v>18.738769868693851</v>
       </c>
       <c r="D19">
-        <v>52.235523333333333</v>
+        <v>52.634095669890101</v>
       </c>
       <c r="E19">
-        <v>73973958.536680579</v>
+        <v>73987538.328484952</v>
       </c>
       <c r="F19">
         <v>2.7229718199999997</v>
@@ -5445,13 +5445,13 @@
         <v>0.06</v>
       </c>
       <c r="K19">
-        <v>30.96803159125562</v>
+        <v>34.447163725630936</v>
       </c>
       <c r="L19">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1898921673672408E-4</v>
       </c>
       <c r="M19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -5462,13 +5462,13 @@
         <v>4.8746679999999998</v>
       </c>
       <c r="C20">
-        <v>20.362797872340426</v>
+        <v>20.362351815427147</v>
       </c>
       <c r="D20">
-        <v>55.134753333333329</v>
+        <v>55.129917644695688</v>
       </c>
       <c r="E20">
-        <v>73476815.423477843</v>
+        <v>73486888.904046863</v>
       </c>
       <c r="F20">
         <v>2.7229718199999997</v>
@@ -5486,13 +5486,13 @@
         <v>0.06</v>
       </c>
       <c r="K20">
-        <v>32.760822339220937</v>
+        <v>35.20952877560768</v>
       </c>
       <c r="L20">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1937535081983413E-4</v>
       </c>
       <c r="M20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5503,13 +5503,13 @@
         <v>5.0277555999999999</v>
       </c>
       <c r="C21">
-        <v>18.99154255319149</v>
+        <v>18.991898357344112</v>
       </c>
       <c r="D21">
-        <v>53.94645666666667</v>
+        <v>54.10696433183162</v>
       </c>
       <c r="E21">
-        <v>76722341.403616309</v>
+        <v>76756353.53431423</v>
       </c>
       <c r="F21">
         <v>2.7229718199999997</v>
@@ -5527,13 +5527,13 @@
         <v>0.06</v>
       </c>
       <c r="K21">
-        <v>33.324987783865851</v>
+        <v>36.536059270229337</v>
       </c>
       <c r="L21">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1926858360199762E-4</v>
       </c>
       <c r="M21">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -5544,13 +5544,13 @@
         <v>5.1486121999999996</v>
       </c>
       <c r="C22">
-        <v>18.683851063829788</v>
+        <v>18.6843867949604</v>
       </c>
       <c r="D22">
-        <v>53.986556666666672</v>
+        <v>54.141484691095869</v>
       </c>
       <c r="E22">
-        <v>69889349.176932305</v>
+        <v>69875841.135166764</v>
       </c>
       <c r="F22">
         <v>2.7229718199999997</v>
@@ -5568,13 +5568,13 @@
         <v>0.06</v>
       </c>
       <c r="K22">
-        <v>31.00126962170955</v>
+        <v>35.538871602694698</v>
       </c>
       <c r="L22">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1981347279091673E-4</v>
       </c>
       <c r="M22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -5585,13 +5585,13 @@
         <v>5.2841367999999997</v>
       </c>
       <c r="C23">
-        <v>19.819638297872341</v>
+        <v>19.819509861251397</v>
       </c>
       <c r="D23">
-        <v>59.937396666666672</v>
+        <v>59.264306005911223</v>
       </c>
       <c r="E23">
-        <v>73109563.745479733</v>
+        <v>73117084.317750484</v>
       </c>
       <c r="F23">
         <v>2.7229718199999997</v>
@@ -5609,13 +5609,13 @@
         <v>0.06</v>
       </c>
       <c r="K23">
-        <v>33.787759486519995</v>
+        <v>37.3281737999705</v>
       </c>
       <c r="L23">
-        <v>1.3698630136986303E-4</v>
+        <v>2.199629634204734E-4</v>
       </c>
       <c r="M23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -5626,13 +5626,13 @@
         <v>4.5869435999999997</v>
       </c>
       <c r="C24">
-        <v>19.007372340425533</v>
+        <v>19.007718887884749</v>
       </c>
       <c r="D24">
-        <v>68.580283333333341</v>
+        <v>66.704594106000172</v>
       </c>
       <c r="E24">
-        <v>70718988.906000718</v>
+        <v>70710665.787983701</v>
       </c>
       <c r="F24">
         <v>2.7229718199999997</v>
@@ -5650,13 +5650,13 @@
         <v>0.06</v>
       </c>
       <c r="K24">
-        <v>33.10740806318168</v>
+        <v>38.437124573908001</v>
       </c>
       <c r="L24">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1859015634857515E-4</v>
       </c>
       <c r="M24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -5667,13 +5667,13 @@
         <v>4.6476228000000006</v>
       </c>
       <c r="C25">
-        <v>20.614095744680849</v>
+        <v>20.61350273775982</v>
       </c>
       <c r="D25">
-        <v>60.637810000000009</v>
+        <v>59.867261614393534</v>
       </c>
       <c r="E25">
-        <v>70675346.934262186</v>
+        <v>70666747.046057388</v>
       </c>
       <c r="F25">
         <v>2.7229718199999997</v>
@@ -5691,13 +5691,13 @@
         <v>0.06</v>
       </c>
       <c r="K25">
-        <v>30.219727833583054</v>
+        <v>36.658395118246865</v>
       </c>
       <c r="L25">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1909543690578153E-4</v>
       </c>
       <c r="M25">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -5708,13 +5708,13 @@
         <v>4.4569773999999995</v>
       </c>
       <c r="C26">
-        <v>19.447638297872341</v>
+        <v>19.44772739354633</v>
       </c>
       <c r="D26">
-        <v>49.03420666666667</v>
+        <v>49.878220321960455</v>
       </c>
       <c r="E26">
-        <v>64588404.750375479</v>
+        <v>64545578.366063245</v>
       </c>
       <c r="F26">
         <v>2.7229718199999997</v>
@@ -5732,13 +5732,13 @@
         <v>0.06</v>
       </c>
       <c r="K26">
-        <v>32.413232984616016</v>
+        <v>37.073170813618695</v>
       </c>
       <c r="L26">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1849835565627621E-4</v>
       </c>
       <c r="M26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -5749,13 +5749,13 @@
         <v>5.1518160000000002</v>
       </c>
       <c r="C27">
-        <v>19.960127659574468</v>
+        <v>19.959917069799591</v>
       </c>
       <c r="D27">
-        <v>60.399883333333342</v>
+        <v>59.662440816092278</v>
       </c>
       <c r="E27">
-        <v>70908724.981261969</v>
+        <v>70901610.334454075</v>
       </c>
       <c r="F27">
         <v>2.7229718199999997</v>
@@ -5773,13 +5773,13 @@
         <v>0.06</v>
       </c>
       <c r="K27">
-        <v>30.380840809428314</v>
+        <v>35.455554333802823</v>
       </c>
       <c r="L27">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1919139281370142E-4</v>
       </c>
       <c r="M27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -5790,13 +5790,13 @@
         <v>4.9042741999999997</v>
       </c>
       <c r="C28">
-        <v>19.11422340425532</v>
+        <v>19.114507469034077</v>
       </c>
       <c r="D28">
-        <v>56.49147</v>
+        <v>56.297856466469625</v>
       </c>
       <c r="E28">
-        <v>77011844.036414772</v>
+        <v>77048111.812928379</v>
       </c>
       <c r="F28">
         <v>2.7229718199999997</v>
@@ -5814,13 +5814,13 @@
         <v>0.06</v>
       </c>
       <c r="K28">
-        <v>32.724505547699572</v>
+        <v>36.181602592258201</v>
       </c>
       <c r="L28">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1886546751364143E-4</v>
       </c>
       <c r="M28">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -5831,13 +5831,13 @@
         <v>4.6790431999999997</v>
       </c>
       <c r="C29">
-        <v>19.82458510638298</v>
+        <v>19.824453777045349</v>
       </c>
       <c r="D29">
-        <v>59.144753333333327</v>
+        <v>58.581953571121126</v>
       </c>
       <c r="E29">
-        <v>70218929.070819512</v>
+        <v>70207461.437283278</v>
       </c>
       <c r="F29">
         <v>2.7229718199999997</v>
@@ -5855,13 +5855,13 @@
         <v>0.06</v>
       </c>
       <c r="K29">
-        <v>30.300906380552107</v>
+        <v>34.484051683566122</v>
       </c>
       <c r="L29">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1931798357108242E-4</v>
       </c>
       <c r="M29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -5872,13 +5872,13 @@
         <v>5.0122383999999993</v>
       </c>
       <c r="C30">
-        <v>19.925500000000003</v>
+        <v>19.925309659241936</v>
       </c>
       <c r="D30">
-        <v>55.243023333333333</v>
+        <v>55.223122614709169</v>
       </c>
       <c r="E30">
-        <v>78649579.672587067</v>
+        <v>78698979.050368249</v>
       </c>
       <c r="F30">
         <v>2.7229718199999997</v>
@@ -5896,13 +5896,13 @@
         <v>0.06</v>
       </c>
       <c r="K30">
-        <v>29.86215245405662</v>
+        <v>32.347746848378549</v>
       </c>
       <c r="L30">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1899604697958469E-4</v>
       </c>
       <c r="M30">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -5913,13 +5913,13 @@
         <v>4.8544415999999995</v>
       </c>
       <c r="C31">
-        <v>19.988819148936173</v>
+        <v>19.988591781404498</v>
       </c>
       <c r="D31">
-        <v>53.81145333333334</v>
+        <v>53.990745788975296</v>
       </c>
       <c r="E31">
-        <v>70276519.829833955</v>
+        <v>70265411.353068456</v>
       </c>
       <c r="F31">
         <v>2.7229718199999997</v>
@@ -5937,13 +5937,13 @@
         <v>0.06</v>
       </c>
       <c r="K31">
-        <v>31.650710440865563</v>
+        <v>31.999999999999922</v>
       </c>
       <c r="L31">
-        <v>1.3698630136986303E-4</v>
+        <v>2.1973432606970587E-4</v>
       </c>
       <c r="M31">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelInputs/GEPEP_calibration.xlsx
+++ b/ExcelInputs/GEPEP_calibration.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0498DAB8-E09E-448D-B580-A801EAAF99D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9717A61C-2AA2-4FF2-BBA5-2CE05AE7630C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="699" activeTab="1" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
-    <workbookView minimized="1" xWindow="29805" yWindow="855" windowWidth="25140" windowHeight="15075" activeTab="1" xr2:uid="{81A49CF1-039D-452F-8A6F-A45C842E73DE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="699" activeTab="2" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{81A49CF1-039D-452F-8A6F-A45C842E73DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Weights" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="coefficients">#REF!</definedName>
     <definedName name="HighAdj">#REF!</definedName>
     <definedName name="LowAdj">#REF!</definedName>
-    <definedName name="ProdnTargets">Targets!$B$3:$J$31</definedName>
+    <definedName name="ProdnTargets">Targets!$B$3:$K$31</definedName>
     <definedName name="Scenario">#REF!</definedName>
     <definedName name="StdCoeffs">#REF!</definedName>
     <definedName name="TeamNo">#REF!</definedName>
@@ -130,32 +130,6 @@
           </rPr>
           <t xml:space="preserve">
 Too difficult to estmiate the effect on the coefficient</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{959EF070-A562-4429-ACC9-E08DD1482C43}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Input value based on other calculations
-LW of ewes at 25% FAT
-See email from Gav 2Dec24 14:51</t>
         </r>
       </text>
     </comment>
@@ -764,7 +738,9 @@
   </sheetPr>
   <dimension ref="B1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1048576"/>
+    </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,31 +781,31 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>5.8550351497174375</v>
+        <v>9.0453359468878141</v>
       </c>
       <c r="C2">
-        <v>2.8262400924713225</v>
+        <v>4.2393601387069841</v>
       </c>
       <c r="D2">
-        <v>0.24406504214314104</v>
+        <v>0.24406504214314109</v>
       </c>
       <c r="E2">
         <v>58.030422682485614</v>
       </c>
       <c r="F2">
-        <v>15.949140670665399</v>
+        <v>23.923711005998097</v>
       </c>
       <c r="G2">
         <v>34.915603736819811</v>
       </c>
       <c r="H2">
-        <v>0.81875154038501452</v>
+        <v>0.81875154038501419</v>
       </c>
       <c r="I2">
-        <v>468.90852134505695</v>
+        <v>468.90852134505707</v>
       </c>
       <c r="J2">
-        <v>1.9535089064089024</v>
+        <v>2.9302633596133534</v>
       </c>
     </row>
   </sheetData>
@@ -844,14 +820,15 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:P1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="L3" sqref="L3:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,31 +875,31 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>3.9137</v>
+        <v>3.8</v>
       </c>
       <c r="C2" s="2">
-        <v>19.413699999999999</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
-        <v>101.44499999999999</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
-        <v>0.95835000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="F2" s="2">
-        <v>1.461462</v>
+        <v>1.4</v>
       </c>
       <c r="G2" s="2">
-        <v>0.69849000000000006</v>
+        <v>0.7</v>
       </c>
       <c r="H2" s="2">
-        <v>60.505000000000003</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2">
-        <v>0.67279</v>
+        <v>0.8</v>
       </c>
       <c r="J2" s="2">
-        <v>26.623999999999999</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -930,31 +907,31 @@
         <v>16</v>
       </c>
       <c r="B3" s="4">
-        <v>4.1416338880000003</v>
+        <v>4.021312</v>
       </c>
       <c r="C3" s="3">
-        <v>21.553199999999997</v>
+        <v>21.139499999999998</v>
       </c>
       <c r="D3" s="3">
-        <v>108.56049999999999</v>
+        <v>107.1155</v>
       </c>
       <c r="E3" s="3">
-        <v>0.96984999999999999</v>
+        <v>0.93149999999999999</v>
       </c>
       <c r="F3" s="3">
-        <v>1.5189620000000001</v>
+        <v>1.4575</v>
       </c>
       <c r="G3" s="3">
-        <v>0.71699000000000002</v>
+        <v>0.71849999999999992</v>
       </c>
       <c r="H3" s="3">
-        <v>62.654000000000003</v>
+        <v>67.149000000000001</v>
       </c>
       <c r="I3" s="3">
-        <v>0.67262874363500003</v>
+        <v>0.79983874363500007</v>
       </c>
       <c r="J3" s="3">
-        <v>27.465999999999998</v>
+        <v>29.841999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -962,31 +939,31 @@
         <v>37</v>
       </c>
       <c r="B4" s="4">
-        <v>4.017452187</v>
+        <v>3.900738</v>
       </c>
       <c r="C4" s="3">
-        <v>19.338699999999999</v>
+        <v>18.925000000000001</v>
       </c>
       <c r="D4" s="3">
-        <v>98.19</v>
+        <v>96.745000000000005</v>
       </c>
       <c r="E4" s="3">
-        <v>0.93235000000000001</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="F4" s="3">
-        <v>1.340462</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>0.69499000000000011</v>
+        <v>0.69650000000000001</v>
       </c>
       <c r="H4" s="3">
-        <v>59.399500000000003</v>
+        <v>63.894500000000001</v>
       </c>
       <c r="I4" s="3">
-        <v>0.67290724757999998</v>
+        <v>0.80011724758000002</v>
       </c>
       <c r="J4" s="3">
-        <v>26.265999999999998</v>
+        <v>28.641999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -994,31 +971,31 @@
         <v>23</v>
       </c>
       <c r="B5" s="4">
-        <v>3.8784766999999998</v>
+        <v>3.7657999999999996</v>
       </c>
       <c r="C5" s="3">
-        <v>18.926199999999998</v>
+        <v>18.512499999999999</v>
       </c>
       <c r="D5" s="3">
-        <v>102.17349999999999</v>
+        <v>100.7285</v>
       </c>
       <c r="E5" s="3">
-        <v>0.95835000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="F5" s="3">
-        <v>1.502462</v>
+        <v>1.4409999999999998</v>
       </c>
       <c r="G5" s="3">
-        <v>0.63799000000000006</v>
+        <v>0.63949999999999996</v>
       </c>
       <c r="H5" s="3">
-        <v>61.538499999999999</v>
+        <v>66.033500000000004</v>
       </c>
       <c r="I5" s="3">
-        <v>0.67442614999999995</v>
+        <v>0.80163614999999999</v>
       </c>
       <c r="J5" s="3">
-        <v>27.054499999999997</v>
+        <v>29.430499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1026,31 +1003,31 @@
         <v>33</v>
       </c>
       <c r="B6" s="4">
-        <v>4.0176087350000005</v>
+        <v>3.90089</v>
       </c>
       <c r="C6" s="3">
-        <v>18.4787</v>
+        <v>18.065000000000001</v>
       </c>
       <c r="D6" s="3">
-        <v>92.270999999999987</v>
+        <v>90.825999999999993</v>
       </c>
       <c r="E6" s="3">
-        <v>0.96735000000000004</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="F6" s="3">
-        <v>1.477962</v>
+        <v>1.4164999999999999</v>
       </c>
       <c r="G6" s="3">
-        <v>0.72299000000000002</v>
+        <v>0.72449999999999992</v>
       </c>
       <c r="H6" s="3">
-        <v>60.145500000000006</v>
+        <v>64.640500000000003</v>
       </c>
       <c r="I6" s="3">
-        <v>0.67361660000000001</v>
+        <v>0.80082660000000006</v>
       </c>
       <c r="J6" s="3">
-        <v>26.525499999999997</v>
+        <v>28.901499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1058,31 +1035,31 @@
         <v>24</v>
       </c>
       <c r="B7" s="4">
-        <v>3.538493581</v>
+        <v>3.4356939999999998</v>
       </c>
       <c r="C7" s="3">
-        <v>18.4222</v>
+        <v>18.008500000000002</v>
       </c>
       <c r="D7" s="3">
-        <v>98.84899999999999</v>
+        <v>97.403999999999996</v>
       </c>
       <c r="E7" s="3">
-        <v>0.96584999999999999</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="F7" s="3">
-        <v>1.554462</v>
+        <v>1.4929999999999999</v>
       </c>
       <c r="G7" s="3">
-        <v>0.67849000000000004</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="H7" s="3">
-        <v>60.316000000000003</v>
+        <v>64.811000000000007</v>
       </c>
       <c r="I7" s="3">
-        <v>0.67297249330999998</v>
+        <v>0.80018249331000002</v>
       </c>
       <c r="J7" s="3">
-        <v>26.427999999999997</v>
+        <v>28.803999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1090,31 +1067,31 @@
         <v>30</v>
       </c>
       <c r="B8" s="4">
-        <v>3.6595247534999999</v>
+        <v>3.5532089999999998</v>
       </c>
       <c r="C8" s="3">
-        <v>19.758699999999997</v>
+        <v>19.344999999999999</v>
       </c>
       <c r="D8" s="3">
-        <v>113.40649999999999</v>
+        <v>111.9615</v>
       </c>
       <c r="E8" s="3">
-        <v>0.96584999999999999</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="F8" s="3">
-        <v>1.453462</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>0.71949000000000007</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="H8" s="3">
-        <v>60.416499999999999</v>
+        <v>64.911500000000004</v>
       </c>
       <c r="I8" s="3">
-        <v>0.67463510000000004</v>
+        <v>0.80184510000000009</v>
       </c>
       <c r="J8" s="3">
-        <v>26.282999999999998</v>
+        <v>28.658999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1122,31 +1099,31 @@
         <v>14</v>
       </c>
       <c r="B9" s="4">
-        <v>4.0719895964999999</v>
+        <v>3.9536910000000001</v>
       </c>
       <c r="C9" s="3">
-        <v>19.0152</v>
+        <v>18.601500000000001</v>
       </c>
       <c r="D9" s="3">
-        <v>100.83699999999999</v>
+        <v>99.391999999999996</v>
       </c>
       <c r="E9" s="3">
-        <v>0.96235000000000004</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="F9" s="3">
-        <v>1.431462</v>
+        <v>1.3699999999999999</v>
       </c>
       <c r="G9" s="3">
-        <v>0.74499000000000004</v>
+        <v>0.74649999999999994</v>
       </c>
       <c r="H9" s="3">
-        <v>60.86</v>
+        <v>65.355000000000004</v>
       </c>
       <c r="I9" s="3">
-        <v>0.672412156855</v>
+        <v>0.79962215685500004</v>
       </c>
       <c r="J9" s="3">
-        <v>26.823999999999998</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1154,31 +1131,31 @@
         <v>20</v>
       </c>
       <c r="B10" s="4">
-        <v>4.2082646304999995</v>
+        <v>4.0860069999999995</v>
       </c>
       <c r="C10" s="3">
-        <v>19.528699999999997</v>
+        <v>19.114999999999998</v>
       </c>
       <c r="D10" s="3">
-        <v>95.771499999999989</v>
+        <v>94.326499999999996</v>
       </c>
       <c r="E10" s="3">
-        <v>0.93235000000000001</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="F10" s="3">
-        <v>1.4099619999999999</v>
+        <v>1.3484999999999998</v>
       </c>
       <c r="G10" s="3">
-        <v>0.69749000000000005</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="H10" s="3">
-        <v>61.7515</v>
+        <v>66.246499999999997</v>
       </c>
       <c r="I10" s="3">
-        <v>0.66960629999999999</v>
+        <v>0.79681630000000003</v>
       </c>
       <c r="J10" s="3">
-        <v>26.897499999999997</v>
+        <v>29.273499999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1186,31 +1163,31 @@
         <v>21</v>
       </c>
       <c r="B11" s="4">
-        <v>3.9371039260000003</v>
+        <v>3.822724</v>
       </c>
       <c r="C11" s="3">
-        <v>19.943199999999997</v>
+        <v>19.529499999999999</v>
       </c>
       <c r="D11" s="3">
-        <v>107.4965</v>
+        <v>106.0515</v>
       </c>
       <c r="E11" s="3">
-        <v>0.96884999999999999</v>
+        <v>0.93049999999999999</v>
       </c>
       <c r="F11" s="3">
-        <v>1.4179619999999999</v>
+        <v>1.3564999999999998</v>
       </c>
       <c r="G11" s="3">
-        <v>0.73399000000000003</v>
+        <v>0.73549999999999993</v>
       </c>
       <c r="H11" s="3">
-        <v>61.683500000000002</v>
+        <v>66.1785</v>
       </c>
       <c r="I11" s="3">
-        <v>0.67538350000000003</v>
+        <v>0.80259350000000007</v>
       </c>
       <c r="J11" s="3">
-        <v>26.462</v>
+        <v>28.838000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1218,31 +1195,31 @@
         <v>26</v>
       </c>
       <c r="B12" s="4">
-        <v>3.5866320909999998</v>
+        <v>3.4824339999999996</v>
       </c>
       <c r="C12" s="3">
-        <v>18.860699999999998</v>
+        <v>18.446999999999999</v>
       </c>
       <c r="D12" s="3">
-        <v>103.241</v>
+        <v>101.79600000000001</v>
       </c>
       <c r="E12" s="3">
-        <v>0.96535000000000004</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="F12" s="3">
-        <v>1.3884620000000001</v>
+        <v>1.327</v>
       </c>
       <c r="G12" s="3">
-        <v>0.74299000000000004</v>
+        <v>0.74449999999999994</v>
       </c>
       <c r="H12" s="3">
-        <v>59.496000000000002</v>
+        <v>63.991</v>
       </c>
       <c r="I12" s="3">
-        <v>0.67276806247050003</v>
+        <v>0.79997806247050007</v>
       </c>
       <c r="J12" s="3">
-        <v>26.727</v>
+        <v>29.103000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1250,31 +1227,31 @@
         <v>17</v>
       </c>
       <c r="B13" s="4">
-        <v>4.116664482</v>
+        <v>3.9970680000000001</v>
       </c>
       <c r="C13" s="3">
-        <v>19.564699999999998</v>
+        <v>19.151</v>
       </c>
       <c r="D13" s="3">
-        <v>96.506</v>
+        <v>95.061000000000007</v>
       </c>
       <c r="E13" s="3">
-        <v>0.95085000000000008</v>
+        <v>0.91250000000000009</v>
       </c>
       <c r="F13" s="3">
-        <v>1.4604620000000001</v>
+        <v>1.399</v>
       </c>
       <c r="G13" s="3">
-        <v>0.6839900000000001</v>
+        <v>0.6855</v>
       </c>
       <c r="H13" s="3">
-        <v>61.419499999999999</v>
+        <v>65.914500000000004</v>
       </c>
       <c r="I13" s="3">
-        <v>0.67235660304</v>
+        <v>0.79956660304000005</v>
       </c>
       <c r="J13" s="3">
-        <v>26.000499999999999</v>
+        <v>28.3765</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1282,31 +1259,31 @@
         <v>39</v>
       </c>
       <c r="B14" s="4">
-        <v>3.722633166</v>
+        <v>3.614484</v>
       </c>
       <c r="C14" s="3">
-        <v>20.186199999999999</v>
+        <v>19.772500000000001</v>
       </c>
       <c r="D14" s="3">
-        <v>110.25399999999999</v>
+        <v>108.809</v>
       </c>
       <c r="E14" s="3">
-        <v>0.93535000000000001</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="F14" s="3">
-        <v>1.4544620000000001</v>
+        <v>1.393</v>
       </c>
       <c r="G14" s="3">
-        <v>0.6849900000000001</v>
+        <v>0.6865</v>
       </c>
       <c r="H14" s="3">
-        <v>59.032500000000006</v>
+        <v>63.527500000000003</v>
       </c>
       <c r="I14" s="3">
-        <v>0.67428204999999997</v>
+        <v>0.80149205000000001</v>
       </c>
       <c r="J14" s="3">
-        <v>26.871499999999997</v>
+        <v>29.247499999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1314,31 +1291,31 @@
         <v>35</v>
       </c>
       <c r="B15" s="4">
-        <v>3.891509321</v>
+        <v>3.778454</v>
       </c>
       <c r="C15" s="3">
-        <v>19.476699999999997</v>
+        <v>19.062999999999999</v>
       </c>
       <c r="D15" s="3">
-        <v>95.825999999999993</v>
+        <v>94.381</v>
       </c>
       <c r="E15" s="3">
-        <v>0.94185000000000008</v>
+        <v>0.90350000000000008</v>
       </c>
       <c r="F15" s="3">
-        <v>1.483962</v>
+        <v>1.4224999999999999</v>
       </c>
       <c r="G15" s="3">
-        <v>0.67499000000000009</v>
+        <v>0.67649999999999999</v>
       </c>
       <c r="H15" s="3">
-        <v>62.230499999999999</v>
+        <v>66.725499999999997</v>
       </c>
       <c r="I15" s="3">
-        <v>0.67313576599500002</v>
+        <v>0.80034576599500007</v>
       </c>
       <c r="J15" s="3">
-        <v>27.415499999999998</v>
+        <v>29.791499999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1346,31 +1323,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="4">
-        <v>3.8792203029999999</v>
+        <v>3.7665219999999997</v>
       </c>
       <c r="C16" s="3">
-        <v>19.0427</v>
+        <v>18.629000000000001</v>
       </c>
       <c r="D16" s="3">
-        <v>103.065</v>
+        <v>101.62</v>
       </c>
       <c r="E16" s="3">
-        <v>0.97235000000000005</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="F16" s="3">
-        <v>1.493962</v>
+        <v>1.4324999999999999</v>
       </c>
       <c r="G16" s="3">
-        <v>0.66949000000000003</v>
+        <v>0.67099999999999993</v>
       </c>
       <c r="H16" s="3">
-        <v>58.9985</v>
+        <v>63.493499999999997</v>
       </c>
       <c r="I16" s="3">
-        <v>0.66713524999999996</v>
+        <v>0.79434525</v>
       </c>
       <c r="J16" s="3">
-        <v>25.605</v>
+        <v>27.981000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1378,31 +1355,31 @@
         <v>22</v>
       </c>
       <c r="B17" s="4">
-        <v>4.0486052389999996</v>
+        <v>3.9309859999999999</v>
       </c>
       <c r="C17" s="3">
-        <v>19.474699999999999</v>
+        <v>19.061</v>
       </c>
       <c r="D17" s="3">
-        <v>98.267499999999998</v>
+        <v>96.822500000000005</v>
       </c>
       <c r="E17" s="3">
-        <v>0.96184999999999998</v>
+        <v>0.92349999999999999</v>
       </c>
       <c r="F17" s="3">
-        <v>1.4624619999999999</v>
+        <v>1.4009999999999998</v>
       </c>
       <c r="G17" s="3">
-        <v>0.71599000000000002</v>
+        <v>0.71749999999999992</v>
       </c>
       <c r="H17" s="3">
-        <v>59.277000000000001</v>
+        <v>63.771999999999998</v>
       </c>
       <c r="I17" s="3">
-        <v>0.67403025000000005</v>
+        <v>0.8012402500000001</v>
       </c>
       <c r="J17" s="3">
-        <v>26.665499999999998</v>
+        <v>29.041499999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1410,31 +1387,31 @@
         <v>31</v>
       </c>
       <c r="B18" s="4">
-        <v>4.0842981829999996</v>
+        <v>3.9656419999999999</v>
       </c>
       <c r="C18" s="3">
-        <v>19.2102</v>
+        <v>18.796500000000002</v>
       </c>
       <c r="D18" s="3">
-        <v>99.57</v>
+        <v>98.125</v>
       </c>
       <c r="E18" s="3">
-        <v>0.94635000000000002</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="F18" s="3">
-        <v>1.3819620000000001</v>
+        <v>1.3205</v>
       </c>
       <c r="G18" s="3">
-        <v>0.69249000000000005</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="H18" s="3">
-        <v>59.448500000000003</v>
+        <v>63.9435</v>
       </c>
       <c r="I18" s="3">
-        <v>0.67303788905499995</v>
+        <v>0.80024788905499999</v>
       </c>
       <c r="J18" s="3">
-        <v>27.246499999999997</v>
+        <v>29.622499999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1442,31 +1419,31 @@
         <v>32</v>
       </c>
       <c r="B19" s="4">
-        <v>3.5763586285</v>
+        <v>3.4724589999999997</v>
       </c>
       <c r="C19" s="3">
-        <v>18.978199999999998</v>
+        <v>18.564499999999999</v>
       </c>
       <c r="D19" s="3">
-        <v>99.670999999999992</v>
+        <v>98.225999999999999</v>
       </c>
       <c r="E19" s="3">
-        <v>0.97585</v>
+        <v>0.9375</v>
       </c>
       <c r="F19" s="3">
-        <v>1.5514620000000001</v>
+        <v>1.49</v>
       </c>
       <c r="G19" s="3">
-        <v>0.67449000000000003</v>
+        <v>0.67599999999999993</v>
       </c>
       <c r="H19" s="3">
-        <v>61.375500000000002</v>
+        <v>65.870500000000007</v>
       </c>
       <c r="I19" s="3">
-        <v>0.67364374999999999</v>
+        <v>0.80085375000000003</v>
       </c>
       <c r="J19" s="3">
-        <v>26.192499999999999</v>
+        <v>28.5685</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1474,31 +1451,31 @@
         <v>28</v>
       </c>
       <c r="B20" s="4">
-        <v>3.92113603</v>
+        <v>3.80722</v>
       </c>
       <c r="C20" s="3">
-        <v>19.799199999999999</v>
+        <v>19.3855</v>
       </c>
       <c r="D20" s="3">
-        <v>100.1065</v>
+        <v>98.661500000000004</v>
       </c>
       <c r="E20" s="3">
-        <v>0.95585000000000009</v>
+        <v>0.91750000000000009</v>
       </c>
       <c r="F20" s="3">
-        <v>1.449962</v>
+        <v>1.3884999999999998</v>
       </c>
       <c r="G20" s="3">
-        <v>0.69499000000000011</v>
+        <v>0.69650000000000001</v>
       </c>
       <c r="H20" s="3">
-        <v>62.364000000000004</v>
+        <v>66.858999999999995</v>
       </c>
       <c r="I20" s="3">
-        <v>0.67190229999999995</v>
+        <v>0.7991123</v>
       </c>
       <c r="J20" s="3">
-        <v>27.0945</v>
+        <v>29.470500000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1506,31 +1483,31 @@
         <v>18</v>
       </c>
       <c r="B21" s="4">
-        <v>3.9987447010000001</v>
+        <v>3.882574</v>
       </c>
       <c r="C21" s="3">
-        <v>19.106199999999998</v>
+        <v>18.692499999999999</v>
       </c>
       <c r="D21" s="3">
-        <v>97.389999999999986</v>
+        <v>95.944999999999993</v>
       </c>
       <c r="E21" s="3">
-        <v>0.96235000000000004</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="F21" s="3">
-        <v>1.4709620000000001</v>
+        <v>1.4095</v>
       </c>
       <c r="G21" s="3">
-        <v>0.69049000000000005</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="H21" s="3">
-        <v>61.866</v>
+        <v>66.361000000000004</v>
       </c>
       <c r="I21" s="3">
-        <v>0.67238225698999998</v>
+        <v>0.79959225699000003</v>
       </c>
       <c r="J21" s="3">
-        <v>27.5215</v>
+        <v>29.897500000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1538,31 +1515,31 @@
         <v>15</v>
       </c>
       <c r="B22" s="4">
-        <v>4.0600136745000004</v>
+        <v>3.9420629999999997</v>
       </c>
       <c r="C22" s="3">
-        <v>18.950699999999998</v>
+        <v>18.536999999999999</v>
       </c>
       <c r="D22" s="3">
-        <v>103.48299999999999</v>
+        <v>102.038</v>
       </c>
       <c r="E22" s="3">
-        <v>0.97184999999999999</v>
+        <v>0.9335</v>
       </c>
       <c r="F22" s="3">
-        <v>1.3594619999999999</v>
+        <v>1.2979999999999998</v>
       </c>
       <c r="G22" s="3">
-        <v>0.73999000000000004</v>
+        <v>0.74149999999999994</v>
       </c>
       <c r="H22" s="3">
-        <v>59.722500000000004</v>
+        <v>64.217500000000001</v>
       </c>
       <c r="I22" s="3">
-        <v>0.66994584999999995</v>
+        <v>0.79715585</v>
       </c>
       <c r="J22" s="3">
-        <v>26.065999999999999</v>
+        <v>28.442</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1570,31 +1547,31 @@
         <v>40</v>
       </c>
       <c r="B23" s="4">
-        <v>4.1287186780000003</v>
+        <v>4.0087719999999996</v>
       </c>
       <c r="C23" s="3">
-        <v>19.524699999999999</v>
+        <v>19.111000000000001</v>
       </c>
       <c r="D23" s="3">
-        <v>100.43299999999999</v>
+        <v>98.988</v>
       </c>
       <c r="E23" s="3">
-        <v>0.98585</v>
+        <v>0.94750000000000001</v>
       </c>
       <c r="F23" s="3">
-        <v>1.397462</v>
+        <v>1.3359999999999999</v>
       </c>
       <c r="G23" s="3">
-        <v>0.64699000000000007</v>
+        <v>0.64849999999999997</v>
       </c>
       <c r="H23" s="3">
-        <v>59.061500000000002</v>
+        <v>63.5565</v>
       </c>
       <c r="I23" s="3">
-        <v>0.66928379999999998</v>
+        <v>0.79649380000000003</v>
       </c>
       <c r="J23" s="3">
-        <v>26.172499999999999</v>
+        <v>28.548500000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1602,31 +1579,31 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>3.7752724309999999</v>
+        <v>3.6655939999999996</v>
       </c>
       <c r="C24" s="3">
-        <v>19.1142</v>
+        <v>18.700500000000002</v>
       </c>
       <c r="D24" s="3">
-        <v>102.6635</v>
+        <v>101.21850000000001</v>
       </c>
       <c r="E24" s="3">
-        <v>0.96735000000000004</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="F24" s="3">
-        <v>1.479962</v>
+        <v>1.4184999999999999</v>
       </c>
       <c r="G24" s="3">
-        <v>0.68749000000000005</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="H24" s="3">
-        <v>61.287500000000001</v>
+        <v>65.782499999999999</v>
       </c>
       <c r="I24" s="3">
-        <v>0.67546019999999996</v>
+        <v>0.8026702</v>
       </c>
       <c r="J24" s="3">
-        <v>26.876999999999999</v>
+        <v>29.253</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1634,31 +1611,31 @@
         <v>36</v>
       </c>
       <c r="B25" s="4">
-        <v>3.8060341129999999</v>
+        <v>3.6954619999999996</v>
       </c>
       <c r="C25" s="3">
-        <v>19.926199999999998</v>
+        <v>19.512499999999999</v>
       </c>
       <c r="D25" s="3">
-        <v>102.70599999999999</v>
+        <v>101.261</v>
       </c>
       <c r="E25" s="3">
-        <v>0.95685000000000009</v>
+        <v>0.91850000000000009</v>
       </c>
       <c r="F25" s="3">
-        <v>1.415462</v>
+        <v>1.3539999999999999</v>
       </c>
       <c r="G25" s="3">
-        <v>0.71349000000000007</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="H25" s="3">
-        <v>62.312000000000005</v>
+        <v>66.807000000000002</v>
       </c>
       <c r="I25" s="3">
-        <v>0.67316394014500003</v>
+        <v>0.80037394014500007</v>
       </c>
       <c r="J25" s="3">
-        <v>27.436</v>
+        <v>29.812000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1666,31 +1643,31 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>3.7093852914999998</v>
+        <v>3.6016209999999997</v>
       </c>
       <c r="C26" s="3">
-        <v>19.336699999999997</v>
+        <v>18.922999999999998</v>
       </c>
       <c r="D26" s="3">
-        <v>109.36649999999999</v>
+        <v>107.92149999999999</v>
       </c>
       <c r="E26" s="3">
-        <v>0.92935000000000001</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="F26" s="3">
-        <v>1.5114620000000001</v>
+        <v>1.45</v>
       </c>
       <c r="G26" s="3">
-        <v>0.71899000000000002</v>
+        <v>0.72049999999999992</v>
       </c>
       <c r="H26" s="3">
-        <v>59.975999999999999</v>
+        <v>64.471000000000004</v>
       </c>
       <c r="I26" s="3">
-        <v>0.67588155000000005</v>
+        <v>0.8030915500000001</v>
       </c>
       <c r="J26" s="3">
-        <v>26.369999999999997</v>
+        <v>28.745999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1698,31 +1675,31 @@
         <v>38</v>
       </c>
       <c r="B27" s="4">
-        <v>4.0616378600000003</v>
+        <v>3.9436399999999998</v>
       </c>
       <c r="C27" s="3">
-        <v>19.595699999999997</v>
+        <v>19.181999999999999</v>
       </c>
       <c r="D27" s="3">
-        <v>102.47949999999999</v>
+        <v>101.03449999999999</v>
       </c>
       <c r="E27" s="3">
-        <v>0.96435000000000004</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="F27" s="3">
-        <v>1.5294620000000001</v>
+        <v>1.468</v>
       </c>
       <c r="G27" s="3">
-        <v>0.66949000000000003</v>
+        <v>0.67099999999999993</v>
       </c>
       <c r="H27" s="3">
-        <v>59.767500000000005</v>
+        <v>64.262500000000003</v>
       </c>
       <c r="I27" s="3">
-        <v>0.67273000629500002</v>
+        <v>0.79994000629500006</v>
       </c>
       <c r="J27" s="3">
-        <v>26.007999999999999</v>
+        <v>28.384</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1730,31 +1707,31 @@
         <v>34</v>
       </c>
       <c r="B28" s="4">
-        <v>3.9361450695000002</v>
+        <v>3.821793</v>
       </c>
       <c r="C28" s="3">
-        <v>19.168199999999999</v>
+        <v>18.7545</v>
       </c>
       <c r="D28" s="3">
-        <v>97.16149999999999</v>
+        <v>95.716499999999996</v>
       </c>
       <c r="E28" s="3">
-        <v>0.91835</v>
+        <v>0.88</v>
       </c>
       <c r="F28" s="3">
-        <v>1.3979620000000001</v>
+        <v>1.3365</v>
       </c>
       <c r="G28" s="3">
-        <v>0.72299000000000002</v>
+        <v>0.72449999999999992</v>
       </c>
       <c r="H28" s="3">
-        <v>59.579500000000003</v>
+        <v>64.0745</v>
       </c>
       <c r="I28" s="3">
-        <v>0.67420659999999999</v>
+        <v>0.80141660000000003</v>
       </c>
       <c r="J28" s="3">
-        <v>26.320999999999998</v>
+        <v>28.696999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1762,31 +1739,31 @@
         <v>19</v>
       </c>
       <c r="B29" s="4">
-        <v>3.8219628719999998</v>
+        <v>3.7109279999999996</v>
       </c>
       <c r="C29" s="3">
-        <v>19.527199999999997</v>
+        <v>19.113499999999998</v>
       </c>
       <c r="D29" s="3">
-        <v>103.1545</v>
+        <v>101.70950000000001</v>
       </c>
       <c r="E29" s="3">
-        <v>0.98235000000000006</v>
+        <v>0.94400000000000006</v>
       </c>
       <c r="F29" s="3">
-        <v>1.558962</v>
+        <v>1.4974999999999998</v>
       </c>
       <c r="G29" s="3">
-        <v>0.73649000000000009</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="H29" s="3">
-        <v>60.288499999999999</v>
+        <v>64.783500000000004</v>
       </c>
       <c r="I29" s="3">
-        <v>0.67216005000000001</v>
+        <v>0.79937005000000005</v>
       </c>
       <c r="J29" s="3">
-        <v>26.535999999999998</v>
+        <v>28.911999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1794,31 +1771,31 @@
         <v>13</v>
       </c>
       <c r="B30" s="4">
-        <v>3.9908781639999997</v>
+        <v>3.8749359999999995</v>
       </c>
       <c r="C30" s="3">
-        <v>19.578199999999999</v>
+        <v>19.1645</v>
       </c>
       <c r="D30" s="3">
-        <v>95.907999999999987</v>
+        <v>94.462999999999994</v>
       </c>
       <c r="E30" s="3">
-        <v>0.95835000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="F30" s="3">
-        <v>1.429462</v>
+        <v>1.3679999999999999</v>
       </c>
       <c r="G30" s="3">
-        <v>0.70399</v>
+        <v>0.7054999999999999</v>
       </c>
       <c r="H30" s="3">
-        <v>58.9495</v>
+        <v>63.444499999999998</v>
       </c>
       <c r="I30" s="3">
-        <v>0.67361300000000002</v>
+        <v>0.80082300000000006</v>
       </c>
       <c r="J30" s="3">
-        <v>26.378999999999998</v>
+        <v>28.754999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1826,31 +1803,31 @@
         <v>12</v>
       </c>
       <c r="B31" s="4">
-        <v>3.9108821359999997</v>
+        <v>3.7972639999999998</v>
       </c>
       <c r="C31" s="3">
-        <v>19.610199999999999</v>
+        <v>19.1965</v>
       </c>
       <c r="D31" s="3">
-        <v>103.0975</v>
+        <v>101.6525</v>
       </c>
       <c r="E31" s="3">
-        <v>0.96684999999999999</v>
+        <v>0.92849999999999999</v>
       </c>
       <c r="F31" s="3">
-        <v>1.6064620000000001</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="G31" s="3">
-        <v>0.65549000000000002</v>
+        <v>0.65699999999999992</v>
       </c>
       <c r="H31" s="3">
-        <v>59.428000000000004</v>
+        <v>63.923000000000002</v>
       </c>
       <c r="I31" s="3">
-        <v>0.67029824999999998</v>
+        <v>0.79750825000000003</v>
       </c>
       <c r="J31" s="3">
-        <v>26.384499999999999</v>
+        <v>28.7605</v>
       </c>
     </row>
   </sheetData>
@@ -1865,15 +1842,15 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="H3" sqref="H3:H31"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3:H31"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H31"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3:H31"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,31 +1899,31 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>3.8</v>
+        <v>3.91</v>
       </c>
       <c r="C2" s="1">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="D2" s="1">
-        <v>60000000</v>
+        <v>57500000</v>
       </c>
       <c r="E2" s="1">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F2" s="1">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G2" s="1">
-        <v>1.7397800000000001</v>
+        <v>1.7685</v>
       </c>
       <c r="H2" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I2" s="1">
-        <v>8.219178082191781E-5</v>
+        <v>2.6299999999999999E-5</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1954,31 +1931,31 @@
         <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>4.021312</v>
+        <v>4.1377184000000007</v>
       </c>
       <c r="C3" s="2">
-        <v>21.093907910393174</v>
+        <v>20.91697894736842</v>
       </c>
       <c r="D3" s="3">
-        <v>56067354.148147807</v>
+        <v>53680373.055253446</v>
       </c>
       <c r="E3">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F3">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G3">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H3" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H3" s="2">
+        <v>67.149000000000001</v>
       </c>
       <c r="I3" s="5">
-        <v>8.2211485522220372E-5</v>
+        <v>2.6305302371800876E-5</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1986,31 +1963,31 @@
         <v>37</v>
       </c>
       <c r="B4" s="2">
-        <v>3.900738</v>
+        <v>4.0136541000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>18.926598227025245</v>
+        <v>18.725789473684213</v>
       </c>
       <c r="D4" s="3">
-        <v>61989000.916590281</v>
+        <v>59434596.103157781</v>
       </c>
       <c r="E4">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F4">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G4">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H4" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H4" s="2">
+        <v>63.894500000000001</v>
       </c>
       <c r="I4" s="5">
-        <v>8.2177459699011316E-5</v>
+        <v>2.6296146050640295E-5</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2018,31 +1995,31 @@
         <v>23</v>
       </c>
       <c r="B5" s="2">
-        <v>3.7657999999999996</v>
+        <v>3.8748100000000001</v>
       </c>
       <c r="C5" s="2">
-        <v>18.522888475664093</v>
+        <v>18.31763157894737</v>
       </c>
       <c r="D5" s="3">
-        <v>59572198.270588756</v>
+        <v>57084142.025345355</v>
       </c>
       <c r="E5">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F5">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G5">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H5" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H5" s="2">
+        <v>66.033500000000004</v>
       </c>
       <c r="I5" s="5">
-        <v>8.1992384517086246E-5</v>
+        <v>2.6246321351650621E-5</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2050,31 +2027,31 @@
         <v>33</v>
       </c>
       <c r="B6" s="2">
-        <v>3.90089</v>
+        <v>4.0138105000000008</v>
       </c>
       <c r="C6" s="2">
-        <v>18.084924563581389</v>
+        <v>17.874842105263159</v>
       </c>
       <c r="D6" s="3">
-        <v>65965471.274831749</v>
+        <v>63307863.387135848</v>
       </c>
       <c r="E6">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F6">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G6">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H6" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H6" s="2">
+        <v>64.640500000000003</v>
       </c>
       <c r="I6" s="5">
-        <v>8.2090922669034703E-5</v>
+        <v>2.6272853574044618E-5</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2082,31 +2059,31 @@
         <v>24</v>
       </c>
       <c r="B7" s="2">
-        <v>3.4356939999999998</v>
+        <v>3.5351482999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>18.029628561273743</v>
+        <v>17.818936842105266</v>
       </c>
       <c r="D7" s="3">
-        <v>61575736.729759537</v>
+        <v>59032483.265574314</v>
       </c>
       <c r="E7">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F7">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G7">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H7" s="2">
+        <v>64.811000000000007</v>
       </c>
       <c r="I7" s="5">
-        <v>8.2169492466470752E-5</v>
+        <v>2.6294001900699995E-5</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2114,31 +2091,31 @@
         <v>30</v>
       </c>
       <c r="B8" s="2">
-        <v>3.5532089999999998</v>
+        <v>3.65606505</v>
       </c>
       <c r="C8" s="2">
-        <v>19.337648155683873</v>
+        <v>19.141368421052633</v>
       </c>
       <c r="D8" s="3">
-        <v>53671526.764338903</v>
+        <v>51356939.662294634</v>
       </c>
       <c r="E8">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F8">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G8">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H8" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H8" s="2">
+        <v>64.911500000000004</v>
       </c>
       <c r="I8" s="5">
-        <v>8.1966989590636602E-5</v>
+        <v>2.6239481914898524E-5</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2146,31 +2123,31 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>3.9536910000000001</v>
+        <v>4.0681399500000008</v>
       </c>
       <c r="C9" s="2">
-        <v>18.60999191292747</v>
+        <v>18.405694736842108</v>
       </c>
       <c r="D9" s="3">
-        <v>60361771.968622632</v>
+        <v>57851738.570508696</v>
       </c>
       <c r="E9">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F9">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G9">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H9" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H9" s="2">
+        <v>65.355000000000004</v>
       </c>
       <c r="I9" s="5">
-        <v>8.223796618701316E-5</v>
+        <v>2.6312427462931474E-5</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2178,31 +2155,31 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>4.0860069999999995</v>
+        <v>4.2042861499999997</v>
       </c>
       <c r="C10" s="2">
-        <v>19.112549385227958</v>
+        <v>18.913789473684211</v>
       </c>
       <c r="D10" s="3">
-        <v>63554397.707042277</v>
+        <v>60958479.324474029</v>
       </c>
       <c r="E10">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F10">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G10">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H10" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H10" s="2">
+        <v>66.246499999999997</v>
       </c>
       <c r="I10" s="5">
-        <v>8.2582568621558804E-5</v>
+        <v>2.6405082325750613E-5</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2210,31 +2187,31 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>3.822724</v>
+        <v>3.9333818000000007</v>
       </c>
       <c r="C11" s="2">
-        <v>19.518216517201768</v>
+        <v>19.323926315789471</v>
       </c>
       <c r="D11" s="3">
-        <v>56622308.633304343</v>
+        <v>54218940.797631338</v>
       </c>
       <c r="E11">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F11">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G11">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H11" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H11" s="2">
+        <v>66.1785</v>
       </c>
       <c r="I11" s="5">
-        <v>8.1876161053946506E-5</v>
+        <v>2.6215014200837658E-5</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2242,31 +2219,31 @@
         <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>3.4824339999999996</v>
+        <v>3.5832413000000001</v>
       </c>
       <c r="C12" s="2">
-        <v>18.458784260599472</v>
+        <v>18.252821052631578</v>
       </c>
       <c r="D12" s="3">
-        <v>58956228.630098499</v>
+        <v>56485520.059727296</v>
       </c>
       <c r="E12">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F12">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G12">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H12" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H12" s="2">
+        <v>63.991</v>
       </c>
       <c r="I12" s="5">
-        <v>8.219446092033065E-5</v>
+        <v>2.6300721216059434E-5</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2274,31 +2251,31 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>3.9970680000000001</v>
+        <v>4.1127726000000004</v>
       </c>
       <c r="C13" s="2">
-        <v>19.147782236255839</v>
+        <v>18.949410526315791</v>
       </c>
       <c r="D13" s="3">
-        <v>63070689.905290864</v>
+        <v>60487476.462481983</v>
       </c>
       <c r="E13">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F13">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G13">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H13" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H13" s="2">
+        <v>65.914500000000004</v>
       </c>
       <c r="I13" s="5">
-        <v>8.2244761141861338E-5</v>
+        <v>2.6314255648003129E-5</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2306,31 +2283,31 @@
         <v>39</v>
       </c>
       <c r="B14" s="2">
-        <v>3.614484</v>
+        <v>3.7191138000000001</v>
       </c>
       <c r="C14" s="2">
-        <v>19.756038261639976</v>
+        <v>19.564368421052631</v>
       </c>
       <c r="D14" s="3">
-        <v>55206160.320713989</v>
+        <v>52844893.345219612</v>
       </c>
       <c r="E14">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F14">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G14">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H14" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H14" s="2">
+        <v>63.527500000000003</v>
       </c>
       <c r="I14" s="5">
-        <v>8.2009907010246064E-5</v>
+        <v>2.625104016939407E-5</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2338,31 +2315,31 @@
         <v>35</v>
       </c>
       <c r="B15" s="2">
-        <v>3.778454</v>
+        <v>3.8878303000000005</v>
       </c>
       <c r="C15" s="2">
-        <v>19.061657489298796</v>
+        <v>18.862336842105265</v>
       </c>
       <c r="D15" s="3">
-        <v>63518251.831444494</v>
+        <v>60923279.049808748</v>
       </c>
       <c r="E15">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F15">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G15">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H15" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H15" s="2">
+        <v>66.725499999999997</v>
       </c>
       <c r="I15" s="5">
-        <v>8.2149561816016807E-5</v>
+        <v>2.6288637853719143E-5</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2370,31 +2347,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="2">
-        <v>3.7665219999999997</v>
+        <v>3.8755529000000002</v>
       </c>
       <c r="C16" s="2">
-        <v>18.636905896351546</v>
+        <v>18.432905263157895</v>
       </c>
       <c r="D16" s="3">
-        <v>59056905.836122833</v>
+        <v>56583349.734304264</v>
       </c>
       <c r="E16">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F16">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G16">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H16" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H16" s="2">
+        <v>63.493499999999997</v>
       </c>
       <c r="I16" s="5">
-        <v>8.2888452107991733E-5</v>
+        <v>2.6487223282319621E-5</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2402,31 +2379,31 @@
         <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>3.9309859999999999</v>
+        <v>4.0447777</v>
       </c>
       <c r="C17" s="2">
-        <v>19.059700108686137</v>
+        <v>18.860357894736843</v>
       </c>
       <c r="D17" s="3">
-        <v>61940112.448164448</v>
+        <v>59387022.644529939</v>
       </c>
       <c r="E17">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F17">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G17">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H17" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H17" s="2">
+        <v>63.771999999999998</v>
       </c>
       <c r="I17" s="5">
-        <v>8.2040543757758771E-5</v>
+        <v>2.6259289894635221E-5</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2434,31 +2411,31 @@
         <v>31</v>
       </c>
       <c r="B18" s="2">
-        <v>3.965641999999999</v>
+        <v>4.0804369000000005</v>
       </c>
       <c r="C18" s="2">
-        <v>18.800836522661832</v>
+        <v>18.59864210526316</v>
       </c>
       <c r="D18" s="3">
-        <v>61129858.391081661</v>
+        <v>58598726.114649683</v>
       </c>
       <c r="E18">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F18">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G18">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H18" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H18" s="2">
+        <v>63.9435</v>
       </c>
       <c r="I18" s="5">
-        <v>8.2161508465475414E-5</v>
+        <v>2.6291853171703834E-5</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2466,31 +2443,31 @@
         <v>32</v>
       </c>
       <c r="B19" s="2">
-        <v>3.4724589999999997</v>
+        <v>3.5729775500000001</v>
       </c>
       <c r="C19" s="2">
-        <v>18.573780371593255</v>
+        <v>18.369084210526317</v>
       </c>
       <c r="D19" s="3">
-        <v>61067913.435201816</v>
+        <v>58538472.502188832</v>
       </c>
       <c r="E19">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F19">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G19">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H19" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H19" s="2">
+        <v>65.870500000000007</v>
       </c>
       <c r="I19" s="5">
-        <v>8.2087614142012136E-5</v>
+        <v>2.627196288960375E-5</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2498,31 +2475,31 @@
         <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>3.80722</v>
+        <v>3.9174290000000003</v>
       </c>
       <c r="C20" s="2">
-        <v>19.377285113090242</v>
+        <v>19.181442105263159</v>
       </c>
       <c r="D20" s="3">
-        <v>60802245.608427025</v>
+        <v>58280078.855480604</v>
       </c>
       <c r="E20">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F20">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G20">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H20" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H20" s="2">
+        <v>66.858999999999995</v>
       </c>
       <c r="I20" s="5">
-        <v>8.2300370484188082E-5</v>
+        <v>2.6329215555811117E-5</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2530,31 +2507,31 @@
         <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>3.882574</v>
+        <v>3.9949643000000004</v>
       </c>
       <c r="C21" s="2">
-        <v>18.699052730803505</v>
+        <v>18.495736842105263</v>
       </c>
       <c r="D21" s="3">
-        <v>62498203.100934394</v>
+        <v>59930168.325603209</v>
       </c>
       <c r="E21">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F21">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G21">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H21" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H21" s="2">
+        <v>66.361000000000004</v>
       </c>
       <c r="I21" s="5">
-        <v>8.2241623190245042E-5</v>
+        <v>2.6313411386952854E-5</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2562,31 +2539,31 @@
         <v>15</v>
       </c>
       <c r="B22" s="2">
-        <v>3.9420629999999997</v>
+        <v>4.0561753500000002</v>
       </c>
       <c r="C22" s="2">
-        <v>18.546866388169178</v>
+        <v>18.341873684210526</v>
       </c>
       <c r="D22" s="3">
-        <v>58818356.638288416</v>
+        <v>56351555.302926362</v>
       </c>
       <c r="E22">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F22">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G22">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H22" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H22" s="2">
+        <v>64.217500000000001</v>
       </c>
       <c r="I22" s="5">
-        <v>8.2540713132528689E-5</v>
+        <v>2.6393835032384194E-5</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2594,31 +2571,31 @@
         <v>40</v>
       </c>
       <c r="B23" s="2">
-        <v>4.0087719999999996</v>
+        <v>4.1248154000000001</v>
       </c>
       <c r="C23" s="2">
-        <v>19.108634624002637</v>
+        <v>18.909831578947369</v>
       </c>
       <c r="D23" s="3">
-        <v>60604582.159250446</v>
+        <v>58087849.032205932</v>
       </c>
       <c r="E23">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F23">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G23">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H23" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H23" s="2">
+        <v>63.5565</v>
       </c>
       <c r="I23" s="5">
-        <v>8.2622361723349783E-5</v>
+        <v>2.6415773732325348E-5</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2626,31 +2603,31 @@
         <v>25</v>
       </c>
       <c r="B24" s="2">
-        <v>3.6655939999999996</v>
+        <v>3.7717033</v>
       </c>
       <c r="C24" s="2">
-        <v>18.706882253254147</v>
+        <v>18.503652631578952</v>
       </c>
       <c r="D24" s="3">
-        <v>59287867.645268276</v>
+        <v>56807796.993632585</v>
       </c>
       <c r="E24">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F24">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G24">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H24" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H24" s="2">
+        <v>65.782499999999999</v>
       </c>
       <c r="I24" s="5">
-        <v>8.1866863834727916E-5</v>
+        <v>2.6212509197426288E-5</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2658,31 +2635,31 @@
         <v>36</v>
       </c>
       <c r="B25" s="2">
-        <v>3.6954619999999996</v>
+        <v>3.8024358999999999</v>
       </c>
       <c r="C25" s="2">
-        <v>19.501578781994155</v>
+        <v>19.307105263157897</v>
       </c>
       <c r="D25" s="3">
-        <v>59263334.177165896</v>
+        <v>56783954.335825242</v>
       </c>
       <c r="E25">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F25">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G25">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H25" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H25" s="2">
+        <v>66.807000000000002</v>
       </c>
       <c r="I25" s="5">
-        <v>8.2146123583605639E-5</v>
+        <v>2.6287712461238156E-5</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2690,31 +2667,31 @@
         <v>29</v>
       </c>
       <c r="B26" s="2">
-        <v>3.6016209999999997</v>
+        <v>3.7058784499999997</v>
       </c>
       <c r="C26" s="2">
-        <v>18.924640846412583</v>
+        <v>18.723810526315788</v>
       </c>
       <c r="D26" s="3">
-        <v>55654153.694229953</v>
+        <v>53279467.02000992</v>
       </c>
       <c r="E26">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F26">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G26">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H26" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H26" s="2">
+        <v>64.471000000000004</v>
       </c>
       <c r="I26" s="5">
-        <v>8.1815827372678062E-5</v>
+        <v>2.6198756542762775E-5</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2722,31 +2699,31 @@
         <v>38</v>
       </c>
       <c r="B27" s="2">
-        <v>3.9436399999999998</v>
+        <v>4.057798</v>
       </c>
       <c r="C27" s="2">
-        <v>19.178121635752071</v>
+        <v>18.980084210526314</v>
       </c>
       <c r="D27" s="3">
-        <v>59394317.88796784</v>
+        <v>56911253.086816885</v>
       </c>
       <c r="E27">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F27">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G27">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H27" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H27" s="2">
+        <v>64.262500000000003</v>
       </c>
       <c r="I27" s="5">
-        <v>8.2199110641319217E-5</v>
+        <v>2.6301972440969425E-5</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2754,31 +2731,31 @@
         <v>34</v>
       </c>
       <c r="B28" s="2">
-        <v>3.821793</v>
+        <v>3.9324238500000002</v>
       </c>
       <c r="C28" s="2">
-        <v>18.759731529795967</v>
+        <v>18.557084210526316</v>
       </c>
       <c r="D28" s="3">
-        <v>62645183.534630492</v>
+        <v>60073237.111678757</v>
       </c>
       <c r="E28">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F28">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G28">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H28" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H28" s="2">
+        <v>64.0745</v>
       </c>
       <c r="I28" s="5">
-        <v>8.2019084682911862E-5</v>
+        <v>2.6253511594344312E-5</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2786,31 +2763,31 @@
         <v>19</v>
       </c>
       <c r="B29" s="2">
-        <v>3.7109279999999996</v>
+        <v>3.8183495999999999</v>
       </c>
       <c r="C29" s="2">
-        <v>19.111081349768462</v>
+        <v>18.912305263157894</v>
       </c>
       <c r="D29" s="3">
-        <v>59005666.25789471</v>
+        <v>56533558.812107027</v>
       </c>
       <c r="E29">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F29">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G29">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H29" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H29" s="2">
+        <v>64.783500000000004</v>
       </c>
       <c r="I29" s="5">
-        <v>8.2268811154691639E-5</v>
+        <v>2.6320725926621842E-5</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2818,31 +2795,31 @@
         <v>13</v>
       </c>
       <c r="B30" s="2">
-        <v>3.8749359999999995</v>
+        <v>3.9871051999999998</v>
       </c>
       <c r="C30" s="2">
-        <v>19.160994555391298</v>
+        <v>18.962768421052633</v>
       </c>
       <c r="D30" s="3">
-        <v>63463944.613588028</v>
+        <v>60870393.699120298</v>
       </c>
       <c r="E30">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F30">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G30">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H30" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H30" s="2">
+        <v>63.444499999999998</v>
       </c>
       <c r="I30" s="5">
-        <v>8.2091361388776757E-5</v>
+        <v>2.6272971680383804E-5</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2850,31 +2827,31 @@
         <v>12</v>
       </c>
       <c r="B31" s="2">
-        <v>3.7972639999999998</v>
+        <v>3.9071848</v>
       </c>
       <c r="C31" s="2">
-        <v>19.192312645193855</v>
+        <v>18.994431578947367</v>
       </c>
       <c r="D31" s="3">
-        <v>59038288.998278327</v>
+        <v>56565259.093480237</v>
       </c>
       <c r="E31">
-        <v>1.302</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F31">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G31">
-        <v>1.7397800000000001</v>
-      </c>
-      <c r="H31" s="1">
-        <v>60</v>
+        <v>1.7685</v>
+      </c>
+      <c r="H31" s="2">
+        <v>63.923000000000002</v>
       </c>
       <c r="I31" s="5">
-        <v>8.2497318498411841E-5</v>
+        <v>2.6382172222042843E-5</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -2892,13 +2869,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="H3" sqref="H3:H31"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3:H31"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H31"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3:H31"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2947,31 +2924,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>16.3</v>
       </c>
       <c r="D2">
-        <v>58000000</v>
+        <v>53500000</v>
       </c>
       <c r="E2">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F2">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G2">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2979,31 +2956,31 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>3.021312</v>
+        <v>3.1377184000000007</v>
       </c>
       <c r="C3">
-        <v>20.093907910393174</v>
+        <v>18.41697894736842</v>
       </c>
       <c r="D3">
-        <v>54067354.148147807</v>
+        <v>49680373.055253446</v>
       </c>
       <c r="E3">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F3">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G3">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H3">
-        <v>55</v>
+        <v>61.149000000000001</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5.3023718008772742E-9</v>
       </c>
       <c r="J3">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3011,31 +2988,31 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>2.900738</v>
+        <v>3.0136541000000001</v>
       </c>
       <c r="C4">
-        <v>17.926598227025245</v>
+        <v>16.225789473684213</v>
       </c>
       <c r="D4">
-        <v>59989000.916590281</v>
+        <v>55434596.103157781</v>
       </c>
       <c r="E4">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F4">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G4">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>57.894500000000001</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3043,31 +3020,31 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>2.7657999999999996</v>
+        <v>2.8748100000000001</v>
       </c>
       <c r="C5">
-        <v>17.522888475664093</v>
+        <v>15.81763157894737</v>
       </c>
       <c r="D5">
-        <v>57572198.270588756</v>
+        <v>53084142.025345355</v>
       </c>
       <c r="E5">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F5">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G5">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H5">
-        <v>55</v>
+        <v>60.033500000000004</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3075,31 +3052,31 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>2.90089</v>
+        <v>3.0138105000000008</v>
       </c>
       <c r="C6">
-        <v>17.084924563581389</v>
+        <v>15.374842105263159</v>
       </c>
       <c r="D6">
-        <v>63965471.274831749</v>
+        <v>59307863.387135848</v>
       </c>
       <c r="E6">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F6">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G6">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>58.640500000000003</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3107,31 +3084,31 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>2.4356939999999998</v>
+        <v>2.5351482999999999</v>
       </c>
       <c r="C7">
-        <v>17.029628561273743</v>
+        <v>15.318936842105266</v>
       </c>
       <c r="D7">
-        <v>59575736.729759537</v>
+        <v>55032483.265574314</v>
       </c>
       <c r="E7">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F7">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G7">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H7">
-        <v>55</v>
+        <v>58.811000000000007</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3139,31 +3116,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>2.5532089999999998</v>
+        <v>2.65606505</v>
       </c>
       <c r="C8">
-        <v>18.337648155683873</v>
+        <v>16.641368421052633</v>
       </c>
       <c r="D8">
-        <v>51671526.764338903</v>
+        <v>47356939.662294634</v>
       </c>
       <c r="E8">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F8">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G8">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>58.911500000000004</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3171,31 +3148,31 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>2.9536910000000001</v>
+        <v>3.0681399500000008</v>
       </c>
       <c r="C9">
-        <v>17.60999191292747</v>
+        <v>15.905694736842108</v>
       </c>
       <c r="D9">
-        <v>58361771.968622632</v>
+        <v>53851738.570508696</v>
       </c>
       <c r="E9">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F9">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G9">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H9">
-        <v>55</v>
+        <v>59.355000000000004</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.2427462931475321E-8</v>
       </c>
       <c r="J9">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3203,31 +3180,31 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>3.0860069999999995</v>
+        <v>3.2042861499999997</v>
       </c>
       <c r="C10">
-        <v>18.112549385227958</v>
+        <v>16.413789473684211</v>
       </c>
       <c r="D10">
-        <v>61554397.707042277</v>
+        <v>56958479.324474029</v>
       </c>
       <c r="E10">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F10">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G10">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H10">
-        <v>55</v>
+        <v>60.246499999999997</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.0508232575061371E-7</v>
       </c>
       <c r="J10">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3235,31 +3212,31 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>2.822724</v>
+        <v>2.9333818000000007</v>
       </c>
       <c r="C11">
-        <v>18.518216517201768</v>
+        <v>16.823926315789471</v>
       </c>
       <c r="D11">
-        <v>54622308.633304343</v>
+        <v>50218940.797631338</v>
       </c>
       <c r="E11">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F11">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H11">
-        <v>55</v>
+        <v>60.1785</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3267,31 +3244,31 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>2.4824339999999996</v>
+        <v>2.5832413000000001</v>
       </c>
       <c r="C12">
-        <v>17.458784260599472</v>
+        <v>15.752821052631578</v>
       </c>
       <c r="D12">
-        <v>56956228.630098499</v>
+        <v>52485520.059727296</v>
       </c>
       <c r="E12">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F12">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G12">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H12">
-        <v>55</v>
+        <v>57.991</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>7.2121605943517662E-10</v>
       </c>
       <c r="J12">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3299,31 +3276,31 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>2.9970680000000001</v>
+        <v>3.1127726000000004</v>
       </c>
       <c r="C13">
-        <v>18.147782236255839</v>
+        <v>16.449410526315791</v>
       </c>
       <c r="D13">
-        <v>61070689.905290864</v>
+        <v>56487476.462481983</v>
       </c>
       <c r="E13">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F13">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G13">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H13">
-        <v>55</v>
+        <v>59.914500000000004</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.4255648003129852E-8</v>
       </c>
       <c r="J13">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3331,31 +3308,31 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>2.614484</v>
+        <v>2.7191138000000001</v>
       </c>
       <c r="C14">
-        <v>18.756038261639976</v>
+        <v>17.064368421052631</v>
       </c>
       <c r="D14">
-        <v>53206160.320713989</v>
+        <v>48844893.345219612</v>
       </c>
       <c r="E14">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F14">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G14">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>57.527500000000003</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3363,31 +3340,31 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>2.778454</v>
+        <v>2.8878303000000005</v>
       </c>
       <c r="C15">
-        <v>18.061657489298796</v>
+        <v>16.362336842105265</v>
       </c>
       <c r="D15">
-        <v>61518251.831444494</v>
+        <v>56923279.049808748</v>
       </c>
       <c r="E15">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F15">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G15">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>60.725499999999997</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3395,31 +3372,31 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>2.7665219999999997</v>
+        <v>2.8755529000000002</v>
       </c>
       <c r="C16">
-        <v>17.636905896351546</v>
+        <v>15.932905263157895</v>
       </c>
       <c r="D16">
-        <v>57056905.836122833</v>
+        <v>52583349.734304264</v>
       </c>
       <c r="E16">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F16">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G16">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H16">
-        <v>55</v>
+        <v>57.493499999999997</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.8722328231962201E-7</v>
       </c>
       <c r="J16">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3427,31 +3404,31 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>2.9309859999999999</v>
+        <v>3.0447777</v>
       </c>
       <c r="C17">
-        <v>18.059700108686137</v>
+        <v>16.360357894736843</v>
       </c>
       <c r="D17">
-        <v>59940112.448164448</v>
+        <v>55387022.644529939</v>
       </c>
       <c r="E17">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F17">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G17">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H17">
-        <v>55</v>
+        <v>57.771999999999998</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3459,31 +3436,31 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>2.965641999999999</v>
+        <v>3.0804369000000005</v>
       </c>
       <c r="C18">
-        <v>17.800836522661832</v>
+        <v>16.09864210526316</v>
       </c>
       <c r="D18">
-        <v>59129858.391081661</v>
+        <v>54598726.114649683</v>
       </c>
       <c r="E18">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F18">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G18">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H18">
-        <v>55</v>
+        <v>57.9435</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3491,31 +3468,31 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>2.4724589999999997</v>
+        <v>2.5729775500000001</v>
       </c>
       <c r="C19">
-        <v>17.573780371593255</v>
+        <v>15.869084210526317</v>
       </c>
       <c r="D19">
-        <v>59067913.435201816</v>
+        <v>54538472.502188832</v>
       </c>
       <c r="E19">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F19">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G19">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>59.870500000000007</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3523,31 +3500,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2.80722</v>
+        <v>2.9174290000000003</v>
       </c>
       <c r="C20">
-        <v>18.377285113090242</v>
+        <v>16.681442105263159</v>
       </c>
       <c r="D20">
-        <v>58802245.608427025</v>
+        <v>54280078.855480604</v>
       </c>
       <c r="E20">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F20">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G20">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H20">
-        <v>55</v>
+        <v>60.858999999999995</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.9215555811118183E-8</v>
       </c>
       <c r="J20">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3555,31 +3532,31 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>2.882574</v>
+        <v>2.9949643000000004</v>
       </c>
       <c r="C21">
-        <v>17.699052730803505</v>
+        <v>15.995736842105263</v>
       </c>
       <c r="D21">
-        <v>60498203.100934394</v>
+        <v>55930168.325603209</v>
       </c>
       <c r="E21">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F21">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G21">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H21">
-        <v>55</v>
+        <v>60.361000000000004</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.3411386952855484E-8</v>
       </c>
       <c r="J21">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3587,31 +3564,31 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>2.9420629999999997</v>
+        <v>3.0561753500000002</v>
       </c>
       <c r="C22">
-        <v>17.546866388169178</v>
+        <v>15.841873684210526</v>
       </c>
       <c r="D22">
-        <v>56818356.638288416</v>
+        <v>52351555.302926362</v>
       </c>
       <c r="E22">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F22">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G22">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H22">
-        <v>55</v>
+        <v>58.217500000000001</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>9.3835032384195381E-8</v>
       </c>
       <c r="J22">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3619,31 +3596,31 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>3.0087719999999996</v>
+        <v>3.1248154000000001</v>
       </c>
       <c r="C23">
-        <v>18.108634624002637</v>
+        <v>16.409831578947369</v>
       </c>
       <c r="D23">
-        <v>58604582.159250446</v>
+        <v>54087849.032205932</v>
       </c>
       <c r="E23">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F23">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G23">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H23">
-        <v>55</v>
+        <v>57.5565</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.157737323253494E-7</v>
       </c>
       <c r="J23">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3651,31 +3628,31 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>2.6655939999999996</v>
+        <v>2.7717033</v>
       </c>
       <c r="C24">
-        <v>17.706882253254147</v>
+        <v>16.003652631578952</v>
       </c>
       <c r="D24">
-        <v>57287867.645268276</v>
+        <v>52807796.993632585</v>
       </c>
       <c r="E24">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F24">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G24">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H24">
-        <v>55</v>
+        <v>59.782499999999999</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3683,31 +3660,31 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>2.6954619999999996</v>
+        <v>2.8024358999999999</v>
       </c>
       <c r="C25">
-        <v>18.501578781994155</v>
+        <v>16.807105263157897</v>
       </c>
       <c r="D25">
-        <v>57263334.177165896</v>
+        <v>52783954.335825242</v>
       </c>
       <c r="E25">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F25">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G25">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H25">
-        <v>55</v>
+        <v>60.807000000000002</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3715,31 +3692,31 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>2.6016209999999997</v>
+        <v>2.7058784499999997</v>
       </c>
       <c r="C26">
-        <v>17.924640846412583</v>
+        <v>16.223810526315788</v>
       </c>
       <c r="D26">
-        <v>53654153.694229953</v>
+        <v>49279467.02000992</v>
       </c>
       <c r="E26">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F26">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G26">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H26">
-        <v>55</v>
+        <v>58.471000000000004</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3747,31 +3724,31 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>2.9436399999999998</v>
+        <v>3.057798</v>
       </c>
       <c r="C27">
-        <v>18.178121635752071</v>
+        <v>16.480084210526314</v>
       </c>
       <c r="D27">
-        <v>57394317.88796784</v>
+        <v>52911253.086816885</v>
       </c>
       <c r="E27">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F27">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G27">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H27">
-        <v>55</v>
+        <v>58.262500000000003</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1.9724409694259464E-9</v>
       </c>
       <c r="J27">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3779,31 +3756,31 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>2.821793</v>
+        <v>2.9324238500000002</v>
       </c>
       <c r="C28">
-        <v>17.759731529795967</v>
+        <v>16.057084210526316</v>
       </c>
       <c r="D28">
-        <v>60645183.534630492</v>
+        <v>56073237.111678757</v>
       </c>
       <c r="E28">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F28">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G28">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H28">
-        <v>55</v>
+        <v>58.0745</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3811,31 +3788,31 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>2.7109279999999996</v>
+        <v>2.8183495999999999</v>
       </c>
       <c r="C29">
-        <v>18.111081349768462</v>
+        <v>16.412305263157894</v>
       </c>
       <c r="D29">
-        <v>57005666.25789471</v>
+        <v>52533558.812107027</v>
       </c>
       <c r="E29">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F29">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G29">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H29">
-        <v>55</v>
+        <v>58.783500000000004</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2.0725926621843196E-8</v>
       </c>
       <c r="J29">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3843,31 +3820,31 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>2.8749359999999995</v>
+        <v>2.9871051999999998</v>
       </c>
       <c r="C30">
-        <v>18.160994555391298</v>
+        <v>16.462768421052633</v>
       </c>
       <c r="D30">
-        <v>61463944.613588028</v>
+        <v>56870393.699120298</v>
       </c>
       <c r="E30">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F30">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G30">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H30">
-        <v>55</v>
+        <v>57.444499999999998</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3875,31 +3852,31 @@
         <v>12</v>
       </c>
       <c r="B31">
-        <v>2.7972639999999998</v>
+        <v>2.9071848</v>
       </c>
       <c r="C31">
-        <v>18.192312645193855</v>
+        <v>16.494431578947367</v>
       </c>
       <c r="D31">
-        <v>57038288.998278327</v>
+        <v>52565259.093480237</v>
       </c>
       <c r="E31">
-        <v>-2.698</v>
+        <v>-1.9260000000000002</v>
       </c>
       <c r="F31">
-        <v>3.4800000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G31">
-        <v>0.7397800000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="H31">
-        <v>55</v>
+        <v>57.923000000000002</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>8.2172222042843841E-8</v>
       </c>
       <c r="J31">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -3915,13 +3892,15 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="H3" sqref="H3:H31"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3:H31"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H31"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3:H31"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3969,31 +3948,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>4.8</v>
+        <v>4.91</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>23.3</v>
       </c>
       <c r="D2">
-        <v>62000000</v>
+        <v>61500000</v>
       </c>
       <c r="E2">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F2">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G2">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2">
-        <v>2.1917808219178083E-4</v>
+        <v>1.6328630136986302E-4</v>
       </c>
       <c r="J2">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4001,31 +3980,31 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>5.021312</v>
+        <v>5.1377184000000007</v>
       </c>
       <c r="C3">
-        <v>22.093907910393174</v>
+        <v>25.41697894736842</v>
       </c>
       <c r="D3">
-        <v>58067354.148147807</v>
+        <v>57680373.055253446</v>
       </c>
       <c r="E3">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F3">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G3">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H3">
-        <v>65</v>
+        <v>73.149000000000001</v>
       </c>
       <c r="I3">
-        <v>2.1919778689208342E-4</v>
+        <v>1.632916037416639E-4</v>
       </c>
       <c r="J3">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4033,31 +4012,31 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>4.9007380000000005</v>
+        <v>5.0136541000000001</v>
       </c>
       <c r="C4">
-        <v>19.926598227025245</v>
+        <v>23.225789473684213</v>
       </c>
       <c r="D4">
-        <v>63989000.916590281</v>
+        <v>63434596.103157781</v>
       </c>
       <c r="E4">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F4">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G4">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H4">
-        <v>65</v>
+        <v>69.894499999999994</v>
       </c>
       <c r="I4">
-        <v>2.1916376106887435E-4</v>
+        <v>1.6328244742050332E-4</v>
       </c>
       <c r="J4">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4065,31 +4044,31 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>4.7657999999999996</v>
+        <v>4.8748100000000001</v>
       </c>
       <c r="C5">
-        <v>19.522888475664093</v>
+        <v>22.81763157894737</v>
       </c>
       <c r="D5">
-        <v>61572198.270588756</v>
+        <v>61084142.025345355</v>
       </c>
       <c r="E5">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F5">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G5">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H5">
-        <v>65</v>
+        <v>72.033500000000004</v>
       </c>
       <c r="I5">
-        <v>2.1897868588694928E-4</v>
+        <v>1.6323262272151365E-4</v>
       </c>
       <c r="J5">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4097,31 +4076,31 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>4.9008900000000004</v>
+        <v>5.0138105000000008</v>
       </c>
       <c r="C6">
-        <v>19.084924563581389</v>
+        <v>22.374842105263159</v>
       </c>
       <c r="D6">
-        <v>67965471.274831742</v>
+        <v>67307863.387135848</v>
       </c>
       <c r="E6">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F6">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G6">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H6">
-        <v>65</v>
+        <v>70.640500000000003</v>
       </c>
       <c r="I6">
-        <v>2.1907722403889773E-4</v>
+        <v>1.6325915494390766E-4</v>
       </c>
       <c r="J6">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4129,31 +4108,31 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>4.4356939999999998</v>
+        <v>4.5351482999999995</v>
       </c>
       <c r="C7">
-        <v>19.029628561273743</v>
+        <v>22.318936842105266</v>
       </c>
       <c r="D7">
-        <v>63575736.729759537</v>
+        <v>63032483.265574314</v>
       </c>
       <c r="E7">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F7">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G7">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H7">
-        <v>65</v>
+        <v>70.811000000000007</v>
       </c>
       <c r="I7">
-        <v>2.1915579383633378E-4</v>
+        <v>1.6328030327056304E-4</v>
       </c>
       <c r="J7">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4161,31 +4140,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>4.5532089999999998</v>
+        <v>4.6560650500000005</v>
       </c>
       <c r="C8">
-        <v>20.337648155683873</v>
+        <v>23.641368421052633</v>
       </c>
       <c r="D8">
-        <v>55671526.764338903</v>
+        <v>55356939.662294634</v>
       </c>
       <c r="E8">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F8">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G8">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H8">
-        <v>65</v>
+        <v>70.911500000000004</v>
       </c>
       <c r="I8">
-        <v>2.1895329096049965E-4</v>
+        <v>1.6322578328476157E-4</v>
       </c>
       <c r="J8">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4193,31 +4172,31 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>4.9536910000000001</v>
+        <v>5.0681399500000008</v>
       </c>
       <c r="C9">
-        <v>19.60999191292747</v>
+        <v>22.905694736842108</v>
       </c>
       <c r="D9">
-        <v>62361771.968622632</v>
+        <v>61851738.570508696</v>
       </c>
       <c r="E9">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F9">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G9">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H9">
-        <v>65</v>
+        <v>71.355000000000004</v>
       </c>
       <c r="I9">
-        <v>2.1922426755687619E-4</v>
+        <v>1.632987288327945E-4</v>
       </c>
       <c r="J9">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4225,31 +4204,31 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>5.0860069999999995</v>
+        <v>5.2042861499999997</v>
       </c>
       <c r="C10">
-        <v>20.112549385227958</v>
+        <v>23.413789473684211</v>
       </c>
       <c r="D10">
-        <v>65554397.707042277</v>
+        <v>64958479.324474029</v>
       </c>
       <c r="E10">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F10">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G10">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H10">
-        <v>65</v>
+        <v>72.246499999999997</v>
       </c>
       <c r="I10">
-        <v>2.1956886999142185E-4</v>
+        <v>1.6339138369561365E-4</v>
       </c>
       <c r="J10">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4257,31 +4236,31 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>4.822724</v>
+        <v>4.9333818000000011</v>
       </c>
       <c r="C11">
-        <v>20.518216517201768</v>
+        <v>23.823926315789471</v>
       </c>
       <c r="D11">
-        <v>58622308.633304343</v>
+        <v>58218940.797631338</v>
       </c>
       <c r="E11">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F11">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G11">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H11">
-        <v>65</v>
+        <v>72.1785</v>
       </c>
       <c r="I11">
-        <v>2.1886246242380954E-4</v>
+        <v>1.632013155707007E-4</v>
       </c>
       <c r="J11">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4289,31 +4268,31 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>4.4824339999999996</v>
+        <v>4.5832413000000001</v>
       </c>
       <c r="C12">
-        <v>19.458784260599472</v>
+        <v>22.752821052631578</v>
       </c>
       <c r="D12">
-        <v>60956228.630098499</v>
+        <v>60485520.059727296</v>
       </c>
       <c r="E12">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F12">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G12">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H12">
-        <v>65</v>
+        <v>69.991</v>
       </c>
       <c r="I12">
-        <v>2.1918076229019367E-4</v>
+        <v>1.6328702258592247E-4</v>
       </c>
       <c r="J12">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4321,31 +4300,31 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>4.9970680000000005</v>
+        <v>5.1127726000000004</v>
       </c>
       <c r="C13">
-        <v>20.147782236255839</v>
+        <v>23.449410526315791</v>
       </c>
       <c r="D13">
-        <v>65070689.905290864</v>
+        <v>64487476.462481983</v>
       </c>
       <c r="E13">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F13">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G13">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H13">
-        <v>65</v>
+        <v>71.914500000000004</v>
       </c>
       <c r="I13">
-        <v>2.1923106251172438E-4</v>
+        <v>1.6330055701786617E-4</v>
       </c>
       <c r="J13">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4353,31 +4332,31 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>4.614484</v>
+        <v>4.7191138000000006</v>
       </c>
       <c r="C14">
-        <v>20.756038261639976</v>
+        <v>24.064368421052631</v>
       </c>
       <c r="D14">
-        <v>57206160.320713989</v>
+        <v>56844893.345219612</v>
       </c>
       <c r="E14">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F14">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G14">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H14">
-        <v>65</v>
+        <v>69.527500000000003</v>
       </c>
       <c r="I14">
-        <v>2.189962083801091E-4</v>
+        <v>1.632373415392571E-4</v>
       </c>
       <c r="J14">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4385,31 +4364,31 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>4.778454</v>
+        <v>4.887830300000001</v>
       </c>
       <c r="C15">
-        <v>20.061657489298796</v>
+        <v>23.362336842105265</v>
       </c>
       <c r="D15">
-        <v>65518251.831444494</v>
+        <v>64923279.049808748</v>
       </c>
       <c r="E15">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F15">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G15">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H15">
-        <v>65</v>
+        <v>72.725499999999997</v>
       </c>
       <c r="I15">
-        <v>2.1913586318587984E-4</v>
+        <v>1.6327493922358216E-4</v>
       </c>
       <c r="J15">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4417,31 +4396,31 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>4.7665220000000001</v>
+        <v>4.8755529000000006</v>
       </c>
       <c r="C16">
-        <v>19.636905896351546</v>
+        <v>22.932905263157895</v>
       </c>
       <c r="D16">
-        <v>61056905.836122833</v>
+        <v>60583349.734304264</v>
       </c>
       <c r="E16">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F16">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G16">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H16">
-        <v>65</v>
+        <v>69.493499999999997</v>
       </c>
       <c r="I16">
-        <v>2.1987475347785476E-4</v>
+        <v>1.6347352465218265E-4</v>
       </c>
       <c r="J16">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4449,31 +4428,31 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>4.9309859999999999</v>
+        <v>5.0447777</v>
       </c>
       <c r="C17">
-        <v>20.059700108686137</v>
+        <v>23.360357894736843</v>
       </c>
       <c r="D17">
-        <v>63940112.448164448</v>
+        <v>63387022.644529939</v>
       </c>
       <c r="E17">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F17">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G17">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H17">
-        <v>65</v>
+        <v>69.771999999999991</v>
       </c>
       <c r="I17">
-        <v>2.1902684512762179E-4</v>
+        <v>1.6324559126449826E-4</v>
       </c>
       <c r="J17">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4481,31 +4460,31 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>4.965641999999999</v>
+        <v>5.0804369000000005</v>
       </c>
       <c r="C18">
-        <v>19.800836522661832</v>
+        <v>23.09864210526316</v>
       </c>
       <c r="D18">
-        <v>63129858.391081661</v>
+        <v>62598726.114649683</v>
       </c>
       <c r="E18">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F18">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G18">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H18">
-        <v>65</v>
+        <v>69.9435</v>
       </c>
       <c r="I18">
-        <v>2.1914780983533843E-4</v>
+        <v>1.6327815454156687E-4</v>
       </c>
       <c r="J18">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4513,31 +4492,31 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>4.4724589999999997</v>
+        <v>4.5729775500000001</v>
       </c>
       <c r="C19">
-        <v>19.573780371593255</v>
+        <v>22.869084210526317</v>
       </c>
       <c r="D19">
-        <v>63067913.435201816</v>
+        <v>62538472.502188832</v>
       </c>
       <c r="E19">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F19">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G19">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H19">
-        <v>65</v>
+        <v>71.870500000000007</v>
       </c>
       <c r="I19">
-        <v>2.1907391551187515E-4</v>
+        <v>1.6325826425946679E-4</v>
       </c>
       <c r="J19">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4545,31 +4524,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>4.80722</v>
+        <v>4.9174290000000003</v>
       </c>
       <c r="C20">
-        <v>20.377285113090242</v>
+        <v>23.681442105263159</v>
       </c>
       <c r="D20">
-        <v>62802245.608427025</v>
+        <v>62280078.855480604</v>
       </c>
       <c r="E20">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F20">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G20">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H20">
-        <v>65</v>
+        <v>72.858999999999995</v>
       </c>
       <c r="I20">
-        <v>2.1928667185405111E-4</v>
+        <v>1.6331551692567414E-4</v>
       </c>
       <c r="J20">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4577,31 +4556,31 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>4.882574</v>
+        <v>4.9949643000000004</v>
       </c>
       <c r="C21">
-        <v>19.699052730803505</v>
+        <v>22.995736842105263</v>
       </c>
       <c r="D21">
-        <v>64498203.100934394</v>
+        <v>63930168.325603209</v>
       </c>
       <c r="E21">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F21">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G21">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H21">
-        <v>65</v>
+        <v>72.361000000000004</v>
       </c>
       <c r="I21">
-        <v>2.1922792456010806E-4</v>
+        <v>1.6329971275681589E-4</v>
       </c>
       <c r="J21">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4609,31 +4588,31 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>4.9420629999999992</v>
+        <v>5.0561753500000002</v>
       </c>
       <c r="C22">
-        <v>19.546866388169178</v>
+        <v>22.841873684210526</v>
       </c>
       <c r="D22">
-        <v>60818356.638288416</v>
+        <v>60351555.302926362</v>
       </c>
       <c r="E22">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F22">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G22">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H22">
-        <v>65</v>
+        <v>70.217500000000001</v>
       </c>
       <c r="I22">
-        <v>2.1952701450239171E-4</v>
+        <v>1.6338013640224722E-4</v>
       </c>
       <c r="J22">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4641,31 +4620,31 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>5.0087719999999996</v>
+        <v>5.1248154000000001</v>
       </c>
       <c r="C23">
-        <v>20.108634624002637</v>
+        <v>23.409831578947369</v>
       </c>
       <c r="D23">
-        <v>62604582.159250446</v>
+        <v>62087849.032205932</v>
       </c>
       <c r="E23">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F23">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G23">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H23">
-        <v>65</v>
+        <v>69.5565</v>
       </c>
       <c r="I23">
-        <v>2.1960866309321281E-4</v>
+        <v>1.6340207510218838E-4</v>
       </c>
       <c r="J23">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4673,31 +4652,31 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>4.6655939999999996</v>
+        <v>4.7717033000000004</v>
       </c>
       <c r="C24">
-        <v>19.706882253254147</v>
+        <v>23.003652631578952</v>
       </c>
       <c r="D24">
-        <v>61287867.645268276</v>
+        <v>60807796.993632585</v>
       </c>
       <c r="E24">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F24">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G24">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H24">
-        <v>65</v>
+        <v>71.782499999999999</v>
       </c>
       <c r="I24">
-        <v>2.1885316520459095E-4</v>
+        <v>1.6319881056728932E-4</v>
       </c>
       <c r="J24">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4705,31 +4684,31 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>4.6954619999999991</v>
+        <v>4.8024358999999999</v>
       </c>
       <c r="C25">
-        <v>20.501578781994155</v>
+        <v>23.807105263157897</v>
       </c>
       <c r="D25">
-        <v>61263334.177165896</v>
+        <v>60783954.335825242</v>
       </c>
       <c r="E25">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F25">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G25">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H25">
-        <v>65</v>
+        <v>72.807000000000002</v>
       </c>
       <c r="I25">
-        <v>2.1913242495346866E-4</v>
+        <v>1.6327401383110118E-4</v>
       </c>
       <c r="J25">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4737,31 +4716,31 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>4.6016209999999997</v>
+        <v>4.7058784500000002</v>
       </c>
       <c r="C26">
-        <v>19.924640846412583</v>
+        <v>23.223810526315788</v>
       </c>
       <c r="D26">
-        <v>57654153.694229953</v>
+        <v>57279467.02000992</v>
       </c>
       <c r="E26">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F26">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G26">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H26">
-        <v>65</v>
+        <v>70.471000000000004</v>
       </c>
       <c r="I26">
-        <v>2.1880212874254108E-4</v>
+        <v>1.631850579126258E-4</v>
       </c>
       <c r="J26">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -4769,31 +4748,31 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>4.9436400000000003</v>
+        <v>5.057798</v>
       </c>
       <c r="C27">
-        <v>20.178121635752071</v>
+        <v>23.480084210526314</v>
       </c>
       <c r="D27">
-        <v>61394317.88796784</v>
+        <v>60911253.086816885</v>
       </c>
       <c r="E27">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F27">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G27">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H27">
-        <v>65</v>
+        <v>70.262500000000003</v>
       </c>
       <c r="I27">
-        <v>2.1918541201118225E-4</v>
+        <v>1.6328827381083245E-4</v>
       </c>
       <c r="J27">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4801,31 +4780,31 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>4.8217929999999996</v>
+        <v>4.9324238500000002</v>
       </c>
       <c r="C28">
-        <v>19.759731529795967</v>
+        <v>23.057084210526316</v>
       </c>
       <c r="D28">
-        <v>64645183.534630492</v>
+        <v>64073237.111678757</v>
       </c>
       <c r="E28">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F28">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G28">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H28">
-        <v>65</v>
+        <v>70.0745</v>
       </c>
       <c r="I28">
-        <v>2.1900538605277491E-4</v>
+        <v>1.6323981296420735E-4</v>
       </c>
       <c r="J28">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4833,31 +4812,31 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>4.7109279999999991</v>
+        <v>4.8183495999999995</v>
       </c>
       <c r="C29">
-        <v>20.111081349768462</v>
+        <v>23.412305263157894</v>
       </c>
       <c r="D29">
-        <v>61005666.25789471</v>
+        <v>60533558.812107027</v>
       </c>
       <c r="E29">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F29">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G29">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H29">
-        <v>65</v>
+        <v>70.783500000000004</v>
       </c>
       <c r="I29">
-        <v>2.1925511252455468E-4</v>
+        <v>1.6330702729648488E-4</v>
       </c>
       <c r="J29">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4865,31 +4844,31 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>4.8749359999999999</v>
+        <v>4.9871052000000002</v>
       </c>
       <c r="C30">
-        <v>20.160994555391298</v>
+        <v>23.462768421052633</v>
       </c>
       <c r="D30">
-        <v>65463944.613588028</v>
+        <v>64870393.699120298</v>
       </c>
       <c r="E30">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F30">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G30">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H30">
-        <v>65</v>
+        <v>69.444500000000005</v>
       </c>
       <c r="I30">
-        <v>2.1907766275863977E-4</v>
+        <v>1.6325927305024684E-4</v>
       </c>
       <c r="J30">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4897,31 +4876,31 @@
         <v>12</v>
       </c>
       <c r="B31">
-        <v>4.7972640000000002</v>
+        <v>4.9071847999999996</v>
       </c>
       <c r="C31">
-        <v>20.192312645193855</v>
+        <v>23.494431578947367</v>
       </c>
       <c r="D31">
-        <v>61038288.998278327</v>
+        <v>60565259.093480237</v>
       </c>
       <c r="E31">
-        <v>2.302</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="F31">
-        <v>6.48</v>
+        <v>8.6</v>
       </c>
       <c r="G31">
-        <v>5.7397799999999997</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="H31">
-        <v>65</v>
+        <v>69.923000000000002</v>
       </c>
       <c r="I31">
-        <v>2.1948361986827487E-4</v>
+        <v>1.6336847359190587E-4</v>
       </c>
       <c r="J31">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelInputs/GEPEP_calibration.xlsx
+++ b/ExcelInputs/GEPEP_calibration.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9717A61C-2AA2-4FF2-BBA5-2CE05AE7630C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B220D6BD-3F71-4A87-980E-0438CDD3DB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="699" activeTab="2" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{81A49CF1-039D-452F-8A6F-A45C842E73DE}"/>
+    <workbookView xWindow="29610" yWindow="60" windowWidth="25140" windowHeight="15075" tabRatio="699" activeTab="2" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
+    <workbookView xWindow="29955" yWindow="405" windowWidth="25140" windowHeight="15075" activeTab="3" xr2:uid="{81A49CF1-039D-452F-8A6F-A45C842E73DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Weights" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="coefficients">#REF!</definedName>
     <definedName name="HighAdj">#REF!</definedName>
     <definedName name="LowAdj">#REF!</definedName>
-    <definedName name="ProdnTargets">Targets!$B$3:$K$31</definedName>
+    <definedName name="ProdnTargets">Targets!$B$3:$J$31</definedName>
     <definedName name="Scenario">#REF!</definedName>
     <definedName name="StdCoeffs">#REF!</definedName>
     <definedName name="TeamNo">#REF!</definedName>
@@ -741,13 +741,14 @@
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:P1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="K1" sqref="K1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
@@ -828,14 +829,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection activeCell="L3" sqref="L3:L31"/>
+      <selection activeCell="K1" sqref="K1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K1" sqref="K1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,7 +1859,6 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2874,9 +2873,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2884,7 +2881,6 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3899,7 +3895,7 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K1" sqref="K1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3908,7 +3904,6 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">

--- a/ExcelInputs/GEPEP_calibration.xlsx
+++ b/ExcelInputs/GEPEP_calibration.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9262B3FE-7BFC-4A39-A720-DE2E02D4AB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C921FA7-294D-41EB-8E32-CCF284C6BADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="699" activeTab="2" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="686" activeTab="2" xr2:uid="{81A49CF1-039D-452F-8A6F-A45C842E73DE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="686" activeTab="3" xr2:uid="{81A49CF1-039D-452F-8A6F-A45C842E73DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Weights" sheetId="10" r:id="rId1"/>
@@ -514,7 +514,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -543,6 +543,7 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
@@ -2097,7 +2098,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3315,11 +3316,11 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView tabSelected="1" workbookViewId="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3396,13 +3397,13 @@
         <v>60</v>
       </c>
       <c r="I2" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J2" s="1">
         <v>18</v>
       </c>
-      <c r="K2" s="2">
-        <v>0</v>
+      <c r="K2" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L2" s="1">
         <v>0.64999999999999991</v>
@@ -3434,13 +3435,13 @@
         <v>62.903499999999994</v>
       </c>
       <c r="I3" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J3" s="1">
         <v>18.222280000000001</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
+      <c r="K3" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L3" s="1">
         <v>0.64999999999999991</v>
@@ -3472,13 +3473,13 @@
         <v>59.774000000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J4" s="1">
         <v>16.851814999999998</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
+      <c r="K4" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L4" s="1">
         <v>0.64999999999999991</v>
@@ -3510,13 +3511,13 @@
         <v>60.713999999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J5" s="1">
         <v>20.027245000000001</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
+      <c r="K5" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L5" s="1">
         <v>0.64999999999999991</v>
@@ -3548,13 +3549,13 @@
         <v>61.171500000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J6" s="1">
         <v>16.625350000000001</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
+      <c r="K6" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L6" s="1">
         <v>0.64999999999999991</v>
@@ -3586,13 +3587,13 @@
         <v>58.521000000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J7" s="1">
         <v>18.31371</v>
       </c>
-      <c r="K7" s="2">
-        <v>0</v>
+      <c r="K7" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L7" s="1">
         <v>0.64999999999999991</v>
@@ -3624,13 +3625,13 @@
         <v>59.145000000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J8" s="1">
         <v>17.859439999999999</v>
       </c>
-      <c r="K8" s="2">
-        <v>0</v>
+      <c r="K8" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L8" s="1">
         <v>0.64999999999999991</v>
@@ -3662,13 +3663,13 @@
         <v>61.204500000000003</v>
       </c>
       <c r="I9" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J9" s="1">
         <v>19.298169999999999</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
+      <c r="K9" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L9" s="1">
         <v>0.64999999999999991</v>
@@ -3700,13 +3701,13 @@
         <v>63.600999999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J10" s="1">
         <v>16.683199999999999</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
+      <c r="K10" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L10" s="1">
         <v>0.64999999999999991</v>
@@ -3738,13 +3739,13 @@
         <v>59.222999999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J11" s="1">
         <v>21.160430000000002</v>
       </c>
-      <c r="K11" s="2">
-        <v>0</v>
+      <c r="K11" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L11" s="1">
         <v>0.64999999999999991</v>
@@ -3776,13 +3777,13 @@
         <v>60.963000000000008</v>
       </c>
       <c r="I12" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J12" s="1">
         <v>17.176154999999998</v>
       </c>
-      <c r="K12" s="2">
-        <v>0</v>
+      <c r="K12" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L12" s="1">
         <v>0.64999999999999991</v>
@@ -3814,13 +3815,13 @@
         <v>61.366500000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J13" s="1">
         <v>18.691000000000003</v>
       </c>
-      <c r="K13" s="2">
-        <v>0</v>
+      <c r="K13" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L13" s="1">
         <v>0.64999999999999991</v>
@@ -3852,13 +3853,13 @@
         <v>58.55</v>
       </c>
       <c r="I14" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J14" s="1">
         <v>18.356735000000004</v>
       </c>
-      <c r="K14" s="2">
-        <v>0</v>
+      <c r="K14" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L14" s="1">
         <v>0.64999999999999991</v>
@@ -3890,13 +3891,13 @@
         <v>63.219000000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J15" s="1">
         <v>18.368819999999996</v>
       </c>
-      <c r="K15" s="2">
-        <v>0</v>
+      <c r="K15" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L15" s="1">
         <v>0.64999999999999991</v>
@@ -3928,13 +3929,13 @@
         <v>57.028999999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J16" s="1">
         <v>18.428129999999999</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
+      <c r="K16" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L16" s="1">
         <v>0.64999999999999991</v>
@@ -3966,13 +3967,13 @@
         <v>60.521000000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J17" s="1">
         <v>17.072644999999998</v>
       </c>
-      <c r="K17" s="2">
-        <v>0</v>
+      <c r="K17" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L17" s="1">
         <v>0.64999999999999991</v>
@@ -4004,13 +4005,13 @@
         <v>59.486499999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J18" s="1">
         <v>18.056084999999999</v>
       </c>
-      <c r="K18" s="2">
-        <v>0</v>
+      <c r="K18" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L18" s="1">
         <v>0.64999999999999991</v>
@@ -4042,13 +4043,13 @@
         <v>58.776000000000003</v>
       </c>
       <c r="I19" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J19" s="1">
         <v>17.597560000000001</v>
       </c>
-      <c r="K19" s="2">
-        <v>0</v>
+      <c r="K19" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L19" s="1">
         <v>0.64999999999999991</v>
@@ -4080,13 +4081,13 @@
         <v>62.811500000000009</v>
       </c>
       <c r="I20" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J20" s="1">
         <v>17.45271</v>
       </c>
-      <c r="K20" s="2">
-        <v>0</v>
+      <c r="K20" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L20" s="1">
         <v>0.64999999999999991</v>
@@ -4118,13 +4119,13 @@
         <v>60.568000000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J21" s="1">
         <v>17.693754999999999</v>
       </c>
-      <c r="K21" s="2">
-        <v>0</v>
+      <c r="K21" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L21" s="1">
         <v>0.64999999999999991</v>
@@ -4156,13 +4157,13 @@
         <v>58.369</v>
       </c>
       <c r="I22" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J22" s="1">
         <v>18.655555000000003</v>
       </c>
-      <c r="K22" s="2">
-        <v>0</v>
+      <c r="K22" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L22" s="1">
         <v>0.64999999999999991</v>
@@ -4194,13 +4195,13 @@
         <v>59.688000000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J23" s="1">
         <v>17.813374999999997</v>
       </c>
-      <c r="K23" s="2">
-        <v>0</v>
+      <c r="K23" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L23" s="1">
         <v>0.64999999999999991</v>
@@ -4232,13 +4233,13 @@
         <v>57.705500000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J24" s="1">
         <v>18.578790000000001</v>
       </c>
-      <c r="K24" s="2">
-        <v>0</v>
+      <c r="K24" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L24" s="1">
         <v>0.64999999999999991</v>
@@ -4270,13 +4271,13 @@
         <v>58.845500000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J25" s="1">
         <v>17.276835000000002</v>
       </c>
-      <c r="K25" s="2">
-        <v>0</v>
+      <c r="K25" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L25" s="1">
         <v>0.64999999999999991</v>
@@ -4308,13 +4309,13 @@
         <v>57.162999999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J26" s="1">
         <v>17.838464999999999</v>
       </c>
-      <c r="K26" s="2">
-        <v>0</v>
+      <c r="K26" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L26" s="1">
         <v>0.64999999999999991</v>
@@ -4346,13 +4347,13 @@
         <v>60.446000000000005</v>
       </c>
       <c r="I27" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J27" s="1">
         <v>17.361775000000002</v>
       </c>
-      <c r="K27" s="2">
-        <v>0</v>
+      <c r="K27" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L27" s="1">
         <v>0.64999999999999991</v>
@@ -4384,13 +4385,13 @@
         <v>60.691499999999998</v>
       </c>
       <c r="I28" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J28" s="1">
         <v>17.831589999999998</v>
       </c>
-      <c r="K28" s="2">
-        <v>0</v>
+      <c r="K28" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L28" s="1">
         <v>0.64999999999999991</v>
@@ -4422,13 +4423,13 @@
         <v>59.313499999999998</v>
       </c>
       <c r="I29" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J29" s="1">
         <v>17.976212155999999</v>
       </c>
-      <c r="K29" s="2">
-        <v>0</v>
+      <c r="K29" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L29" s="1">
         <v>0.64999999999999991</v>
@@ -4460,13 +4461,13 @@
         <v>60.516500000000001</v>
       </c>
       <c r="I30" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J30" s="1">
         <v>17.058200000000003</v>
       </c>
-      <c r="K30" s="2">
-        <v>0</v>
+      <c r="K30" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L30" s="1">
         <v>0.64999999999999991</v>
@@ -4498,13 +4499,13 @@
         <v>57.713499999999996</v>
       </c>
       <c r="I31" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J31" s="1">
         <v>18.680225</v>
       </c>
-      <c r="K31" s="2">
-        <v>0</v>
+      <c r="K31" s="22">
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="L31" s="1">
         <v>0.64999999999999991</v>

--- a/ExcelInputs/GEPEP_calibration.xlsx
+++ b/ExcelInputs/GEPEP_calibration.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C921FA7-294D-41EB-8E32-CCF284C6BADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9262B3FE-7BFC-4A39-A720-DE2E02D4AB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="699" activeTab="2" xr2:uid="{08305449-70BC-467B-94A3-5CFFCBC3DBD2}"/>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="686" activeTab="3" xr2:uid="{81A49CF1-039D-452F-8A6F-A45C842E73DE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="686" activeTab="2" xr2:uid="{81A49CF1-039D-452F-8A6F-A45C842E73DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Weights" sheetId="10" r:id="rId1"/>
@@ -514,7 +514,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -543,7 +543,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
@@ -2098,7 +2097,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView tabSelected="1" workbookViewId="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3316,11 +3315,11 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2:K31"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3397,13 +3396,13 @@
         <v>60</v>
       </c>
       <c r="I2" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J2" s="1">
         <v>18</v>
       </c>
-      <c r="K2" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K2" s="2">
+        <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>0.64999999999999991</v>
@@ -3435,13 +3434,13 @@
         <v>62.903499999999994</v>
       </c>
       <c r="I3" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J3" s="1">
         <v>18.222280000000001</v>
       </c>
-      <c r="K3" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K3" s="2">
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>0.64999999999999991</v>
@@ -3473,13 +3472,13 @@
         <v>59.774000000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J4" s="1">
         <v>16.851814999999998</v>
       </c>
-      <c r="K4" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K4" s="2">
+        <v>0</v>
       </c>
       <c r="L4" s="1">
         <v>0.64999999999999991</v>
@@ -3511,13 +3510,13 @@
         <v>60.713999999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J5" s="1">
         <v>20.027245000000001</v>
       </c>
-      <c r="K5" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K5" s="2">
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>0.64999999999999991</v>
@@ -3549,13 +3548,13 @@
         <v>61.171500000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J6" s="1">
         <v>16.625350000000001</v>
       </c>
-      <c r="K6" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K6" s="2">
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <v>0.64999999999999991</v>
@@ -3587,13 +3586,13 @@
         <v>58.521000000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J7" s="1">
         <v>18.31371</v>
       </c>
-      <c r="K7" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K7" s="2">
+        <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>0.64999999999999991</v>
@@ -3625,13 +3624,13 @@
         <v>59.145000000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J8" s="1">
         <v>17.859439999999999</v>
       </c>
-      <c r="K8" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K8" s="2">
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>0.64999999999999991</v>
@@ -3663,13 +3662,13 @@
         <v>61.204500000000003</v>
       </c>
       <c r="I9" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J9" s="1">
         <v>19.298169999999999</v>
       </c>
-      <c r="K9" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K9" s="2">
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <v>0.64999999999999991</v>
@@ -3701,13 +3700,13 @@
         <v>63.600999999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J10" s="1">
         <v>16.683199999999999</v>
       </c>
-      <c r="K10" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K10" s="2">
+        <v>0</v>
       </c>
       <c r="L10" s="1">
         <v>0.64999999999999991</v>
@@ -3739,13 +3738,13 @@
         <v>59.222999999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J11" s="1">
         <v>21.160430000000002</v>
       </c>
-      <c r="K11" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K11" s="2">
+        <v>0</v>
       </c>
       <c r="L11" s="1">
         <v>0.64999999999999991</v>
@@ -3777,13 +3776,13 @@
         <v>60.963000000000008</v>
       </c>
       <c r="I12" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J12" s="1">
         <v>17.176154999999998</v>
       </c>
-      <c r="K12" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K12" s="2">
+        <v>0</v>
       </c>
       <c r="L12" s="1">
         <v>0.64999999999999991</v>
@@ -3815,13 +3814,13 @@
         <v>61.366500000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J13" s="1">
         <v>18.691000000000003</v>
       </c>
-      <c r="K13" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K13" s="2">
+        <v>0</v>
       </c>
       <c r="L13" s="1">
         <v>0.64999999999999991</v>
@@ -3853,13 +3852,13 @@
         <v>58.55</v>
       </c>
       <c r="I14" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J14" s="1">
         <v>18.356735000000004</v>
       </c>
-      <c r="K14" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K14" s="2">
+        <v>0</v>
       </c>
       <c r="L14" s="1">
         <v>0.64999999999999991</v>
@@ -3891,13 +3890,13 @@
         <v>63.219000000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J15" s="1">
         <v>18.368819999999996</v>
       </c>
-      <c r="K15" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K15" s="2">
+        <v>0</v>
       </c>
       <c r="L15" s="1">
         <v>0.64999999999999991</v>
@@ -3929,13 +3928,13 @@
         <v>57.028999999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J16" s="1">
         <v>18.428129999999999</v>
       </c>
-      <c r="K16" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K16" s="2">
+        <v>0</v>
       </c>
       <c r="L16" s="1">
         <v>0.64999999999999991</v>
@@ -3967,13 +3966,13 @@
         <v>60.521000000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J17" s="1">
         <v>17.072644999999998</v>
       </c>
-      <c r="K17" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K17" s="2">
+        <v>0</v>
       </c>
       <c r="L17" s="1">
         <v>0.64999999999999991</v>
@@ -4005,13 +4004,13 @@
         <v>59.486499999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J18" s="1">
         <v>18.056084999999999</v>
       </c>
-      <c r="K18" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K18" s="2">
+        <v>0</v>
       </c>
       <c r="L18" s="1">
         <v>0.64999999999999991</v>
@@ -4043,13 +4042,13 @@
         <v>58.776000000000003</v>
       </c>
       <c r="I19" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J19" s="1">
         <v>17.597560000000001</v>
       </c>
-      <c r="K19" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K19" s="2">
+        <v>0</v>
       </c>
       <c r="L19" s="1">
         <v>0.64999999999999991</v>
@@ -4081,13 +4080,13 @@
         <v>62.811500000000009</v>
       </c>
       <c r="I20" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J20" s="1">
         <v>17.45271</v>
       </c>
-      <c r="K20" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K20" s="2">
+        <v>0</v>
       </c>
       <c r="L20" s="1">
         <v>0.64999999999999991</v>
@@ -4119,13 +4118,13 @@
         <v>60.568000000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J21" s="1">
         <v>17.693754999999999</v>
       </c>
-      <c r="K21" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K21" s="2">
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <v>0.64999999999999991</v>
@@ -4157,13 +4156,13 @@
         <v>58.369</v>
       </c>
       <c r="I22" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J22" s="1">
         <v>18.655555000000003</v>
       </c>
-      <c r="K22" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K22" s="2">
+        <v>0</v>
       </c>
       <c r="L22" s="1">
         <v>0.64999999999999991</v>
@@ -4195,13 +4194,13 @@
         <v>59.688000000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J23" s="1">
         <v>17.813374999999997</v>
       </c>
-      <c r="K23" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K23" s="2">
+        <v>0</v>
       </c>
       <c r="L23" s="1">
         <v>0.64999999999999991</v>
@@ -4233,13 +4232,13 @@
         <v>57.705500000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J24" s="1">
         <v>18.578790000000001</v>
       </c>
-      <c r="K24" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K24" s="2">
+        <v>0</v>
       </c>
       <c r="L24" s="1">
         <v>0.64999999999999991</v>
@@ -4271,13 +4270,13 @@
         <v>58.845500000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J25" s="1">
         <v>17.276835000000002</v>
       </c>
-      <c r="K25" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K25" s="2">
+        <v>0</v>
       </c>
       <c r="L25" s="1">
         <v>0.64999999999999991</v>
@@ -4309,13 +4308,13 @@
         <v>57.162999999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J26" s="1">
         <v>17.838464999999999</v>
       </c>
-      <c r="K26" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K26" s="2">
+        <v>0</v>
       </c>
       <c r="L26" s="1">
         <v>0.64999999999999991</v>
@@ -4347,13 +4346,13 @@
         <v>60.446000000000005</v>
       </c>
       <c r="I27" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J27" s="1">
         <v>17.361775000000002</v>
       </c>
-      <c r="K27" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K27" s="2">
+        <v>0</v>
       </c>
       <c r="L27" s="1">
         <v>0.64999999999999991</v>
@@ -4385,13 +4384,13 @@
         <v>60.691499999999998</v>
       </c>
       <c r="I28" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J28" s="1">
         <v>17.831589999999998</v>
       </c>
-      <c r="K28" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K28" s="2">
+        <v>0</v>
       </c>
       <c r="L28" s="1">
         <v>0.64999999999999991</v>
@@ -4423,13 +4422,13 @@
         <v>59.313499999999998</v>
       </c>
       <c r="I29" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J29" s="1">
         <v>17.976212155999999</v>
       </c>
-      <c r="K29" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K29" s="2">
+        <v>0</v>
       </c>
       <c r="L29" s="1">
         <v>0.64999999999999991</v>
@@ -4461,13 +4460,13 @@
         <v>60.516500000000001</v>
       </c>
       <c r="I30" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J30" s="1">
         <v>17.058200000000003</v>
       </c>
-      <c r="K30" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K30" s="2">
+        <v>0</v>
       </c>
       <c r="L30" s="1">
         <v>0.64999999999999991</v>
@@ -4499,13 +4498,13 @@
         <v>57.713499999999996</v>
       </c>
       <c r="I31" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J31" s="1">
         <v>18.680225</v>
       </c>
-      <c r="K31" s="22">
-        <v>8.9999999999999999E-8</v>
+      <c r="K31" s="2">
+        <v>0</v>
       </c>
       <c r="L31" s="1">
         <v>0.64999999999999991</v>
